--- a/Figures/summaries_csvs/summary_stats.xlsx
+++ b/Figures/summaries_csvs/summary_stats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kunalpalawat/Documents/GitHub/project-harvest-fork/Figures/summaries_csvs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gift/Documents/Rprojects/project-harvest/Figures/summaries_csvs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5381C6E-5711-8B4D-B6D7-497946CD8D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F675019-5D96-9E4A-8FF2-5F26CB403B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16200" activeTab="4" xr2:uid="{72327930-6813-6348-93C5-5B78A6BEE9FB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16200" activeTab="3" xr2:uid="{72327930-6813-6348-93C5-5B78A6BEE9FB}"/>
   </bookViews>
   <sheets>
     <sheet name="pli" sheetId="1" r:id="rId1"/>
@@ -831,9 +831,6 @@
     <t>Detection %</t>
   </si>
   <si>
-    <t>MLOD Range</t>
-  </si>
-  <si>
     <t>0.00054-0.034</t>
   </si>
   <si>
@@ -889,6 +886,9 @@
   </si>
   <si>
     <t>0.00010-0.026</t>
+  </si>
+  <si>
+    <t>MLOD Range (mg/kg)</t>
   </si>
 </sst>
 </file>
@@ -898,7 +898,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -956,6 +956,13 @@
     </font>
     <font>
       <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -1051,7 +1058,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1075,13 +1082,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1093,6 +1094,14 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1102,13 +1111,20 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="10" fontId="1" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1453,9 +1469,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1493,7 +1509,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1599,7 +1615,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1741,7 +1757,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1751,7 +1767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F10470E-069B-2F40-A2A2-32A8AEEF77C7}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView topLeftCell="D79" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L80" sqref="L80"/>
     </sheetView>
   </sheetViews>
@@ -2873,14 +2889,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{312CDEB9-360E-C84D-ABC7-CCD81CFE5BEA}">
   <dimension ref="A2:S112"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A197" zoomScale="125" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="9"/>
-    <col min="2" max="2" width="12.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" style="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.1640625" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.6640625" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="9" width="15.83203125" style="9" customWidth="1"/>
@@ -2895,40 +2911,40 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="27" t="s">
         <v>228</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
     </row>
     <row r="4" spans="1:19" ht="120" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="C4" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="22" t="s">
+      <c r="C4" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="18" t="s">
         <v>235</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="18" t="s">
         <v>234</v>
       </c>
       <c r="J4" s="11"/>
@@ -2939,7 +2955,7 @@
       <c r="O4" s="12"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="26" t="s">
         <v>239</v>
       </c>
       <c r="C5" s="13"/>
@@ -2951,7 +2967,7 @@
       <c r="S5" s="14"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B6" s="23"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="11" t="s">
         <v>236</v>
       </c>
@@ -2977,7 +2993,7 @@
       <c r="S6" s="16"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B7" s="23"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="11" t="s">
         <v>13</v>
       </c>
@@ -3006,7 +3022,7 @@
       <c r="S7" s="16"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B8" s="23"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="11" t="s">
         <v>22</v>
       </c>
@@ -3035,7 +3051,7 @@
       <c r="S8" s="16"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B9" s="23"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="11" t="s">
         <v>31</v>
       </c>
@@ -3064,7 +3080,7 @@
       <c r="S9" s="16"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B10" s="23"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="11" t="s">
         <v>237</v>
       </c>
@@ -3093,7 +3109,7 @@
       <c r="S10" s="16"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="25" t="s">
         <v>50</v>
       </c>
       <c r="C11" s="13"/>
@@ -3110,7 +3126,7 @@
       <c r="S11" s="14"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B12" s="23"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="11" t="s">
         <v>236</v>
       </c>
@@ -3120,7 +3136,7 @@
       <c r="E12" s="10">
         <v>0</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="28">
         <v>0.23</v>
       </c>
       <c r="G12" s="10">
@@ -3139,20 +3155,20 @@
       <c r="S12" s="16"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B13" s="23"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="11">
         <v>124</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="29">
         <v>1.6E-2</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="28">
         <v>0.52</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="29">
         <v>1.6E-2</v>
       </c>
       <c r="H13" s="15" t="s">
@@ -3168,7 +3184,7 @@
       <c r="S13" s="16"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B14" s="23"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="11" t="s">
         <v>22</v>
       </c>
@@ -3178,7 +3194,7 @@
       <c r="E14" s="10">
         <v>0</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="28">
         <v>0.34</v>
       </c>
       <c r="G14" s="10">
@@ -3197,7 +3213,7 @@
       <c r="S14" s="16"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B15" s="23"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="11" t="s">
         <v>31</v>
       </c>
@@ -3207,7 +3223,7 @@
       <c r="E15" s="10">
         <v>0</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="28">
         <v>0.28999999999999998</v>
       </c>
       <c r="G15" s="10">
@@ -3226,20 +3242,20 @@
       <c r="S15" s="16"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B16" s="23"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="11" t="s">
         <v>237</v>
       </c>
       <c r="D16" s="11">
         <v>577</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="29">
         <v>3.4999999999999996E-3</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="28">
         <v>0.34</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="29">
         <v>3.4999999999999996E-3</v>
       </c>
       <c r="H16" s="15" t="s">
@@ -3255,7 +3271,7 @@
       <c r="S16" s="16"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="25" t="s">
         <v>65</v>
       </c>
       <c r="C17" s="13"/>
@@ -3267,127 +3283,127 @@
       <c r="I17" s="10"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="23"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="11" t="s">
         <v>236</v>
       </c>
       <c r="D18" s="11">
         <v>53</v>
       </c>
-      <c r="E18" s="18">
-        <v>0</v>
-      </c>
-      <c r="F18" s="18">
+      <c r="E18" s="17">
+        <v>0</v>
+      </c>
+      <c r="F18" s="30">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="30">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="H18" s="18">
-        <v>0</v>
-      </c>
-      <c r="I18" s="18">
+      <c r="H18" s="17">
+        <v>0</v>
+      </c>
+      <c r="I18" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B19" s="23"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="11">
         <v>124</v>
       </c>
-      <c r="E19" s="18">
-        <v>0</v>
-      </c>
-      <c r="F19" s="18">
-        <v>0</v>
-      </c>
-      <c r="G19" s="18">
-        <v>0</v>
-      </c>
-      <c r="H19" s="18">
-        <v>0</v>
-      </c>
-      <c r="I19" s="18">
+      <c r="E19" s="17">
+        <v>0</v>
+      </c>
+      <c r="F19" s="17">
+        <v>0</v>
+      </c>
+      <c r="G19" s="17">
+        <v>0</v>
+      </c>
+      <c r="H19" s="17">
+        <v>0</v>
+      </c>
+      <c r="I19" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B20" s="23"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D20" s="11">
         <v>93</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="30">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F20" s="31">
         <v>0.17199999999999999</v>
       </c>
-      <c r="G20" s="19">
+      <c r="G20" s="31">
         <v>0.17199999999999999</v>
       </c>
-      <c r="H20" s="18">
+      <c r="H20" s="30">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="I20" s="18">
+      <c r="I20" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B21" s="23"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="11" t="s">
         <v>31</v>
       </c>
       <c r="D21" s="11">
         <v>307</v>
       </c>
-      <c r="E21" s="18">
-        <v>0</v>
-      </c>
-      <c r="F21" s="18">
+      <c r="E21" s="17">
+        <v>0</v>
+      </c>
+      <c r="F21" s="30">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="30">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="H21" s="18">
-        <v>0</v>
-      </c>
-      <c r="I21" s="18">
+      <c r="H21" s="17">
+        <v>0</v>
+      </c>
+      <c r="I21" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B22" s="23"/>
+      <c r="B22" s="25"/>
       <c r="C22" s="11" t="s">
         <v>237</v>
       </c>
       <c r="D22" s="11">
         <v>577</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E22" s="30">
         <v>2E-3</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="30">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="30">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="H22" s="18">
+      <c r="H22" s="17">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="I22" s="18">
+      <c r="I22" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="25" t="s">
         <v>78</v>
       </c>
       <c r="E23" s="10"/>
@@ -3397,7 +3413,7 @@
       <c r="I23" s="10"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B24" s="23"/>
+      <c r="B24" s="25"/>
       <c r="C24" s="11" t="s">
         <v>236</v>
       </c>
@@ -3421,7 +3437,7 @@
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B25" s="23"/>
+      <c r="B25" s="25"/>
       <c r="C25" s="11" t="s">
         <v>13</v>
       </c>
@@ -3445,7 +3461,7 @@
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B26" s="23"/>
+      <c r="B26" s="25"/>
       <c r="C26" s="11" t="s">
         <v>22</v>
       </c>
@@ -3469,7 +3485,7 @@
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B27" s="23"/>
+      <c r="B27" s="25"/>
       <c r="C27" s="11" t="s">
         <v>31</v>
       </c>
@@ -3493,7 +3509,7 @@
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B28" s="23"/>
+      <c r="B28" s="25"/>
       <c r="C28" s="11" t="s">
         <v>237</v>
       </c>
@@ -3517,7 +3533,7 @@
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="25" t="s">
         <v>91</v>
       </c>
       <c r="E29" s="10"/>
@@ -3527,7 +3543,7 @@
       <c r="I29" s="10"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B30" s="23"/>
+      <c r="B30" s="25"/>
       <c r="C30" s="11" t="s">
         <v>236</v>
       </c>
@@ -3551,7 +3567,7 @@
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B31" s="23"/>
+      <c r="B31" s="25"/>
       <c r="C31" s="11" t="s">
         <v>13</v>
       </c>
@@ -3575,7 +3591,7 @@
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B32" s="23"/>
+      <c r="B32" s="25"/>
       <c r="C32" s="11" t="s">
         <v>22</v>
       </c>
@@ -3599,7 +3615,7 @@
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B33" s="23"/>
+      <c r="B33" s="25"/>
       <c r="C33" s="11" t="s">
         <v>31</v>
       </c>
@@ -3623,7 +3639,7 @@
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B34" s="23"/>
+      <c r="B34" s="25"/>
       <c r="C34" s="11" t="s">
         <v>237</v>
       </c>
@@ -3647,7 +3663,7 @@
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="25" t="s">
         <v>104</v>
       </c>
       <c r="E35" s="10"/>
@@ -3657,7 +3673,7 @@
       <c r="I35" s="10"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B36" s="23"/>
+      <c r="B36" s="25"/>
       <c r="C36" s="11" t="s">
         <v>236</v>
       </c>
@@ -3681,17 +3697,17 @@
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B37" s="23"/>
+      <c r="B37" s="25"/>
       <c r="C37" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D37" s="11">
         <v>124</v>
       </c>
-      <c r="E37" s="10">
+      <c r="E37" s="29">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="F37" s="10">
+      <c r="F37" s="29">
         <v>8.1000000000000003E-2</v>
       </c>
       <c r="G37" s="10">
@@ -3705,7 +3721,7 @@
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B38" s="23"/>
+      <c r="B38" s="25"/>
       <c r="C38" s="11" t="s">
         <v>22</v>
       </c>
@@ -3729,7 +3745,7 @@
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B39" s="23"/>
+      <c r="B39" s="25"/>
       <c r="C39" s="11" t="s">
         <v>31</v>
       </c>
@@ -3753,17 +3769,17 @@
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B40" s="23"/>
+      <c r="B40" s="25"/>
       <c r="C40" s="11" t="s">
         <v>237</v>
       </c>
       <c r="D40" s="11">
         <v>577</v>
       </c>
-      <c r="E40" s="10">
+      <c r="E40" s="29">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="F40" s="10">
+      <c r="F40" s="29">
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="G40" s="10">
@@ -3777,7 +3793,7 @@
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="25" t="s">
         <v>240</v>
       </c>
       <c r="E41" s="10"/>
@@ -3787,7 +3803,7 @@
       <c r="I41" s="10"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B42" s="23"/>
+      <c r="B42" s="25"/>
       <c r="C42" s="11" t="s">
         <v>236</v>
       </c>
@@ -3811,7 +3827,7 @@
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B43" s="23"/>
+      <c r="B43" s="25"/>
       <c r="C43" s="11" t="s">
         <v>13</v>
       </c>
@@ -3835,7 +3851,7 @@
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B44" s="23"/>
+      <c r="B44" s="25"/>
       <c r="C44" s="11" t="s">
         <v>22</v>
       </c>
@@ -3859,7 +3875,7 @@
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B45" s="23"/>
+      <c r="B45" s="25"/>
       <c r="C45" s="11" t="s">
         <v>31</v>
       </c>
@@ -3883,7 +3899,7 @@
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B46" s="23"/>
+      <c r="B46" s="25"/>
       <c r="C46" s="11" t="s">
         <v>237</v>
       </c>
@@ -3907,7 +3923,7 @@
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B47" s="23" t="s">
+      <c r="B47" s="25" t="s">
         <v>121</v>
       </c>
       <c r="E47" s="10"/>
@@ -3917,7 +3933,7 @@
       <c r="I47" s="10"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B48" s="23"/>
+      <c r="B48" s="25"/>
       <c r="C48" s="11" t="s">
         <v>236</v>
       </c>
@@ -3941,7 +3957,7 @@
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B49" s="23"/>
+      <c r="B49" s="25"/>
       <c r="C49" s="11" t="s">
         <v>13</v>
       </c>
@@ -3965,17 +3981,17 @@
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B50" s="23"/>
+      <c r="B50" s="25"/>
       <c r="C50" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D50" s="11">
         <v>93</v>
       </c>
-      <c r="E50" s="10">
+      <c r="E50" s="29">
         <v>1.1000000000000001E-2</v>
       </c>
-      <c r="F50" s="10">
+      <c r="F50" s="29">
         <v>1.1000000000000001E-2</v>
       </c>
       <c r="G50" s="10">
@@ -3989,7 +4005,7 @@
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B51" s="23"/>
+      <c r="B51" s="25"/>
       <c r="C51" s="11" t="s">
         <v>31</v>
       </c>
@@ -4013,17 +4029,17 @@
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B52" s="23"/>
+      <c r="B52" s="25"/>
       <c r="C52" s="11" t="s">
         <v>237</v>
       </c>
       <c r="D52" s="11">
         <v>577</v>
       </c>
-      <c r="E52" s="10">
+      <c r="E52" s="29">
         <v>1.7000000000000001E-3</v>
       </c>
-      <c r="F52" s="10">
+      <c r="F52" s="29">
         <v>1.7000000000000001E-3</v>
       </c>
       <c r="G52" s="10">
@@ -4037,7 +4053,7 @@
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B53" s="23" t="s">
+      <c r="B53" s="25" t="s">
         <v>130</v>
       </c>
       <c r="E53" s="10"/>
@@ -4047,7 +4063,7 @@
       <c r="I53" s="10"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B54" s="23"/>
+      <c r="B54" s="25"/>
       <c r="C54" s="11" t="s">
         <v>236</v>
       </c>
@@ -4071,23 +4087,23 @@
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B55" s="23"/>
+      <c r="B55" s="25"/>
       <c r="C55" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D55" s="11">
         <v>124</v>
       </c>
-      <c r="E55" s="10">
+      <c r="E55" s="29">
         <v>9.6999999999999989E-2</v>
       </c>
-      <c r="F55" s="10">
+      <c r="F55" s="29">
         <v>1.6E-2</v>
       </c>
-      <c r="G55" s="10">
+      <c r="G55" s="29">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="H55" s="10">
+      <c r="H55" s="29">
         <v>1.6E-2</v>
       </c>
       <c r="I55" s="10">
@@ -4095,23 +4111,23 @@
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B56" s="23"/>
+      <c r="B56" s="25"/>
       <c r="C56" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D56" s="11">
         <v>93</v>
       </c>
-      <c r="E56" s="17">
+      <c r="E56" s="28">
         <v>0.17</v>
       </c>
-      <c r="F56" s="10">
+      <c r="F56" s="29">
         <v>2.2000000000000002E-2</v>
       </c>
-      <c r="G56" s="10">
+      <c r="G56" s="29">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="H56" s="10">
+      <c r="H56" s="29">
         <v>2.2000000000000002E-2</v>
       </c>
       <c r="I56" s="10">
@@ -4119,23 +4135,23 @@
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B57" s="23"/>
+      <c r="B57" s="25"/>
       <c r="C57" s="11" t="s">
         <v>31</v>
       </c>
       <c r="D57" s="11">
         <v>307</v>
       </c>
-      <c r="E57" s="10">
+      <c r="E57" s="29">
         <v>2.3E-2</v>
       </c>
       <c r="F57" s="10">
         <v>0</v>
       </c>
-      <c r="G57" s="10">
+      <c r="G57" s="29">
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="H57" s="10">
+      <c r="H57" s="32">
         <v>0</v>
       </c>
       <c r="I57" s="10">
@@ -4143,23 +4159,23 @@
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B58" s="23"/>
+      <c r="B58" s="25"/>
       <c r="C58" s="11" t="s">
         <v>237</v>
       </c>
       <c r="D58" s="11">
         <v>577</v>
       </c>
-      <c r="E58" s="10">
+      <c r="E58" s="29">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="F58" s="10">
+      <c r="F58" s="29">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="G58" s="10">
+      <c r="G58" s="29">
         <v>2.3E-2</v>
       </c>
-      <c r="H58" s="10">
+      <c r="H58" s="29">
         <v>6.8999999999999999E-3</v>
       </c>
       <c r="I58" s="10">
@@ -4167,7 +4183,7 @@
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B59" s="23" t="s">
+      <c r="B59" s="25" t="s">
         <v>143</v>
       </c>
       <c r="E59" s="10"/>
@@ -4177,7 +4193,7 @@
       <c r="I59" s="10"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B60" s="23"/>
+      <c r="B60" s="25"/>
       <c r="C60" s="11" t="s">
         <v>236</v>
       </c>
@@ -4187,10 +4203,10 @@
       <c r="E60" s="10">
         <v>0</v>
       </c>
-      <c r="F60" s="10">
+      <c r="F60" s="29">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="G60" s="10">
+      <c r="G60" s="29">
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="H60" s="15" t="s">
@@ -4201,7 +4217,7 @@
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B61" s="23"/>
+      <c r="B61" s="25"/>
       <c r="C61" s="11" t="s">
         <v>13</v>
       </c>
@@ -4211,10 +4227,10 @@
       <c r="E61" s="10">
         <v>0</v>
       </c>
-      <c r="F61" s="10">
+      <c r="F61" s="29">
         <v>0.04</v>
       </c>
-      <c r="G61" s="10">
+      <c r="G61" s="29">
         <v>0.04</v>
       </c>
       <c r="H61" s="15" t="s">
@@ -4225,7 +4241,7 @@
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B62" s="23"/>
+      <c r="B62" s="25"/>
       <c r="C62" s="11" t="s">
         <v>22</v>
       </c>
@@ -4235,10 +4251,10 @@
       <c r="E62" s="10">
         <v>0</v>
       </c>
-      <c r="F62" s="10">
+      <c r="F62" s="29">
         <v>5.4000000000000006E-2</v>
       </c>
-      <c r="G62" s="10">
+      <c r="G62" s="29">
         <v>5.4000000000000006E-2</v>
       </c>
       <c r="H62" s="15" t="s">
@@ -4249,7 +4265,7 @@
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B63" s="23"/>
+      <c r="B63" s="25"/>
       <c r="C63" s="11" t="s">
         <v>31</v>
       </c>
@@ -4259,10 +4275,10 @@
       <c r="E63" s="10">
         <v>0</v>
       </c>
-      <c r="F63" s="10">
+      <c r="F63" s="29">
         <v>5.2000000000000005E-2</v>
       </c>
-      <c r="G63" s="10">
+      <c r="G63" s="29">
         <v>5.2000000000000005E-2</v>
       </c>
       <c r="H63" s="15" t="s">
@@ -4273,7 +4289,7 @@
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B64" s="23"/>
+      <c r="B64" s="25"/>
       <c r="C64" s="11" t="s">
         <v>237</v>
       </c>
@@ -4283,10 +4299,10 @@
       <c r="E64" s="10">
         <v>0</v>
       </c>
-      <c r="F64" s="10">
+      <c r="F64" s="29">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="G64" s="10">
+      <c r="G64" s="29">
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="H64" s="15" t="s">
@@ -4297,7 +4313,7 @@
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B65" s="23" t="s">
+      <c r="B65" s="25" t="s">
         <v>156</v>
       </c>
       <c r="E65" s="10"/>
@@ -4307,20 +4323,20 @@
       <c r="I65" s="10"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B66" s="23"/>
+      <c r="B66" s="25"/>
       <c r="C66" s="11" t="s">
         <v>236</v>
       </c>
       <c r="D66" s="11">
         <v>53</v>
       </c>
-      <c r="E66" s="10">
+      <c r="E66" s="29">
         <v>1.9E-2</v>
       </c>
-      <c r="F66" s="10">
+      <c r="F66" s="29">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="G66" s="10">
+      <c r="G66" s="29">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="H66" s="10">
@@ -4331,20 +4347,20 @@
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B67" s="23"/>
+      <c r="B67" s="25"/>
       <c r="C67" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D67" s="11">
         <v>124</v>
       </c>
-      <c r="E67" s="10">
+      <c r="E67" s="29">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="F67" s="17">
+      <c r="F67" s="28">
         <v>0.24</v>
       </c>
-      <c r="G67" s="17">
+      <c r="G67" s="28">
         <v>0.24</v>
       </c>
       <c r="H67" s="10">
@@ -4355,20 +4371,20 @@
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B68" s="23"/>
+      <c r="B68" s="25"/>
       <c r="C68" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D68" s="11">
         <v>93</v>
       </c>
-      <c r="E68" s="10">
+      <c r="E68" s="29">
         <v>2.2000000000000002E-2</v>
       </c>
-      <c r="F68" s="10">
+      <c r="F68" s="29">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="G68" s="10">
+      <c r="G68" s="29">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="H68" s="10">
@@ -4379,20 +4395,20 @@
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B69" s="23"/>
+      <c r="B69" s="25"/>
       <c r="C69" s="11" t="s">
         <v>31</v>
       </c>
       <c r="D69" s="11">
         <v>307</v>
       </c>
-      <c r="E69" s="10">
+      <c r="E69" s="29">
         <v>1.3000000000000001E-2</v>
       </c>
-      <c r="F69" s="17">
+      <c r="F69" s="28">
         <v>0.1</v>
       </c>
-      <c r="G69" s="17">
+      <c r="G69" s="28">
         <v>0.1</v>
       </c>
       <c r="H69" s="10">
@@ -4403,20 +4419,20 @@
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B70" s="23"/>
+      <c r="B70" s="25"/>
       <c r="C70" s="11" t="s">
         <v>237</v>
       </c>
       <c r="D70" s="11">
         <v>577</v>
       </c>
-      <c r="E70" s="10">
+      <c r="E70" s="29">
         <v>2.8999999999999998E-2</v>
       </c>
-      <c r="F70" s="17">
+      <c r="F70" s="28">
         <v>0.13</v>
       </c>
-      <c r="G70" s="17">
+      <c r="G70" s="28">
         <v>0.13</v>
       </c>
       <c r="H70" s="10">
@@ -4427,7 +4443,7 @@
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B71" s="23" t="s">
+      <c r="B71" s="25" t="s">
         <v>241</v>
       </c>
       <c r="E71" s="10"/>
@@ -4437,14 +4453,14 @@
       <c r="I71" s="10"/>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B72" s="23"/>
+      <c r="B72" s="25"/>
       <c r="C72" s="11" t="s">
         <v>236</v>
       </c>
       <c r="D72" s="11">
         <v>53</v>
       </c>
-      <c r="E72" s="10">
+      <c r="E72" s="29">
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="F72" s="15" t="s">
@@ -4461,14 +4477,14 @@
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B73" s="23"/>
+      <c r="B73" s="25"/>
       <c r="C73" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D73" s="11">
         <v>124</v>
       </c>
-      <c r="E73" s="10">
+      <c r="E73" s="29">
         <v>0</v>
       </c>
       <c r="F73" s="15" t="s">
@@ -4485,14 +4501,14 @@
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B74" s="23"/>
+      <c r="B74" s="25"/>
       <c r="C74" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D74" s="11">
         <v>93</v>
       </c>
-      <c r="E74" s="10">
+      <c r="E74" s="29">
         <v>5.4000000000000006E-2</v>
       </c>
       <c r="F74" s="15" t="s">
@@ -4509,14 +4525,14 @@
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B75" s="23"/>
+      <c r="B75" s="25"/>
       <c r="C75" s="11" t="s">
         <v>31</v>
       </c>
       <c r="D75" s="11">
         <v>307</v>
       </c>
-      <c r="E75" s="10">
+      <c r="E75" s="29">
         <v>3.6000000000000004E-2</v>
       </c>
       <c r="F75" s="15" t="s">
@@ -4533,14 +4549,14 @@
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B76" s="23"/>
+      <c r="B76" s="25"/>
       <c r="C76" s="11" t="s">
         <v>237</v>
       </c>
       <c r="D76" s="11">
         <v>577</v>
       </c>
-      <c r="E76" s="10">
+      <c r="E76" s="29">
         <v>3.1E-2</v>
       </c>
       <c r="F76" s="15" t="s">
@@ -4557,7 +4573,7 @@
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B77" s="23" t="s">
+      <c r="B77" s="25" t="s">
         <v>169</v>
       </c>
       <c r="E77" s="10"/>
@@ -4567,7 +4583,7 @@
       <c r="I77" s="10"/>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B78" s="23"/>
+      <c r="B78" s="25"/>
       <c r="C78" s="11" t="s">
         <v>236</v>
       </c>
@@ -4591,17 +4607,17 @@
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B79" s="23"/>
+      <c r="B79" s="25"/>
       <c r="C79" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D79" s="11">
         <v>124</v>
       </c>
-      <c r="E79" s="10">
+      <c r="E79" s="29">
         <v>1.6E-2</v>
       </c>
-      <c r="F79" s="10">
+      <c r="F79" s="29">
         <v>1.6E-2</v>
       </c>
       <c r="G79" s="15" t="s">
@@ -4615,7 +4631,7 @@
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B80" s="23"/>
+      <c r="B80" s="25"/>
       <c r="C80" s="11" t="s">
         <v>22</v>
       </c>
@@ -4639,7 +4655,7 @@
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B81" s="23"/>
+      <c r="B81" s="25"/>
       <c r="C81" s="11" t="s">
         <v>31</v>
       </c>
@@ -4663,7 +4679,7 @@
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B82" s="23"/>
+      <c r="B82" s="25"/>
       <c r="C82" s="11" t="s">
         <v>237</v>
       </c>
@@ -4687,7 +4703,7 @@
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B83" s="23" t="s">
+      <c r="B83" s="25" t="s">
         <v>182</v>
       </c>
       <c r="C83" s="13"/>
@@ -4699,127 +4715,127 @@
       <c r="I83" s="10"/>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B84" s="23"/>
+      <c r="B84" s="25"/>
       <c r="C84" s="11" t="s">
         <v>236</v>
       </c>
       <c r="D84" s="11">
         <v>53</v>
       </c>
-      <c r="E84" s="18">
-        <v>0</v>
-      </c>
-      <c r="F84" s="18">
-        <v>0</v>
-      </c>
-      <c r="G84" s="18">
-        <v>0</v>
-      </c>
-      <c r="H84" s="18">
-        <v>0</v>
-      </c>
-      <c r="I84" s="18">
+      <c r="E84" s="17">
+        <v>0</v>
+      </c>
+      <c r="F84" s="17">
+        <v>0</v>
+      </c>
+      <c r="G84" s="17">
+        <v>0</v>
+      </c>
+      <c r="H84" s="17">
+        <v>0</v>
+      </c>
+      <c r="I84" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B85" s="23"/>
+      <c r="B85" s="25"/>
       <c r="C85" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D85" s="11">
         <v>124</v>
       </c>
-      <c r="E85" s="18">
-        <v>0</v>
-      </c>
-      <c r="F85" s="18">
+      <c r="E85" s="17">
+        <v>0</v>
+      </c>
+      <c r="F85" s="30">
         <v>2.4E-2</v>
       </c>
-      <c r="G85" s="18">
-        <v>0</v>
-      </c>
-      <c r="H85" s="18">
+      <c r="G85" s="17">
+        <v>0</v>
+      </c>
+      <c r="H85" s="30">
         <v>2.4E-2</v>
       </c>
-      <c r="I85" s="18">
+      <c r="I85" s="30">
         <v>2.4E-2</v>
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B86" s="23"/>
+      <c r="B86" s="25"/>
       <c r="C86" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D86" s="11">
         <v>93</v>
       </c>
-      <c r="E86" s="18">
-        <v>0</v>
-      </c>
-      <c r="F86" s="18">
+      <c r="E86" s="17">
+        <v>0</v>
+      </c>
+      <c r="F86" s="30">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="G86" s="18">
-        <v>0</v>
-      </c>
-      <c r="H86" s="18">
+      <c r="G86" s="17">
+        <v>0</v>
+      </c>
+      <c r="H86" s="30">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="I86" s="18">
+      <c r="I86" s="30">
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B87" s="23"/>
+      <c r="B87" s="25"/>
       <c r="C87" s="11" t="s">
         <v>31</v>
       </c>
       <c r="D87" s="11">
         <v>307</v>
       </c>
-      <c r="E87" s="18">
-        <v>0</v>
-      </c>
-      <c r="F87" s="18">
+      <c r="E87" s="17">
+        <v>0</v>
+      </c>
+      <c r="F87" s="30">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G87" s="18">
+      <c r="G87" s="30">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="H87" s="18">
+      <c r="H87" s="30">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="I87" s="18">
+      <c r="I87" s="30">
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B88" s="23"/>
+      <c r="B88" s="25"/>
       <c r="C88" s="11" t="s">
         <v>237</v>
       </c>
       <c r="D88" s="11">
         <v>577</v>
       </c>
-      <c r="E88" s="18">
-        <v>0</v>
-      </c>
-      <c r="F88" s="18">
+      <c r="E88" s="17">
+        <v>0</v>
+      </c>
+      <c r="F88" s="30">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="G88" s="18">
+      <c r="G88" s="30">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H88" s="18">
+      <c r="H88" s="30">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="I88" s="18">
+      <c r="I88" s="30">
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B89" s="23" t="s">
+      <c r="B89" s="25" t="s">
         <v>242</v>
       </c>
       <c r="E89" s="10"/>
@@ -4829,7 +4845,7 @@
       <c r="I89" s="10"/>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B90" s="23"/>
+      <c r="B90" s="25"/>
       <c r="C90" s="11" t="s">
         <v>236</v>
       </c>
@@ -4853,7 +4869,7 @@
       </c>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B91" s="23"/>
+      <c r="B91" s="25"/>
       <c r="C91" s="11" t="s">
         <v>13</v>
       </c>
@@ -4877,7 +4893,7 @@
       </c>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B92" s="23"/>
+      <c r="B92" s="25"/>
       <c r="C92" s="11" t="s">
         <v>22</v>
       </c>
@@ -4887,7 +4903,7 @@
       <c r="E92" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="F92" s="10">
+      <c r="F92" s="29">
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="G92" s="15" t="s">
@@ -4901,7 +4917,7 @@
       </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B93" s="23"/>
+      <c r="B93" s="25"/>
       <c r="C93" s="11" t="s">
         <v>31</v>
       </c>
@@ -4911,7 +4927,7 @@
       <c r="E93" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="F93" s="10">
+      <c r="F93" s="29">
         <v>1.6E-2</v>
       </c>
       <c r="G93" s="15" t="s">
@@ -4925,7 +4941,7 @@
       </c>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B94" s="23"/>
+      <c r="B94" s="25"/>
       <c r="C94" s="11" t="s">
         <v>237</v>
       </c>
@@ -4935,7 +4951,7 @@
       <c r="E94" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="F94" s="10">
+      <c r="F94" s="29">
         <v>1.3999999999999999E-2</v>
       </c>
       <c r="G94" s="15" t="s">
@@ -4949,7 +4965,7 @@
       </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B95" s="23" t="s">
+      <c r="B95" s="25" t="s">
         <v>195</v>
       </c>
       <c r="E95" s="10"/>
@@ -4959,7 +4975,7 @@
       <c r="I95" s="10"/>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B96" s="23"/>
+      <c r="B96" s="25"/>
       <c r="C96" s="11" t="s">
         <v>236</v>
       </c>
@@ -4983,7 +4999,7 @@
       </c>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B97" s="23"/>
+      <c r="B97" s="25"/>
       <c r="C97" s="11" t="s">
         <v>13</v>
       </c>
@@ -5007,7 +5023,7 @@
       </c>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B98" s="23"/>
+      <c r="B98" s="25"/>
       <c r="C98" s="11" t="s">
         <v>22</v>
       </c>
@@ -5031,7 +5047,7 @@
       </c>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B99" s="23"/>
+      <c r="B99" s="25"/>
       <c r="C99" s="11" t="s">
         <v>31</v>
       </c>
@@ -5055,7 +5071,7 @@
       </c>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B100" s="23"/>
+      <c r="B100" s="25"/>
       <c r="C100" s="11" t="s">
         <v>237</v>
       </c>
@@ -5079,7 +5095,7 @@
       </c>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B101" s="23" t="s">
+      <c r="B101" s="25" t="s">
         <v>243</v>
       </c>
       <c r="E101" s="10"/>
@@ -5089,7 +5105,7 @@
       <c r="I101" s="10"/>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B102" s="23"/>
+      <c r="B102" s="25"/>
       <c r="C102" s="11" t="s">
         <v>236</v>
       </c>
@@ -5113,7 +5129,7 @@
       </c>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B103" s="23"/>
+      <c r="B103" s="25"/>
       <c r="C103" s="11" t="s">
         <v>13</v>
       </c>
@@ -5137,7 +5153,7 @@
       </c>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B104" s="23"/>
+      <c r="B104" s="25"/>
       <c r="C104" s="11" t="s">
         <v>22</v>
       </c>
@@ -5161,7 +5177,7 @@
       </c>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B105" s="23"/>
+      <c r="B105" s="25"/>
       <c r="C105" s="11" t="s">
         <v>31</v>
       </c>
@@ -5185,7 +5201,7 @@
       </c>
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B106" s="23"/>
+      <c r="B106" s="25"/>
       <c r="C106" s="11" t="s">
         <v>237</v>
       </c>
@@ -5209,7 +5225,7 @@
       </c>
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B107" s="23" t="s">
+      <c r="B107" s="25" t="s">
         <v>208</v>
       </c>
       <c r="E107" s="10"/>
@@ -5219,14 +5235,14 @@
       <c r="I107" s="10"/>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B108" s="23"/>
+      <c r="B108" s="25"/>
       <c r="C108" s="11" t="s">
         <v>236</v>
       </c>
       <c r="D108" s="11">
         <v>53</v>
       </c>
-      <c r="E108" s="10">
+      <c r="E108" s="29">
         <v>1.9E-2</v>
       </c>
       <c r="F108" s="10">
@@ -5243,14 +5259,14 @@
       </c>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B109" s="23"/>
+      <c r="B109" s="25"/>
       <c r="C109" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D109" s="11">
         <v>124</v>
       </c>
-      <c r="E109" s="10">
+      <c r="E109" s="29">
         <v>0.04</v>
       </c>
       <c r="F109" s="10">
@@ -5267,17 +5283,17 @@
       </c>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B110" s="23"/>
+      <c r="B110" s="25"/>
       <c r="C110" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D110" s="11">
         <v>93</v>
       </c>
-      <c r="E110" s="10">
+      <c r="E110" s="29">
         <v>1.1000000000000001E-2</v>
       </c>
-      <c r="F110" s="10">
+      <c r="F110" s="29">
         <v>1.1000000000000001E-2</v>
       </c>
       <c r="G110" s="10">
@@ -5291,17 +5307,17 @@
       </c>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B111" s="23"/>
+      <c r="B111" s="25"/>
       <c r="C111" s="11" t="s">
         <v>31</v>
       </c>
       <c r="D111" s="11">
         <v>307</v>
       </c>
-      <c r="E111" s="10">
+      <c r="E111" s="29">
         <v>5.9000000000000004E-2</v>
       </c>
-      <c r="F111" s="10">
+      <c r="F111" s="29">
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="G111" s="10">
@@ -5315,17 +5331,17 @@
       </c>
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B112" s="23"/>
+      <c r="B112" s="25"/>
       <c r="C112" s="11" t="s">
         <v>237</v>
       </c>
       <c r="D112" s="11">
         <v>577</v>
       </c>
-      <c r="E112" s="10">
+      <c r="E112" s="29">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="F112" s="10">
+      <c r="F112" s="29">
         <v>1.9E-2</v>
       </c>
       <c r="G112" s="10">
@@ -5340,6 +5356,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B107:B112"/>
+    <mergeCell ref="B71:B76"/>
+    <mergeCell ref="B77:B82"/>
+    <mergeCell ref="B83:B88"/>
+    <mergeCell ref="B89:B94"/>
+    <mergeCell ref="B95:B100"/>
+    <mergeCell ref="B101:B106"/>
     <mergeCell ref="B65:B70"/>
     <mergeCell ref="B5:B10"/>
     <mergeCell ref="B11:B16"/>
@@ -5352,13 +5375,6 @@
     <mergeCell ref="B47:B52"/>
     <mergeCell ref="B53:B58"/>
     <mergeCell ref="B59:B64"/>
-    <mergeCell ref="B107:B112"/>
-    <mergeCell ref="B71:B76"/>
-    <mergeCell ref="B77:B82"/>
-    <mergeCell ref="B83:B88"/>
-    <mergeCell ref="B89:B94"/>
-    <mergeCell ref="B95:B100"/>
-    <mergeCell ref="B101:B106"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5368,8 +5384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FA8A62E-FE31-F841-A59E-0AA22017656A}">
   <dimension ref="B2:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5382,230 +5398,230 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="27" t="s">
         <v>246</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
     </row>
     <row r="3" spans="2:4" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="D3" s="26" t="s">
-        <v>262</v>
+      <c r="D3" s="21" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="22" t="s">
         <v>255</v>
       </c>
-      <c r="D4" s="27" t="s">
-        <v>281</v>
+      <c r="D4" s="22" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="22" t="s">
         <v>255</v>
       </c>
-      <c r="D5" s="27" t="s">
-        <v>275</v>
+      <c r="D5" s="22" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="22" t="s">
         <v>254</v>
       </c>
-      <c r="D6" s="27" t="s">
-        <v>272</v>
+      <c r="D6" s="22" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="22" t="s">
         <v>256</v>
       </c>
-      <c r="D7" s="27" t="s">
-        <v>274</v>
+      <c r="D7" s="22" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="D8" s="27" t="s">
-        <v>269</v>
+      <c r="D8" s="22" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="D9" s="27" t="s">
-        <v>268</v>
+      <c r="D9" s="22" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="22" t="s">
         <v>253</v>
       </c>
-      <c r="D10" s="27" t="s">
-        <v>270</v>
+      <c r="D10" s="22" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B11" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="22" t="s">
         <v>258</v>
       </c>
-      <c r="D11" s="27" t="s">
-        <v>278</v>
+      <c r="D11" s="22" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B12" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="D12" s="27" t="s">
-        <v>279</v>
+      <c r="D12" s="22" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B13" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="D13" s="27" t="s">
-        <v>265</v>
+      <c r="D13" s="22" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B14" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="D14" s="27" t="s">
-        <v>263</v>
+      <c r="D14" s="22" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B15" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="D15" s="27" t="s">
-        <v>267</v>
+      <c r="D15" s="22" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="22" t="s">
         <v>257</v>
       </c>
-      <c r="D16" s="27" t="s">
-        <v>277</v>
+      <c r="D16" s="22" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="D17" s="27" t="s">
-        <v>264</v>
+      <c r="D17" s="22" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="D18" s="27" t="s">
-        <v>266</v>
+      <c r="D18" s="22" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="D19" s="27" t="s">
-        <v>271</v>
+      <c r="D19" s="22" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="D20" s="27" t="s">
-        <v>273</v>
+      <c r="D20" s="22" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="D21" s="27" t="s">
-        <v>276</v>
+      <c r="D21" s="22" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="24" t="s">
         <v>248</v>
       </c>
-      <c r="D22" s="29" t="s">
-        <v>280</v>
+      <c r="D22" s="24" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>

--- a/Figures/summaries_csvs/summary_stats.xlsx
+++ b/Figures/summaries_csvs/summary_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gift/Documents/Rprojects/project-harvest/Figures/summaries_csvs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F675019-5D96-9E4A-8FF2-5F26CB403B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A168D2-E3DE-1B4C-A06B-F3AA4E00DAAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16200" activeTab="3" xr2:uid="{72327930-6813-6348-93C5-5B78A6BEE9FB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16200" activeTab="7" xr2:uid="{72327930-6813-6348-93C5-5B78A6BEE9FB}"/>
   </bookViews>
   <sheets>
     <sheet name="pli" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="cfactor" sheetId="2" r:id="rId3"/>
     <sheet name="Exceedances" sheetId="4" r:id="rId4"/>
     <sheet name="detections" sheetId="5" r:id="rId5"/>
+    <sheet name="Individual Analytes" sheetId="6" r:id="rId6"/>
+    <sheet name="Contamination Factor" sheetId="7" r:id="rId7"/>
+    <sheet name="Pollution Load Index" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">detections!$B$3:$D$22</definedName>
@@ -43,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="811">
   <si>
     <t>Community</t>
   </si>
@@ -889,6 +892,1593 @@
   </si>
   <si>
     <t>MLOD Range (mg/kg)</t>
+  </si>
+  <si>
+    <t>Dewey-Humboldt (N=53)</t>
+  </si>
+  <si>
+    <t>Globe/Miami (N=124)</t>
+  </si>
+  <si>
+    <t>Hayden/Winkelman (N=93)</t>
+  </si>
+  <si>
+    <t>Tucson (N=307)</t>
+  </si>
+  <si>
+    <t>Overall (N= 577)</t>
+  </si>
+  <si>
+    <t>0.0263 (0.0467)</t>
+  </si>
+  <si>
+    <t>0.0339 (0.0810)</t>
+  </si>
+  <si>
+    <t>0.0498 (0.108)</t>
+  </si>
+  <si>
+    <t>0.0410 (0.121)</t>
+  </si>
+  <si>
+    <t>0.0395 (0.106)</t>
+  </si>
+  <si>
+    <t>0.0170 [0.00260, 0.341]</t>
+  </si>
+  <si>
+    <t>0.0170 [0.00150, 0.873]</t>
+  </si>
+  <si>
+    <t>0.0175 [0.00180, 0.818]</t>
+  </si>
+  <si>
+    <t>0.0170 [0.00120, 1.15]</t>
+  </si>
+  <si>
+    <t>0.0169 (2.27)</t>
+  </si>
+  <si>
+    <t>0.0176 (2.89)</t>
+  </si>
+  <si>
+    <t>0.0195 (3.59)</t>
+  </si>
+  <si>
+    <t>0.0165 (3.02)</t>
+  </si>
+  <si>
+    <t>0.0172 (3.01)</t>
+  </si>
+  <si>
+    <t>63.2 (106)</t>
+  </si>
+  <si>
+    <t>348 (1300)</t>
+  </si>
+  <si>
+    <t>79.8 (119)</t>
+  </si>
+  <si>
+    <t>53.2 (77.2)</t>
+  </si>
+  <si>
+    <t>122 (616)</t>
+  </si>
+  <si>
+    <t>27.2 [11.0, 634]</t>
+  </si>
+  <si>
+    <t>52.8 [13.0, 11800]</t>
+  </si>
+  <si>
+    <t>41.4 [3.82, 746]</t>
+  </si>
+  <si>
+    <t>31.7 [1.55, 943]</t>
+  </si>
+  <si>
+    <t>35.8 [1.55, 11800]</t>
+  </si>
+  <si>
+    <t>36.2 (2.43)</t>
+  </si>
+  <si>
+    <t>74.2 (3.65)</t>
+  </si>
+  <si>
+    <t>46.4 (2.57)</t>
+  </si>
+  <si>
+    <t>36.2 (2.17)</t>
+  </si>
+  <si>
+    <t>43.9 (2.68)</t>
+  </si>
+  <si>
+    <t>1.71 (2.63)</t>
+  </si>
+  <si>
+    <t>1.15 (1.14)</t>
+  </si>
+  <si>
+    <t>6.72 (14.0)</t>
+  </si>
+  <si>
+    <t>1.34 (1.62)</t>
+  </si>
+  <si>
+    <t>2.20 (6.11)</t>
+  </si>
+  <si>
+    <t>0.990 [0.154, 14.1]</t>
+  </si>
+  <si>
+    <t>0.920 [0.160, 7.68]</t>
+  </si>
+  <si>
+    <t>2.63 [0.139, 120]</t>
+  </si>
+  <si>
+    <t>0.963 [0.108, 13.7]</t>
+  </si>
+  <si>
+    <t>1.02 [0.108, 120]</t>
+  </si>
+  <si>
+    <t>1.02 (2.56)</t>
+  </si>
+  <si>
+    <t>0.844 (2.18)</t>
+  </si>
+  <si>
+    <t>3.05 (3.24)</t>
+  </si>
+  <si>
+    <t>0.931 (2.21)</t>
+  </si>
+  <si>
+    <t>1.11 (2.67)</t>
+  </si>
+  <si>
+    <t>8.74 (12.2)</t>
+  </si>
+  <si>
+    <t>16.2 (17.5)</t>
+  </si>
+  <si>
+    <t>31.1 (39.8)</t>
+  </si>
+  <si>
+    <t>14.7 (13.7)</t>
+  </si>
+  <si>
+    <t>17.1 (21.8)</t>
+  </si>
+  <si>
+    <t>4.41 [0.314, 76.2]</t>
+  </si>
+  <si>
+    <t>11.6 [0.412, 138]</t>
+  </si>
+  <si>
+    <t>18.1 [0.226, 204]</t>
+  </si>
+  <si>
+    <t>0.3 [0.119, 86.1]</t>
+  </si>
+  <si>
+    <t>10.9 [0.119, 204]</t>
+  </si>
+  <si>
+    <t>4.82 (2.97)</t>
+  </si>
+  <si>
+    <t>10.7 (2.60)</t>
+  </si>
+  <si>
+    <t>16.1 (3.56)</t>
+  </si>
+  <si>
+    <t>10.1 (2.64)</t>
+  </si>
+  <si>
+    <t>10.3 (2.92)</t>
+  </si>
+  <si>
+    <t>0.0309 (0.0268)</t>
+  </si>
+  <si>
+    <t>0.143 (0.480)</t>
+  </si>
+  <si>
+    <t>0.0492 (0.150)</t>
+  </si>
+  <si>
+    <t>0.0280 (0.0371)</t>
+  </si>
+  <si>
+    <t>0.0563 (0.236)</t>
+  </si>
+  <si>
+    <t>0.0221 [0.00160, 0.124]</t>
+  </si>
+  <si>
+    <t>0.0400 [0.00250, 4.55]</t>
+  </si>
+  <si>
+    <t>0.0275 [0.000630, 1.40]</t>
+  </si>
+  <si>
+    <t>0.0180 [0.000630, 0.511]</t>
+  </si>
+  <si>
+    <t>0.0252 [0.000630, 4.55]</t>
+  </si>
+  <si>
+    <t>0.0194 (2.96)</t>
+  </si>
+  <si>
+    <t>0.0422 (3.39)</t>
+  </si>
+  <si>
+    <t>0.0208 (3.29)</t>
+  </si>
+  <si>
+    <t>0.0176 (2.78)</t>
+  </si>
+  <si>
+    <t>0.0220 (3.16)</t>
+  </si>
+  <si>
+    <t>0.0731 (0.196)</t>
+  </si>
+  <si>
+    <t>0.956 (2.44)</t>
+  </si>
+  <si>
+    <t>0.548 (0.825)</t>
+  </si>
+  <si>
+    <t>0.0771 (0.0760)</t>
+  </si>
+  <si>
+    <t>0.342 (1.23)</t>
+  </si>
+  <si>
+    <t>0.0268 [0.00610, 1.38]</t>
+  </si>
+  <si>
+    <t>0.121 [0.00710, 14.3]</t>
+  </si>
+  <si>
+    <t>0.222 [0.00528, 4.65]</t>
+  </si>
+  <si>
+    <t>0.0533 [0.00652, 0.660]</t>
+  </si>
+  <si>
+    <t>0.0685 [0.00528, 14.3]</t>
+  </si>
+  <si>
+    <t>0.0310 (2.85)</t>
+  </si>
+  <si>
+    <t>.185 (4.79)</t>
+  </si>
+  <si>
+    <t>0.233 (3.93)</t>
+  </si>
+  <si>
+    <t>0.0561 (2.18)</t>
+  </si>
+  <si>
+    <t>0.0864 (3.72)</t>
+  </si>
+  <si>
+    <t>0.226 (0.374)</t>
+  </si>
+  <si>
+    <t>1.03 (2.90)</t>
+  </si>
+  <si>
+    <t>0.330 (0.986)</t>
+  </si>
+  <si>
+    <t>0.208 (0.385)</t>
+  </si>
+  <si>
+    <t>0.406 (1.46)</t>
+  </si>
+  <si>
+    <t>0.0967 [0.00450, 2.19]</t>
+  </si>
+  <si>
+    <t>0.171 [0.00590, 24.9]</t>
+  </si>
+  <si>
+    <t>0.127 [0.00590, 9.08]</t>
+  </si>
+  <si>
+    <t>0.0835 [0.00450, 3.56]</t>
+  </si>
+  <si>
+    <t>0.104 [0.00450, 24.9]</t>
+  </si>
+  <si>
+    <t>0.104 (3.50)</t>
+  </si>
+  <si>
+    <t>0.234 (4.63)</t>
+  </si>
+  <si>
+    <t>0.141 (3.06)</t>
+  </si>
+  <si>
+    <t>0.103 (2.91)</t>
+  </si>
+  <si>
+    <t>0.129 (3.49)</t>
+  </si>
+  <si>
+    <t>2.35 (11.8)</t>
+  </si>
+  <si>
+    <t>0.788 (1.49)</t>
+  </si>
+  <si>
+    <t>2.59 (17.7)</t>
+  </si>
+  <si>
+    <t>1.12 (4.27)</t>
+  </si>
+  <si>
+    <t>1.40 (8.56)</t>
+  </si>
+  <si>
+    <t>0.409 [0.0732, 86.0]</t>
+  </si>
+  <si>
+    <t>0.308 [0.0110, 10.6]</t>
+  </si>
+  <si>
+    <t>0.339 [0.0570, 171]</t>
+  </si>
+  <si>
+    <t>0.345 [0.0110, 52.4]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.344 [0.0110, 171] </t>
+  </si>
+  <si>
+    <t>0.477 (3.41)</t>
+  </si>
+  <si>
+    <t>0.339 (3.52)</t>
+  </si>
+  <si>
+    <t>0.391 (3.38)</t>
+  </si>
+  <si>
+    <t>0.386 (3.05)</t>
+  </si>
+  <si>
+    <t>0.384 (3.24)</t>
+  </si>
+  <si>
+    <t>15.0 (23.8)</t>
+  </si>
+  <si>
+    <t>101 (302)</t>
+  </si>
+  <si>
+    <t>163 (391)</t>
+  </si>
+  <si>
+    <t>38.0 (79.3)</t>
+  </si>
+  <si>
+    <t>69.6 (223)</t>
+  </si>
+  <si>
+    <t>7.46 [0.239, 133]</t>
+  </si>
+  <si>
+    <t>24.4 [0.921, 2740]</t>
+  </si>
+  <si>
+    <t>60.0 [0.469, 3170]</t>
+  </si>
+  <si>
+    <t>17.8 [0.224, 906]</t>
+  </si>
+  <si>
+    <t>20.2 [0.224, 3170]</t>
+  </si>
+  <si>
+    <t>6.58 (3.88)</t>
+  </si>
+  <si>
+    <t>30.7 (3.87)</t>
+  </si>
+  <si>
+    <t>55.3 (4.55)</t>
+  </si>
+  <si>
+    <t>18.7 (3.16)</t>
+  </si>
+  <si>
+    <t>22.5 (4.02)</t>
+  </si>
+  <si>
+    <t>74.8 (99.1)</t>
+  </si>
+  <si>
+    <t>92.0 (224)</t>
+  </si>
+  <si>
+    <t>69.6 (95.1)</t>
+  </si>
+  <si>
+    <t>80.3 (157)</t>
+  </si>
+  <si>
+    <t>80.6 (162)</t>
+  </si>
+  <si>
+    <t>36.9 [4.39, 455]</t>
+  </si>
+  <si>
+    <t>38.8 [5.56, 1640]</t>
+  </si>
+  <si>
+    <t>37.3 [2.50, 548]</t>
+  </si>
+  <si>
+    <t>36.3 [1.70, 1640]</t>
+  </si>
+  <si>
+    <t>37.4 [1.70, 1640]</t>
+  </si>
+  <si>
+    <t>39.9 (3.05)</t>
+  </si>
+  <si>
+    <t>43.0 (2.77)</t>
+  </si>
+  <si>
+    <t>38.5 (2.93)</t>
+  </si>
+  <si>
+    <t>40.8 (2.82)</t>
+  </si>
+  <si>
+    <t>40.8 (2.84)</t>
+  </si>
+  <si>
+    <t>20.4 (53.4)</t>
+  </si>
+  <si>
+    <t>54.1 (108)</t>
+  </si>
+  <si>
+    <t>25.6 (85.7)</t>
+  </si>
+  <si>
+    <t>18.2 (45.8)</t>
+  </si>
+  <si>
+    <t>27.3 (72.5)</t>
+  </si>
+  <si>
+    <t>4.05 [0.131, 313]</t>
+  </si>
+  <si>
+    <t>11.2 [0.149, 625]</t>
+  </si>
+  <si>
+    <t>8.64 [0.168, 786]</t>
+  </si>
+  <si>
+    <t>3.39 [0.0668, 471]</t>
+  </si>
+  <si>
+    <t>4.69 [0.0668, 786]</t>
+  </si>
+  <si>
+    <t>4.26 (5.48)</t>
+  </si>
+  <si>
+    <t>12.3 (6.28)</t>
+  </si>
+  <si>
+    <t>7.87 (4.31)</t>
+  </si>
+  <si>
+    <t>4.43 (4.96)</t>
+  </si>
+  <si>
+    <t>6.03 (5.44)</t>
+  </si>
+  <si>
+    <t>0.753 (2.19)</t>
+  </si>
+  <si>
+    <t>0.827 (0.987)</t>
+  </si>
+  <si>
+    <t>2.99 (4.31)</t>
+  </si>
+  <si>
+    <t>3.24 (3.69)</t>
+  </si>
+  <si>
+    <t>2.45 (3.47)</t>
+  </si>
+  <si>
+    <t>0.156 [0.0160, 11.7]</t>
+  </si>
+  <si>
+    <t>0.467 [0.0660, 5.48]</t>
+  </si>
+  <si>
+    <t>1.57 [0.113, 30.5]</t>
+  </si>
+  <si>
+    <t>2.38 [0.00780, 37.9]</t>
+  </si>
+  <si>
+    <t>1.54 [0.00780, 37.9]</t>
+  </si>
+  <si>
+    <t>0.202 (3.76)</t>
+  </si>
+  <si>
+    <t>0.530 (2.43)</t>
+  </si>
+  <si>
+    <t>1.61 (3.05)</t>
+  </si>
+  <si>
+    <t>2.26 (2.42)</t>
+  </si>
+  <si>
+    <t>1.26 (3.55)</t>
+  </si>
+  <si>
+    <t>2.49 (8.21)</t>
+  </si>
+  <si>
+    <t>9.03 (46.6)</t>
+  </si>
+  <si>
+    <t>1.13 (3.46)</t>
+  </si>
+  <si>
+    <t>1.35 (1.95)</t>
+  </si>
+  <si>
+    <t>3.07 (22.0)</t>
+  </si>
+  <si>
+    <t>0.693 [0.0571, 59.7]</t>
+  </si>
+  <si>
+    <t>0.780 [0.0841, 466]</t>
+  </si>
+  <si>
+    <t>0.491 [0.0830, 33.3]</t>
+  </si>
+  <si>
+    <t>0.775 [0.0611, 17.4]</t>
+  </si>
+  <si>
+    <t>0.716 [0.0571, 466]</t>
+  </si>
+  <si>
+    <t>0.851 (3.32)</t>
+  </si>
+  <si>
+    <t>1.17 (4.58)</t>
+  </si>
+  <si>
+    <t>0.588 (2.40)</t>
+  </si>
+  <si>
+    <t>0.836 (2.45)</t>
+  </si>
+  <si>
+    <t>0.851 (3.01)</t>
+  </si>
+  <si>
+    <t>0.714 (0.908)</t>
+  </si>
+  <si>
+    <t>1.88 (3.80)</t>
+  </si>
+  <si>
+    <t>2.87 (5.25)</t>
+  </si>
+  <si>
+    <t>4.24 (25.6)</t>
+  </si>
+  <si>
+    <t>3.19 (18.9)</t>
+  </si>
+  <si>
+    <t>0.212 [0.0142, 3.74]</t>
+  </si>
+  <si>
+    <t>0.620 [0.0355, 27.2]</t>
+  </si>
+  <si>
+    <t>0.732 [0.0319, 23.6]</t>
+  </si>
+  <si>
+    <t>0.625 [0.0130, 350]</t>
+  </si>
+  <si>
+    <t>0.617 [0.0130, 350]</t>
+  </si>
+  <si>
+    <t>0.321 (3.79)</t>
+  </si>
+  <si>
+    <t>0.678 (3.85)</t>
+  </si>
+  <si>
+    <t>0.943 (4.31)</t>
+  </si>
+  <si>
+    <t>0.744 (4.40)</t>
+  </si>
+  <si>
+    <t>0.701 (4.30)</t>
+  </si>
+  <si>
+    <t>0.471 (0.379)</t>
+  </si>
+  <si>
+    <t>0.644 (0.599)</t>
+  </si>
+  <si>
+    <t>1.16 (1.45)</t>
+  </si>
+  <si>
+    <t>0.911 (1.27)</t>
+  </si>
+  <si>
+    <t>0.853 (1.15)</t>
+  </si>
+  <si>
+    <t>0.401 [0.106, 2.56]</t>
+  </si>
+  <si>
+    <t>0.501 [0.121, 4.42]</t>
+  </si>
+  <si>
+    <t>0.674 [0.160, 9.15]</t>
+  </si>
+  <si>
+    <t>0.628 [0.110, 13.5]</t>
+  </si>
+  <si>
+    <t>0.582 [0.106, 13.5]</t>
+  </si>
+  <si>
+    <t>0.385 (1.85)</t>
+  </si>
+  <si>
+    <t>0.504 (1.94)</t>
+  </si>
+  <si>
+    <t>0.753 (2.38)</t>
+  </si>
+  <si>
+    <t>0.664 (1.98)</t>
+  </si>
+  <si>
+    <t>0.608 (2.07)</t>
+  </si>
+  <si>
+    <t>2.13 (1.97)</t>
+  </si>
+  <si>
+    <t>1.86 (1.58)</t>
+  </si>
+  <si>
+    <t>2.06 (1.78)</t>
+  </si>
+  <si>
+    <t>1.92 (1.78)</t>
+  </si>
+  <si>
+    <t>1.95 (1.75)</t>
+  </si>
+  <si>
+    <t>1.60 [0.160, 11.7]</t>
+  </si>
+  <si>
+    <t>1.26 [0.160, 7.43]</t>
+  </si>
+  <si>
+    <t>1.60 [0.250, 10.3]</t>
+  </si>
+  <si>
+    <t>1.60 [0.160, 12.6]</t>
+  </si>
+  <si>
+    <t>1.52 (2.40)</t>
+  </si>
+  <si>
+    <t>1.30 (2.42)</t>
+  </si>
+  <si>
+    <t>1.54 (2.15)</t>
+  </si>
+  <si>
+    <t>1.34 (2.43)</t>
+  </si>
+  <si>
+    <t>1.38 (2.38)</t>
+  </si>
+  <si>
+    <t>0.177 (0.376)</t>
+  </si>
+  <si>
+    <t>1.09 (7.44)</t>
+  </si>
+  <si>
+    <t>0.228 (0.732)</t>
+  </si>
+  <si>
+    <t>0.211 (0.334)</t>
+  </si>
+  <si>
+    <t>0.398 (3.48)</t>
+  </si>
+  <si>
+    <t>0.0546 [0.0110, 2.47]</t>
+  </si>
+  <si>
+    <t>0.0878 [0.000920, 80.7]</t>
+  </si>
+  <si>
+    <t>0.0702 [0.00196, 6.35]</t>
+  </si>
+  <si>
+    <t>0.106 [0.0110, 3.21]</t>
+  </si>
+  <si>
+    <t>0.0909 [0.000920, 80.7]</t>
+  </si>
+  <si>
+    <t>0.0708 (3.46)</t>
+  </si>
+  <si>
+    <t>0.0951 (4.38)</t>
+  </si>
+  <si>
+    <t>0.0673 (3.96)</t>
+  </si>
+  <si>
+    <t>0.111 (2.94)</t>
+  </si>
+  <si>
+    <t>0.0950 (3.49)</t>
+  </si>
+  <si>
+    <t>2.76 (2.45)</t>
+  </si>
+  <si>
+    <t>2.09 (2.26)</t>
+  </si>
+  <si>
+    <t>2.77 (5.17)</t>
+  </si>
+  <si>
+    <t>2.83 (3.29)</t>
+  </si>
+  <si>
+    <t>2.66 (3.43)</t>
+  </si>
+  <si>
+    <t>1.97 [0.145, 9.73]</t>
+  </si>
+  <si>
+    <t>1.40 [0.176, 13.2]</t>
+  </si>
+  <si>
+    <t>1.40 [0.173, 46.3]</t>
+  </si>
+  <si>
+    <t>1.85 [0.230, 29.0]</t>
+  </si>
+  <si>
+    <t>1.68 [0.145, 46.3]</t>
+  </si>
+  <si>
+    <t>1.88 (2.52)</t>
+  </si>
+  <si>
+    <t>1.39 (2.41)</t>
+  </si>
+  <si>
+    <t>1.68 (2.39)</t>
+  </si>
+  <si>
+    <t>1.95 (2.32)</t>
+  </si>
+  <si>
+    <t>1.76 (2.39)</t>
+  </si>
+  <si>
+    <t>204 (523)</t>
+  </si>
+  <si>
+    <t>328 (637)</t>
+  </si>
+  <si>
+    <t>255 (898)</t>
+  </si>
+  <si>
+    <t>504 (1550)</t>
+  </si>
+  <si>
+    <t>399 (1240)</t>
+  </si>
+  <si>
+    <t>35.4 [1.40, 3640]</t>
+  </si>
+  <si>
+    <t>115 [3.94, 4170]</t>
+  </si>
+  <si>
+    <t>58.5 [5.95, 8450]</t>
+  </si>
+  <si>
+    <t>105 [2.40, 13300]</t>
+  </si>
+  <si>
+    <t>89.4 [1.40, 13300]</t>
+  </si>
+  <si>
+    <t>51.9 (4.93)</t>
+  </si>
+  <si>
+    <t>105 (4.76)</t>
+  </si>
+  <si>
+    <t>70.2 (4.17)</t>
+  </si>
+  <si>
+    <t>121 (4.22)</t>
+  </si>
+  <si>
+    <t>99.5 (4.49)</t>
+  </si>
+  <si>
+    <t>Globe/Miami (N=123)</t>
+  </si>
+  <si>
+    <t>Hayden/Winkelman (N=88)</t>
+  </si>
+  <si>
+    <t>0.512 (0.910)</t>
+  </si>
+  <si>
+    <t>0.661 (1.58)</t>
+  </si>
+  <si>
+    <t>0.969 (2.10)</t>
+  </si>
+  <si>
+    <t>0.798 (2.36)</t>
+  </si>
+  <si>
+    <t>0.770 (2.07)</t>
+  </si>
+  <si>
+    <t>0.331 [0.0507, 6.64]</t>
+  </si>
+  <si>
+    <t>0.331 [0.0292, 17.0]</t>
+  </si>
+  <si>
+    <t>0.342 [0.0351, 15.9]</t>
+  </si>
+  <si>
+    <t>0.331 [0.0234, 22.4]</t>
+  </si>
+  <si>
+    <t>0.329 (2.27)</t>
+  </si>
+  <si>
+    <t>0.343 (2.89)</t>
+  </si>
+  <si>
+    <t>0.380 (3.59)</t>
+  </si>
+  <si>
+    <t>0.321 (3.02)</t>
+  </si>
+  <si>
+    <t>0.335 (3.01)</t>
+  </si>
+  <si>
+    <t>6.80 (25.3)</t>
+  </si>
+  <si>
+    <t>1.56 (2.32)</t>
+  </si>
+  <si>
+    <t>2.38 (12.0)</t>
+  </si>
+  <si>
+    <t>1.03 [0.253, 230]</t>
+  </si>
+  <si>
+    <t>0.807 [0.0745, 14.6]</t>
+  </si>
+  <si>
+    <t>0.698 [0.0302, 230]</t>
+  </si>
+  <si>
+    <t>1.45 (3.65)</t>
+  </si>
+  <si>
+    <t>0.906 (2.57)</t>
+  </si>
+  <si>
+    <t>0.858 (2.68)</t>
+  </si>
+  <si>
+    <t>2.14 (2.11)</t>
+  </si>
+  <si>
+    <t>12.4 (25.8)</t>
+  </si>
+  <si>
+    <t>4.08 (11.3)</t>
+  </si>
+  <si>
+    <t>1.70 [0.296, 14.2]</t>
+  </si>
+  <si>
+    <t>4.87 [0.257, 223]</t>
+  </si>
+  <si>
+    <t>1.89 [0.200, 223]</t>
+  </si>
+  <si>
+    <t>1.56 (2.18)</t>
+  </si>
+  <si>
+    <t>5.65 (3.24)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06 (2.67) </t>
+  </si>
+  <si>
+    <t>6.02 (6.49)</t>
+  </si>
+  <si>
+    <t>11.6 (14.8)</t>
+  </si>
+  <si>
+    <t>6.36 (8.08)</t>
+  </si>
+  <si>
+    <t>4.30 [0.153, 51.1]</t>
+  </si>
+  <si>
+    <t>4.03 [0.0442, 75.8]</t>
+  </si>
+  <si>
+    <t>0.770 (3.39)</t>
+  </si>
+  <si>
+    <t>0.379 (3.29)</t>
+  </si>
+  <si>
+    <t>3.83 (2.92)</t>
+  </si>
+  <si>
+    <t>2.60 (8.76)</t>
+  </si>
+  <si>
+    <t>0.899 (2.74)</t>
+  </si>
+  <si>
+    <t>1.03 (4.31)</t>
+  </si>
+  <si>
+    <t>0.730 [0.0456, 83.0]</t>
+  </si>
+  <si>
+    <t>0.502 [0.0115, 25.6]</t>
+  </si>
+  <si>
+    <t>0.461 [0.0115, 83.0]</t>
+  </si>
+  <si>
+    <t>0.402 (3.16)</t>
+  </si>
+  <si>
+    <t>26.9 (68.8)</t>
+  </si>
+  <si>
+    <t>15.4 (23.2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62 (34.7) </t>
+  </si>
+  <si>
+    <t>3.40 [0.200, 402]</t>
+  </si>
+  <si>
+    <t>6.25 [0.149, 131]</t>
+  </si>
+  <si>
+    <t>1.93 [0.149, 402]</t>
+  </si>
+  <si>
+    <t>5.22 (4.79)</t>
+  </si>
+  <si>
+    <t>6.58 (3.93)</t>
+  </si>
+  <si>
+    <t>2.43 (3.72)</t>
+  </si>
+  <si>
+    <t>3.85 (6.37)</t>
+  </si>
+  <si>
+    <t>17.5 (49.3)</t>
+  </si>
+  <si>
+    <t>5.63 (16.8)</t>
+  </si>
+  <si>
+    <t>3.55 (6.56)</t>
+  </si>
+  <si>
+    <t>6.91 (25.0)</t>
+  </si>
+  <si>
+    <t>1.65 [0.0767, 37.2]</t>
+  </si>
+  <si>
+    <t>2.92 [0.101, 424]</t>
+  </si>
+  <si>
+    <t>2.16 [0.101, 155]</t>
+  </si>
+  <si>
+    <t>1.42 [0.0767, 60.6]</t>
+  </si>
+  <si>
+    <t>1.78 [0.0767, 424]</t>
+  </si>
+  <si>
+    <t>1.77 (3.50)</t>
+  </si>
+  <si>
+    <t>3.99 (4.63)</t>
+  </si>
+  <si>
+    <t>2.41 (3.06)</t>
+  </si>
+  <si>
+    <t>1.75 (2.91)</t>
+  </si>
+  <si>
+    <t>2.20 (3.49)</t>
+  </si>
+  <si>
+    <t>1.64 (3.09)</t>
+  </si>
+  <si>
+    <t>5.39 (36.9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90 (17.8) </t>
+  </si>
+  <si>
+    <t>0.641 [0.0229, 22.0]</t>
+  </si>
+  <si>
+    <t>0.704 [0.119, 356]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.716 [0.0229, 356] </t>
+  </si>
+  <si>
+    <t>0.705 (3.52)</t>
+  </si>
+  <si>
+    <t>0.814 (3.38)</t>
+  </si>
+  <si>
+    <t>0.798 (3.24)</t>
+  </si>
+  <si>
+    <t>26.9 (80.6)</t>
+  </si>
+  <si>
+    <t>43.7 (104)</t>
+  </si>
+  <si>
+    <t>18.6 (59.5)</t>
+  </si>
+  <si>
+    <t>6.51 [0.246, 732]</t>
+  </si>
+  <si>
+    <t>16.0 [0.125, 846]</t>
+  </si>
+  <si>
+    <t>5.40 [0.0599, 846]</t>
+  </si>
+  <si>
+    <t>8.20 (3.87)</t>
+  </si>
+  <si>
+    <t>14.8 (4.55)</t>
+  </si>
+  <si>
+    <t>6.01 (4.02)</t>
+  </si>
+  <si>
+    <t>2.21 (5.39)</t>
+  </si>
+  <si>
+    <t>1.68 (2.29)</t>
+  </si>
+  <si>
+    <t>1.94 (3.90)</t>
+  </si>
+  <si>
+    <t>0.933 [0.134, 39.4]</t>
+  </si>
+  <si>
+    <t>0.898 [0.0601, 13.2]</t>
+  </si>
+  <si>
+    <t>0.900 [0.0409, 39.4]</t>
+  </si>
+  <si>
+    <t>1.03 (2.77)</t>
+  </si>
+  <si>
+    <t>0.925 (2.93)</t>
+  </si>
+  <si>
+    <t>0.982 (2.84)</t>
+  </si>
+  <si>
+    <t>7.68 (15.4)</t>
+  </si>
+  <si>
+    <t>3.63 (12.2)</t>
+  </si>
+  <si>
+    <t>3.88 (10.3)</t>
+  </si>
+  <si>
+    <t>1.59 [0.0211, 88.6]</t>
+  </si>
+  <si>
+    <t>1.23 [0.0238, 112]</t>
+  </si>
+  <si>
+    <t>0.665 [0.00948, 112]</t>
+  </si>
+  <si>
+    <t>1.75 (6.28)</t>
+  </si>
+  <si>
+    <t>1.12 (4.31)</t>
+  </si>
+  <si>
+    <t>0.856 (5.44)</t>
+  </si>
+  <si>
+    <t>3.08 (8.96)</t>
+  </si>
+  <si>
+    <t>3.38 (4.04)</t>
+  </si>
+  <si>
+    <t>12.2 (17.6)</t>
+  </si>
+  <si>
+    <t>13.3 (15.1)</t>
+  </si>
+  <si>
+    <t>10.0 (14.2)</t>
+  </si>
+  <si>
+    <t>0.637 [0.0656, 47.7]</t>
+  </si>
+  <si>
+    <t>1.91 [0.270, 22.4]</t>
+  </si>
+  <si>
+    <t>6.40 [0.462, 125]</t>
+  </si>
+  <si>
+    <t>9.75 [0.0319, 155]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30 [0.0319, 155] </t>
+  </si>
+  <si>
+    <t>0.827 (3.76)</t>
+  </si>
+  <si>
+    <t>2.17 (2.43)</t>
+  </si>
+  <si>
+    <t>6.58 (3.05)</t>
+  </si>
+  <si>
+    <t>9.25 (2.42)</t>
+  </si>
+  <si>
+    <t>5.14 (3.55)</t>
+  </si>
+  <si>
+    <t>26.1 (135)</t>
+  </si>
+  <si>
+    <t>3.25 (9.99)</t>
+  </si>
+  <si>
+    <t>8.86 (63.5)</t>
+  </si>
+  <si>
+    <t>2.25 [0.243, 1340]</t>
+  </si>
+  <si>
+    <t>1.42 [0.240, 96.1]</t>
+  </si>
+  <si>
+    <t>2.06 [0.165, 1340]</t>
+  </si>
+  <si>
+    <t>3.37 (4.58)</t>
+  </si>
+  <si>
+    <t>1.70 (2.40)</t>
+  </si>
+  <si>
+    <t>2.45 (3.01)</t>
+  </si>
+  <si>
+    <t>4.64 (9.39)</t>
+  </si>
+  <si>
+    <t>7.09 (13.0)</t>
+  </si>
+  <si>
+    <t>7.87 (46.6)</t>
+  </si>
+  <si>
+    <t>1.53 [0.0878, 67.2]</t>
+  </si>
+  <si>
+    <t>1.81 [0.0787, 58.4]</t>
+  </si>
+  <si>
+    <t>1.52 [0.0321, 865]</t>
+  </si>
+  <si>
+    <t>1.67 (3.85)</t>
+  </si>
+  <si>
+    <t>2.33 (4.31)</t>
+  </si>
+  <si>
+    <t>1.73 (4.30)</t>
+  </si>
+  <si>
+    <t>0.898 (0.723)</t>
+  </si>
+  <si>
+    <t>2.22 (2.77)</t>
+  </si>
+  <si>
+    <t>1.74 (2.42)</t>
+  </si>
+  <si>
+    <t>1.63 (2.20)</t>
+  </si>
+  <si>
+    <t>0.764 [0.201, 4.89]</t>
+  </si>
+  <si>
+    <t>0.956 [0.230, 8.43]</t>
+  </si>
+  <si>
+    <t>1.28 [0.305, 17.5]</t>
+  </si>
+  <si>
+    <t>1.20 [0.210, 25.6]</t>
+  </si>
+  <si>
+    <t>1.11 [0.201, 25.6]</t>
+  </si>
+  <si>
+    <t>0.733 (1.85)</t>
+  </si>
+  <si>
+    <t>0.962 (1.94)</t>
+  </si>
+  <si>
+    <t>1.44 (2.38)</t>
+  </si>
+  <si>
+    <t>1.27 (1.98)</t>
+  </si>
+  <si>
+    <t>1.16 (2.07)</t>
+  </si>
+  <si>
+    <t>0.212 (0.181)</t>
+  </si>
+  <si>
+    <t>0.236 (0.204)</t>
+  </si>
+  <si>
+    <t>0.223 (0.200)</t>
+  </si>
+  <si>
+    <t>0.144 [0.0183, 0.849]</t>
+  </si>
+  <si>
+    <t>0.183 [0.0286, 1.18]</t>
+  </si>
+  <si>
+    <t>0.149 (2.42)</t>
+  </si>
+  <si>
+    <t>0.176 (2.15)</t>
+  </si>
+  <si>
+    <t>0.158 (2.38)</t>
+  </si>
+  <si>
+    <t>1.65 (3.50)</t>
+  </si>
+  <si>
+    <t>10.1 (69.2)</t>
+  </si>
+  <si>
+    <t>2.12 (6.81)</t>
+  </si>
+  <si>
+    <t>1.96 (3.10)</t>
+  </si>
+  <si>
+    <t>3.71 (32.4)</t>
+  </si>
+  <si>
+    <t>0.508 [0.102, 23.0]</t>
+  </si>
+  <si>
+    <t>0.817 [0.00856, 751]</t>
+  </si>
+  <si>
+    <t>0.653 [0.0183, 59.0]</t>
+  </si>
+  <si>
+    <t>0.987 [0.102, 29.8]</t>
+  </si>
+  <si>
+    <t>0.845 [0.00856, 751]</t>
+  </si>
+  <si>
+    <t>0.659 (3.46)</t>
+  </si>
+  <si>
+    <t>0.885 (4.38)</t>
+  </si>
+  <si>
+    <t>0.626 (3.96)</t>
+  </si>
+  <si>
+    <t>1.03 (2.94)</t>
+  </si>
+  <si>
+    <t>0.884 (3.49)</t>
+  </si>
+  <si>
+    <t>2.06 (1.83)</t>
+  </si>
+  <si>
+    <t>1.56 (1.69)</t>
+  </si>
+  <si>
+    <t>2.07 (3.86)</t>
+  </si>
+  <si>
+    <t>2.11 (2.46)</t>
+  </si>
+  <si>
+    <t>1.98 (2.56)</t>
+  </si>
+  <si>
+    <t>1.47 [0.108, 7.26]</t>
+  </si>
+  <si>
+    <t>1.04 [0.131, 9.84]</t>
+  </si>
+  <si>
+    <t>1.04 [0.129, 34.5]</t>
+  </si>
+  <si>
+    <t>1.38 [0.172, 21.6]</t>
+  </si>
+  <si>
+    <t>1.25 [0.108, 34.5]</t>
+  </si>
+  <si>
+    <t>1.40 (2.52)</t>
+  </si>
+  <si>
+    <t>1.03 (2.41)</t>
+  </si>
+  <si>
+    <t>1.25 (2.39)</t>
+  </si>
+  <si>
+    <t>1.45 (2.32)</t>
+  </si>
+  <si>
+    <t>1.31 (2.39)</t>
+  </si>
+  <si>
+    <t>26.5 (51.6)</t>
+  </si>
+  <si>
+    <t>20.7 (72.6)</t>
+  </si>
+  <si>
+    <t>32.3 (100)</t>
+  </si>
+  <si>
+    <t>9.26 [0.319, 337]</t>
+  </si>
+  <si>
+    <t>4.74 [0.482, 683]</t>
+  </si>
+  <si>
+    <t>7.23 [0.113, 1070]</t>
+  </si>
+  <si>
+    <t>8.53 (4.76)</t>
+  </si>
+  <si>
+    <t>5.68 (4.17)</t>
+  </si>
+  <si>
+    <t>8.05 (4.49)</t>
+  </si>
+  <si>
+    <t>Overall (N=53)</t>
+  </si>
+  <si>
+    <t>1.67 (1.62)</t>
+  </si>
+  <si>
+    <t>1.06 [0.148, 7.88]</t>
+  </si>
+  <si>
+    <t>1.18 (2.27)</t>
+  </si>
+  <si>
+    <t>Monsoon (N=45)</t>
+  </si>
+  <si>
+    <t>6.71 (10.6)</t>
+  </si>
+  <si>
+    <t>3.69 [0.369, 65.8]</t>
+  </si>
+  <si>
+    <t>4.02 (2.52)</t>
+  </si>
+  <si>
+    <t>Overall (N=124)</t>
+  </si>
+  <si>
+    <t>4.48 (7.67)</t>
+  </si>
+  <si>
+    <t>1.97 [0.244, 65.8]</t>
+  </si>
+  <si>
+    <t>2.43 (2.70)</t>
+  </si>
+  <si>
+    <t>Winter (N=67)</t>
+  </si>
+  <si>
+    <t>2.48 (1.77)</t>
+  </si>
+  <si>
+    <t>2.30 [0.169, 10.2]</t>
+  </si>
+  <si>
+    <t>1.93 (2.19)</t>
+  </si>
+  <si>
+    <t>Monsoon (N=26)</t>
+  </si>
+  <si>
+    <t>8.04 (10.6)</t>
+  </si>
+  <si>
+    <t>4.83 (2.62)</t>
+  </si>
+  <si>
+    <t>Overall (N=93)</t>
+  </si>
+  <si>
+    <t>4.03 (6.26)</t>
+  </si>
+  <si>
+    <t>2.45 [0.169, 47.8]</t>
+  </si>
+  <si>
+    <t>2.49 (2.53)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Overall (N=307)</t>
+  </si>
+  <si>
+    <t>2.11 (1.73)</t>
+  </si>
+  <si>
+    <t>1.56 [0.118, 13.1]</t>
+  </si>
+  <si>
+    <t>1.65 (1.99)</t>
+  </si>
+  <si>
+    <t>All Communities</t>
+  </si>
+  <si>
+    <t>Winter (N= 400)</t>
+  </si>
+  <si>
+    <t>2.17 (2.72)</t>
+  </si>
+  <si>
+    <t>Monsoon (N=177)</t>
+  </si>
+  <si>
+    <t>4.51 (7.15)</t>
+  </si>
+  <si>
+    <t>2.71 [0.341, 65.8]</t>
+  </si>
+  <si>
+    <t>2.88 (2.31)</t>
+  </si>
+  <si>
+    <t>Overall (N=577)</t>
+  </si>
+  <si>
+    <t>2.89 (4.68)</t>
+  </si>
+  <si>
+    <t>1.68 [0.118, 65.8]</t>
+  </si>
+  <si>
+    <t>1.86 (2.33)</t>
   </si>
 </sst>
 </file>
@@ -898,7 +2488,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -968,6 +2558,24 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1007,7 +2615,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1053,12 +2661,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF999999"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF666666"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF666666"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF999999"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF999999"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF999999"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1102,15 +2762,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1125,6 +2776,43 @@
     </xf>
     <xf numFmtId="10" fontId="5" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2889,7 +4577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{312CDEB9-360E-C84D-ABC7-CCD81CFE5BEA}">
   <dimension ref="A2:S112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A197" zoomScale="125" workbookViewId="0">
+    <sheetView topLeftCell="A197" zoomScale="125" workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
@@ -2911,16 +4599,16 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="32" t="s">
         <v>228</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
     </row>
     <row r="4" spans="1:19" ht="120" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B4" s="20" t="s">
@@ -2955,7 +4643,7 @@
       <c r="O4" s="12"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="31" t="s">
         <v>239</v>
       </c>
       <c r="C5" s="13"/>
@@ -2967,7 +4655,7 @@
       <c r="S5" s="14"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B6" s="25"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="11" t="s">
         <v>236</v>
       </c>
@@ -2993,7 +4681,7 @@
       <c r="S6" s="16"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B7" s="25"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="11" t="s">
         <v>13</v>
       </c>
@@ -3022,7 +4710,7 @@
       <c r="S7" s="16"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B8" s="25"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="11" t="s">
         <v>22</v>
       </c>
@@ -3051,7 +4739,7 @@
       <c r="S8" s="16"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B9" s="25"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="11" t="s">
         <v>31</v>
       </c>
@@ -3080,7 +4768,7 @@
       <c r="S9" s="16"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B10" s="25"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="11" t="s">
         <v>237</v>
       </c>
@@ -3109,7 +4797,7 @@
       <c r="S10" s="16"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="30" t="s">
         <v>50</v>
       </c>
       <c r="C11" s="13"/>
@@ -3126,7 +4814,7 @@
       <c r="S11" s="14"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B12" s="25"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="11" t="s">
         <v>236</v>
       </c>
@@ -3136,7 +4824,7 @@
       <c r="E12" s="10">
         <v>0</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="25">
         <v>0.23</v>
       </c>
       <c r="G12" s="10">
@@ -3155,20 +4843,20 @@
       <c r="S12" s="16"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B13" s="25"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="11">
         <v>124</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="26">
         <v>1.6E-2</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="25">
         <v>0.52</v>
       </c>
-      <c r="G13" s="29">
+      <c r="G13" s="26">
         <v>1.6E-2</v>
       </c>
       <c r="H13" s="15" t="s">
@@ -3184,7 +4872,7 @@
       <c r="S13" s="16"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B14" s="25"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="11" t="s">
         <v>22</v>
       </c>
@@ -3194,7 +4882,7 @@
       <c r="E14" s="10">
         <v>0</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="25">
         <v>0.34</v>
       </c>
       <c r="G14" s="10">
@@ -3213,7 +4901,7 @@
       <c r="S14" s="16"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B15" s="25"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="11" t="s">
         <v>31</v>
       </c>
@@ -3223,7 +4911,7 @@
       <c r="E15" s="10">
         <v>0</v>
       </c>
-      <c r="F15" s="28">
+      <c r="F15" s="25">
         <v>0.28999999999999998</v>
       </c>
       <c r="G15" s="10">
@@ -3242,20 +4930,20 @@
       <c r="S15" s="16"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B16" s="25"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="11" t="s">
         <v>237</v>
       </c>
       <c r="D16" s="11">
         <v>577</v>
       </c>
-      <c r="E16" s="29">
+      <c r="E16" s="26">
         <v>3.4999999999999996E-3</v>
       </c>
-      <c r="F16" s="28">
+      <c r="F16" s="25">
         <v>0.34</v>
       </c>
-      <c r="G16" s="29">
+      <c r="G16" s="26">
         <v>3.4999999999999996E-3</v>
       </c>
       <c r="H16" s="15" t="s">
@@ -3271,7 +4959,7 @@
       <c r="S16" s="16"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="30" t="s">
         <v>65</v>
       </c>
       <c r="C17" s="13"/>
@@ -3283,7 +4971,7 @@
       <c r="I17" s="10"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="25"/>
+      <c r="B18" s="30"/>
       <c r="C18" s="11" t="s">
         <v>236</v>
       </c>
@@ -3293,10 +4981,10 @@
       <c r="E18" s="17">
         <v>0</v>
       </c>
-      <c r="F18" s="30">
+      <c r="F18" s="27">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="G18" s="30">
+      <c r="G18" s="27">
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="H18" s="17">
@@ -3307,7 +4995,7 @@
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B19" s="25"/>
+      <c r="B19" s="30"/>
       <c r="C19" s="11" t="s">
         <v>13</v>
       </c>
@@ -3331,23 +5019,23 @@
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B20" s="25"/>
+      <c r="B20" s="30"/>
       <c r="C20" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D20" s="11">
         <v>93</v>
       </c>
-      <c r="E20" s="30">
+      <c r="E20" s="27">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F20" s="31">
+      <c r="F20" s="28">
         <v>0.17199999999999999</v>
       </c>
-      <c r="G20" s="31">
+      <c r="G20" s="28">
         <v>0.17199999999999999</v>
       </c>
-      <c r="H20" s="30">
+      <c r="H20" s="27">
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="I20" s="17">
@@ -3355,7 +5043,7 @@
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B21" s="25"/>
+      <c r="B21" s="30"/>
       <c r="C21" s="11" t="s">
         <v>31</v>
       </c>
@@ -3365,10 +5053,10 @@
       <c r="E21" s="17">
         <v>0</v>
       </c>
-      <c r="F21" s="30">
+      <c r="F21" s="27">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="G21" s="30">
+      <c r="G21" s="27">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="H21" s="17">
@@ -3379,20 +5067,20 @@
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B22" s="25"/>
+      <c r="B22" s="30"/>
       <c r="C22" s="11" t="s">
         <v>237</v>
       </c>
       <c r="D22" s="11">
         <v>577</v>
       </c>
-      <c r="E22" s="30">
+      <c r="E22" s="27">
         <v>2E-3</v>
       </c>
-      <c r="F22" s="30">
+      <c r="F22" s="27">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G22" s="30">
+      <c r="G22" s="27">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="H22" s="17">
@@ -3403,7 +5091,7 @@
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="30" t="s">
         <v>78</v>
       </c>
       <c r="E23" s="10"/>
@@ -3413,7 +5101,7 @@
       <c r="I23" s="10"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B24" s="25"/>
+      <c r="B24" s="30"/>
       <c r="C24" s="11" t="s">
         <v>236</v>
       </c>
@@ -3437,7 +5125,7 @@
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B25" s="25"/>
+      <c r="B25" s="30"/>
       <c r="C25" s="11" t="s">
         <v>13</v>
       </c>
@@ -3461,7 +5149,7 @@
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B26" s="25"/>
+      <c r="B26" s="30"/>
       <c r="C26" s="11" t="s">
         <v>22</v>
       </c>
@@ -3485,7 +5173,7 @@
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B27" s="25"/>
+      <c r="B27" s="30"/>
       <c r="C27" s="11" t="s">
         <v>31</v>
       </c>
@@ -3509,7 +5197,7 @@
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B28" s="25"/>
+      <c r="B28" s="30"/>
       <c r="C28" s="11" t="s">
         <v>237</v>
       </c>
@@ -3533,7 +5221,7 @@
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="30" t="s">
         <v>91</v>
       </c>
       <c r="E29" s="10"/>
@@ -3543,7 +5231,7 @@
       <c r="I29" s="10"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B30" s="25"/>
+      <c r="B30" s="30"/>
       <c r="C30" s="11" t="s">
         <v>236</v>
       </c>
@@ -3567,7 +5255,7 @@
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B31" s="25"/>
+      <c r="B31" s="30"/>
       <c r="C31" s="11" t="s">
         <v>13</v>
       </c>
@@ -3591,7 +5279,7 @@
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B32" s="25"/>
+      <c r="B32" s="30"/>
       <c r="C32" s="11" t="s">
         <v>22</v>
       </c>
@@ -3615,7 +5303,7 @@
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B33" s="25"/>
+      <c r="B33" s="30"/>
       <c r="C33" s="11" t="s">
         <v>31</v>
       </c>
@@ -3639,7 +5327,7 @@
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B34" s="25"/>
+      <c r="B34" s="30"/>
       <c r="C34" s="11" t="s">
         <v>237</v>
       </c>
@@ -3663,7 +5351,7 @@
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="30" t="s">
         <v>104</v>
       </c>
       <c r="E35" s="10"/>
@@ -3673,7 +5361,7 @@
       <c r="I35" s="10"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B36" s="25"/>
+      <c r="B36" s="30"/>
       <c r="C36" s="11" t="s">
         <v>236</v>
       </c>
@@ -3697,17 +5385,17 @@
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B37" s="25"/>
+      <c r="B37" s="30"/>
       <c r="C37" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D37" s="11">
         <v>124</v>
       </c>
-      <c r="E37" s="29">
+      <c r="E37" s="26">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="F37" s="29">
+      <c r="F37" s="26">
         <v>8.1000000000000003E-2</v>
       </c>
       <c r="G37" s="10">
@@ -3721,7 +5409,7 @@
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B38" s="25"/>
+      <c r="B38" s="30"/>
       <c r="C38" s="11" t="s">
         <v>22</v>
       </c>
@@ -3745,7 +5433,7 @@
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B39" s="25"/>
+      <c r="B39" s="30"/>
       <c r="C39" s="11" t="s">
         <v>31</v>
       </c>
@@ -3769,17 +5457,17 @@
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B40" s="25"/>
+      <c r="B40" s="30"/>
       <c r="C40" s="11" t="s">
         <v>237</v>
       </c>
       <c r="D40" s="11">
         <v>577</v>
       </c>
-      <c r="E40" s="29">
+      <c r="E40" s="26">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="F40" s="29">
+      <c r="F40" s="26">
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="G40" s="10">
@@ -3793,7 +5481,7 @@
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B41" s="25" t="s">
+      <c r="B41" s="30" t="s">
         <v>240</v>
       </c>
       <c r="E41" s="10"/>
@@ -3803,7 +5491,7 @@
       <c r="I41" s="10"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B42" s="25"/>
+      <c r="B42" s="30"/>
       <c r="C42" s="11" t="s">
         <v>236</v>
       </c>
@@ -3827,7 +5515,7 @@
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B43" s="25"/>
+      <c r="B43" s="30"/>
       <c r="C43" s="11" t="s">
         <v>13</v>
       </c>
@@ -3851,7 +5539,7 @@
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B44" s="25"/>
+      <c r="B44" s="30"/>
       <c r="C44" s="11" t="s">
         <v>22</v>
       </c>
@@ -3875,7 +5563,7 @@
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B45" s="25"/>
+      <c r="B45" s="30"/>
       <c r="C45" s="11" t="s">
         <v>31</v>
       </c>
@@ -3899,7 +5587,7 @@
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B46" s="25"/>
+      <c r="B46" s="30"/>
       <c r="C46" s="11" t="s">
         <v>237</v>
       </c>
@@ -3923,7 +5611,7 @@
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="30" t="s">
         <v>121</v>
       </c>
       <c r="E47" s="10"/>
@@ -3933,7 +5621,7 @@
       <c r="I47" s="10"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B48" s="25"/>
+      <c r="B48" s="30"/>
       <c r="C48" s="11" t="s">
         <v>236</v>
       </c>
@@ -3957,7 +5645,7 @@
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B49" s="25"/>
+      <c r="B49" s="30"/>
       <c r="C49" s="11" t="s">
         <v>13</v>
       </c>
@@ -3981,17 +5669,17 @@
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B50" s="25"/>
+      <c r="B50" s="30"/>
       <c r="C50" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D50" s="11">
         <v>93</v>
       </c>
-      <c r="E50" s="29">
+      <c r="E50" s="26">
         <v>1.1000000000000001E-2</v>
       </c>
-      <c r="F50" s="29">
+      <c r="F50" s="26">
         <v>1.1000000000000001E-2</v>
       </c>
       <c r="G50" s="10">
@@ -4005,7 +5693,7 @@
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B51" s="25"/>
+      <c r="B51" s="30"/>
       <c r="C51" s="11" t="s">
         <v>31</v>
       </c>
@@ -4029,17 +5717,17 @@
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B52" s="25"/>
+      <c r="B52" s="30"/>
       <c r="C52" s="11" t="s">
         <v>237</v>
       </c>
       <c r="D52" s="11">
         <v>577</v>
       </c>
-      <c r="E52" s="29">
+      <c r="E52" s="26">
         <v>1.7000000000000001E-3</v>
       </c>
-      <c r="F52" s="29">
+      <c r="F52" s="26">
         <v>1.7000000000000001E-3</v>
       </c>
       <c r="G52" s="10">
@@ -4053,7 +5741,7 @@
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B53" s="25" t="s">
+      <c r="B53" s="30" t="s">
         <v>130</v>
       </c>
       <c r="E53" s="10"/>
@@ -4063,7 +5751,7 @@
       <c r="I53" s="10"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B54" s="25"/>
+      <c r="B54" s="30"/>
       <c r="C54" s="11" t="s">
         <v>236</v>
       </c>
@@ -4087,23 +5775,23 @@
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B55" s="25"/>
+      <c r="B55" s="30"/>
       <c r="C55" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D55" s="11">
         <v>124</v>
       </c>
-      <c r="E55" s="29">
+      <c r="E55" s="26">
         <v>9.6999999999999989E-2</v>
       </c>
-      <c r="F55" s="29">
+      <c r="F55" s="26">
         <v>1.6E-2</v>
       </c>
-      <c r="G55" s="29">
+      <c r="G55" s="26">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="H55" s="29">
+      <c r="H55" s="26">
         <v>1.6E-2</v>
       </c>
       <c r="I55" s="10">
@@ -4111,23 +5799,23 @@
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B56" s="25"/>
+      <c r="B56" s="30"/>
       <c r="C56" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D56" s="11">
         <v>93</v>
       </c>
-      <c r="E56" s="28">
+      <c r="E56" s="25">
         <v>0.17</v>
       </c>
-      <c r="F56" s="29">
+      <c r="F56" s="26">
         <v>2.2000000000000002E-2</v>
       </c>
-      <c r="G56" s="29">
+      <c r="G56" s="26">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="H56" s="29">
+      <c r="H56" s="26">
         <v>2.2000000000000002E-2</v>
       </c>
       <c r="I56" s="10">
@@ -4135,23 +5823,23 @@
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B57" s="25"/>
+      <c r="B57" s="30"/>
       <c r="C57" s="11" t="s">
         <v>31</v>
       </c>
       <c r="D57" s="11">
         <v>307</v>
       </c>
-      <c r="E57" s="29">
+      <c r="E57" s="26">
         <v>2.3E-2</v>
       </c>
       <c r="F57" s="10">
         <v>0</v>
       </c>
-      <c r="G57" s="29">
+      <c r="G57" s="26">
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="H57" s="32">
+      <c r="H57" s="29">
         <v>0</v>
       </c>
       <c r="I57" s="10">
@@ -4159,23 +5847,23 @@
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B58" s="25"/>
+      <c r="B58" s="30"/>
       <c r="C58" s="11" t="s">
         <v>237</v>
       </c>
       <c r="D58" s="11">
         <v>577</v>
       </c>
-      <c r="E58" s="29">
+      <c r="E58" s="26">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="F58" s="29">
+      <c r="F58" s="26">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="G58" s="29">
+      <c r="G58" s="26">
         <v>2.3E-2</v>
       </c>
-      <c r="H58" s="29">
+      <c r="H58" s="26">
         <v>6.8999999999999999E-3</v>
       </c>
       <c r="I58" s="10">
@@ -4183,7 +5871,7 @@
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B59" s="25" t="s">
+      <c r="B59" s="30" t="s">
         <v>143</v>
       </c>
       <c r="E59" s="10"/>
@@ -4193,7 +5881,7 @@
       <c r="I59" s="10"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B60" s="25"/>
+      <c r="B60" s="30"/>
       <c r="C60" s="11" t="s">
         <v>236</v>
       </c>
@@ -4203,10 +5891,10 @@
       <c r="E60" s="10">
         <v>0</v>
       </c>
-      <c r="F60" s="29">
+      <c r="F60" s="26">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="G60" s="29">
+      <c r="G60" s="26">
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="H60" s="15" t="s">
@@ -4217,7 +5905,7 @@
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B61" s="25"/>
+      <c r="B61" s="30"/>
       <c r="C61" s="11" t="s">
         <v>13</v>
       </c>
@@ -4227,10 +5915,10 @@
       <c r="E61" s="10">
         <v>0</v>
       </c>
-      <c r="F61" s="29">
+      <c r="F61" s="26">
         <v>0.04</v>
       </c>
-      <c r="G61" s="29">
+      <c r="G61" s="26">
         <v>0.04</v>
       </c>
       <c r="H61" s="15" t="s">
@@ -4241,7 +5929,7 @@
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B62" s="25"/>
+      <c r="B62" s="30"/>
       <c r="C62" s="11" t="s">
         <v>22</v>
       </c>
@@ -4251,10 +5939,10 @@
       <c r="E62" s="10">
         <v>0</v>
       </c>
-      <c r="F62" s="29">
+      <c r="F62" s="26">
         <v>5.4000000000000006E-2</v>
       </c>
-      <c r="G62" s="29">
+      <c r="G62" s="26">
         <v>5.4000000000000006E-2</v>
       </c>
       <c r="H62" s="15" t="s">
@@ -4265,7 +5953,7 @@
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B63" s="25"/>
+      <c r="B63" s="30"/>
       <c r="C63" s="11" t="s">
         <v>31</v>
       </c>
@@ -4275,10 +5963,10 @@
       <c r="E63" s="10">
         <v>0</v>
       </c>
-      <c r="F63" s="29">
+      <c r="F63" s="26">
         <v>5.2000000000000005E-2</v>
       </c>
-      <c r="G63" s="29">
+      <c r="G63" s="26">
         <v>5.2000000000000005E-2</v>
       </c>
       <c r="H63" s="15" t="s">
@@ -4289,7 +5977,7 @@
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B64" s="25"/>
+      <c r="B64" s="30"/>
       <c r="C64" s="11" t="s">
         <v>237</v>
       </c>
@@ -4299,10 +5987,10 @@
       <c r="E64" s="10">
         <v>0</v>
       </c>
-      <c r="F64" s="29">
+      <c r="F64" s="26">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="G64" s="29">
+      <c r="G64" s="26">
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="H64" s="15" t="s">
@@ -4313,7 +6001,7 @@
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B65" s="25" t="s">
+      <c r="B65" s="30" t="s">
         <v>156</v>
       </c>
       <c r="E65" s="10"/>
@@ -4323,20 +6011,20 @@
       <c r="I65" s="10"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B66" s="25"/>
+      <c r="B66" s="30"/>
       <c r="C66" s="11" t="s">
         <v>236</v>
       </c>
       <c r="D66" s="11">
         <v>53</v>
       </c>
-      <c r="E66" s="29">
+      <c r="E66" s="26">
         <v>1.9E-2</v>
       </c>
-      <c r="F66" s="29">
+      <c r="F66" s="26">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="G66" s="29">
+      <c r="G66" s="26">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="H66" s="10">
@@ -4347,20 +6035,20 @@
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B67" s="25"/>
+      <c r="B67" s="30"/>
       <c r="C67" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D67" s="11">
         <v>124</v>
       </c>
-      <c r="E67" s="29">
+      <c r="E67" s="26">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="F67" s="28">
+      <c r="F67" s="25">
         <v>0.24</v>
       </c>
-      <c r="G67" s="28">
+      <c r="G67" s="25">
         <v>0.24</v>
       </c>
       <c r="H67" s="10">
@@ -4371,20 +6059,20 @@
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B68" s="25"/>
+      <c r="B68" s="30"/>
       <c r="C68" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D68" s="11">
         <v>93</v>
       </c>
-      <c r="E68" s="29">
+      <c r="E68" s="26">
         <v>2.2000000000000002E-2</v>
       </c>
-      <c r="F68" s="29">
+      <c r="F68" s="26">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="G68" s="29">
+      <c r="G68" s="26">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="H68" s="10">
@@ -4395,20 +6083,20 @@
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B69" s="25"/>
+      <c r="B69" s="30"/>
       <c r="C69" s="11" t="s">
         <v>31</v>
       </c>
       <c r="D69" s="11">
         <v>307</v>
       </c>
-      <c r="E69" s="29">
+      <c r="E69" s="26">
         <v>1.3000000000000001E-2</v>
       </c>
-      <c r="F69" s="28">
+      <c r="F69" s="25">
         <v>0.1</v>
       </c>
-      <c r="G69" s="28">
+      <c r="G69" s="25">
         <v>0.1</v>
       </c>
       <c r="H69" s="10">
@@ -4419,20 +6107,20 @@
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B70" s="25"/>
+      <c r="B70" s="30"/>
       <c r="C70" s="11" t="s">
         <v>237</v>
       </c>
       <c r="D70" s="11">
         <v>577</v>
       </c>
-      <c r="E70" s="29">
+      <c r="E70" s="26">
         <v>2.8999999999999998E-2</v>
       </c>
-      <c r="F70" s="28">
+      <c r="F70" s="25">
         <v>0.13</v>
       </c>
-      <c r="G70" s="28">
+      <c r="G70" s="25">
         <v>0.13</v>
       </c>
       <c r="H70" s="10">
@@ -4443,7 +6131,7 @@
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B71" s="25" t="s">
+      <c r="B71" s="30" t="s">
         <v>241</v>
       </c>
       <c r="E71" s="10"/>
@@ -4453,14 +6141,14 @@
       <c r="I71" s="10"/>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B72" s="25"/>
+      <c r="B72" s="30"/>
       <c r="C72" s="11" t="s">
         <v>236</v>
       </c>
       <c r="D72" s="11">
         <v>53</v>
       </c>
-      <c r="E72" s="29">
+      <c r="E72" s="26">
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="F72" s="15" t="s">
@@ -4477,14 +6165,14 @@
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B73" s="25"/>
+      <c r="B73" s="30"/>
       <c r="C73" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D73" s="11">
         <v>124</v>
       </c>
-      <c r="E73" s="29">
+      <c r="E73" s="26">
         <v>0</v>
       </c>
       <c r="F73" s="15" t="s">
@@ -4501,14 +6189,14 @@
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B74" s="25"/>
+      <c r="B74" s="30"/>
       <c r="C74" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D74" s="11">
         <v>93</v>
       </c>
-      <c r="E74" s="29">
+      <c r="E74" s="26">
         <v>5.4000000000000006E-2</v>
       </c>
       <c r="F74" s="15" t="s">
@@ -4525,14 +6213,14 @@
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B75" s="25"/>
+      <c r="B75" s="30"/>
       <c r="C75" s="11" t="s">
         <v>31</v>
       </c>
       <c r="D75" s="11">
         <v>307</v>
       </c>
-      <c r="E75" s="29">
+      <c r="E75" s="26">
         <v>3.6000000000000004E-2</v>
       </c>
       <c r="F75" s="15" t="s">
@@ -4549,14 +6237,14 @@
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B76" s="25"/>
+      <c r="B76" s="30"/>
       <c r="C76" s="11" t="s">
         <v>237</v>
       </c>
       <c r="D76" s="11">
         <v>577</v>
       </c>
-      <c r="E76" s="29">
+      <c r="E76" s="26">
         <v>3.1E-2</v>
       </c>
       <c r="F76" s="15" t="s">
@@ -4573,7 +6261,7 @@
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B77" s="25" t="s">
+      <c r="B77" s="30" t="s">
         <v>169</v>
       </c>
       <c r="E77" s="10"/>
@@ -4583,7 +6271,7 @@
       <c r="I77" s="10"/>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B78" s="25"/>
+      <c r="B78" s="30"/>
       <c r="C78" s="11" t="s">
         <v>236</v>
       </c>
@@ -4607,17 +6295,17 @@
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B79" s="25"/>
+      <c r="B79" s="30"/>
       <c r="C79" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D79" s="11">
         <v>124</v>
       </c>
-      <c r="E79" s="29">
+      <c r="E79" s="26">
         <v>1.6E-2</v>
       </c>
-      <c r="F79" s="29">
+      <c r="F79" s="26">
         <v>1.6E-2</v>
       </c>
       <c r="G79" s="15" t="s">
@@ -4631,7 +6319,7 @@
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B80" s="25"/>
+      <c r="B80" s="30"/>
       <c r="C80" s="11" t="s">
         <v>22</v>
       </c>
@@ -4655,7 +6343,7 @@
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B81" s="25"/>
+      <c r="B81" s="30"/>
       <c r="C81" s="11" t="s">
         <v>31</v>
       </c>
@@ -4679,7 +6367,7 @@
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B82" s="25"/>
+      <c r="B82" s="30"/>
       <c r="C82" s="11" t="s">
         <v>237</v>
       </c>
@@ -4703,7 +6391,7 @@
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B83" s="25" t="s">
+      <c r="B83" s="30" t="s">
         <v>182</v>
       </c>
       <c r="C83" s="13"/>
@@ -4715,7 +6403,7 @@
       <c r="I83" s="10"/>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B84" s="25"/>
+      <c r="B84" s="30"/>
       <c r="C84" s="11" t="s">
         <v>236</v>
       </c>
@@ -4739,7 +6427,7 @@
       </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B85" s="25"/>
+      <c r="B85" s="30"/>
       <c r="C85" s="11" t="s">
         <v>13</v>
       </c>
@@ -4749,21 +6437,21 @@
       <c r="E85" s="17">
         <v>0</v>
       </c>
-      <c r="F85" s="30">
+      <c r="F85" s="27">
         <v>2.4E-2</v>
       </c>
       <c r="G85" s="17">
         <v>0</v>
       </c>
-      <c r="H85" s="30">
+      <c r="H85" s="27">
         <v>2.4E-2</v>
       </c>
-      <c r="I85" s="30">
+      <c r="I85" s="27">
         <v>2.4E-2</v>
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B86" s="25"/>
+      <c r="B86" s="30"/>
       <c r="C86" s="11" t="s">
         <v>22</v>
       </c>
@@ -4773,21 +6461,21 @@
       <c r="E86" s="17">
         <v>0</v>
       </c>
-      <c r="F86" s="30">
+      <c r="F86" s="27">
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="G86" s="17">
         <v>0</v>
       </c>
-      <c r="H86" s="30">
+      <c r="H86" s="27">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="I86" s="30">
+      <c r="I86" s="27">
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B87" s="25"/>
+      <c r="B87" s="30"/>
       <c r="C87" s="11" t="s">
         <v>31</v>
       </c>
@@ -4797,21 +6485,21 @@
       <c r="E87" s="17">
         <v>0</v>
       </c>
-      <c r="F87" s="30">
+      <c r="F87" s="27">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G87" s="30">
+      <c r="G87" s="27">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="H87" s="30">
+      <c r="H87" s="27">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="I87" s="30">
+      <c r="I87" s="27">
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B88" s="25"/>
+      <c r="B88" s="30"/>
       <c r="C88" s="11" t="s">
         <v>237</v>
       </c>
@@ -4821,21 +6509,21 @@
       <c r="E88" s="17">
         <v>0</v>
       </c>
-      <c r="F88" s="30">
+      <c r="F88" s="27">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="G88" s="30">
+      <c r="G88" s="27">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H88" s="30">
+      <c r="H88" s="27">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="I88" s="30">
+      <c r="I88" s="27">
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B89" s="25" t="s">
+      <c r="B89" s="30" t="s">
         <v>242</v>
       </c>
       <c r="E89" s="10"/>
@@ -4845,7 +6533,7 @@
       <c r="I89" s="10"/>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B90" s="25"/>
+      <c r="B90" s="30"/>
       <c r="C90" s="11" t="s">
         <v>236</v>
       </c>
@@ -4869,7 +6557,7 @@
       </c>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B91" s="25"/>
+      <c r="B91" s="30"/>
       <c r="C91" s="11" t="s">
         <v>13</v>
       </c>
@@ -4893,7 +6581,7 @@
       </c>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B92" s="25"/>
+      <c r="B92" s="30"/>
       <c r="C92" s="11" t="s">
         <v>22</v>
       </c>
@@ -4903,7 +6591,7 @@
       <c r="E92" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="F92" s="29">
+      <c r="F92" s="26">
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="G92" s="15" t="s">
@@ -4917,7 +6605,7 @@
       </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B93" s="25"/>
+      <c r="B93" s="30"/>
       <c r="C93" s="11" t="s">
         <v>31</v>
       </c>
@@ -4927,7 +6615,7 @@
       <c r="E93" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="F93" s="29">
+      <c r="F93" s="26">
         <v>1.6E-2</v>
       </c>
       <c r="G93" s="15" t="s">
@@ -4941,7 +6629,7 @@
       </c>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B94" s="25"/>
+      <c r="B94" s="30"/>
       <c r="C94" s="11" t="s">
         <v>237</v>
       </c>
@@ -4951,7 +6639,7 @@
       <c r="E94" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="F94" s="29">
+      <c r="F94" s="26">
         <v>1.3999999999999999E-2</v>
       </c>
       <c r="G94" s="15" t="s">
@@ -4965,7 +6653,7 @@
       </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B95" s="25" t="s">
+      <c r="B95" s="30" t="s">
         <v>195</v>
       </c>
       <c r="E95" s="10"/>
@@ -4975,7 +6663,7 @@
       <c r="I95" s="10"/>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B96" s="25"/>
+      <c r="B96" s="30"/>
       <c r="C96" s="11" t="s">
         <v>236</v>
       </c>
@@ -4999,7 +6687,7 @@
       </c>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B97" s="25"/>
+      <c r="B97" s="30"/>
       <c r="C97" s="11" t="s">
         <v>13</v>
       </c>
@@ -5023,7 +6711,7 @@
       </c>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B98" s="25"/>
+      <c r="B98" s="30"/>
       <c r="C98" s="11" t="s">
         <v>22</v>
       </c>
@@ -5047,7 +6735,7 @@
       </c>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B99" s="25"/>
+      <c r="B99" s="30"/>
       <c r="C99" s="11" t="s">
         <v>31</v>
       </c>
@@ -5071,7 +6759,7 @@
       </c>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B100" s="25"/>
+      <c r="B100" s="30"/>
       <c r="C100" s="11" t="s">
         <v>237</v>
       </c>
@@ -5095,7 +6783,7 @@
       </c>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B101" s="25" t="s">
+      <c r="B101" s="30" t="s">
         <v>243</v>
       </c>
       <c r="E101" s="10"/>
@@ -5105,7 +6793,7 @@
       <c r="I101" s="10"/>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B102" s="25"/>
+      <c r="B102" s="30"/>
       <c r="C102" s="11" t="s">
         <v>236</v>
       </c>
@@ -5129,7 +6817,7 @@
       </c>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B103" s="25"/>
+      <c r="B103" s="30"/>
       <c r="C103" s="11" t="s">
         <v>13</v>
       </c>
@@ -5153,7 +6841,7 @@
       </c>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B104" s="25"/>
+      <c r="B104" s="30"/>
       <c r="C104" s="11" t="s">
         <v>22</v>
       </c>
@@ -5177,7 +6865,7 @@
       </c>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B105" s="25"/>
+      <c r="B105" s="30"/>
       <c r="C105" s="11" t="s">
         <v>31</v>
       </c>
@@ -5201,7 +6889,7 @@
       </c>
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B106" s="25"/>
+      <c r="B106" s="30"/>
       <c r="C106" s="11" t="s">
         <v>237</v>
       </c>
@@ -5225,7 +6913,7 @@
       </c>
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B107" s="25" t="s">
+      <c r="B107" s="30" t="s">
         <v>208</v>
       </c>
       <c r="E107" s="10"/>
@@ -5235,14 +6923,14 @@
       <c r="I107" s="10"/>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B108" s="25"/>
+      <c r="B108" s="30"/>
       <c r="C108" s="11" t="s">
         <v>236</v>
       </c>
       <c r="D108" s="11">
         <v>53</v>
       </c>
-      <c r="E108" s="29">
+      <c r="E108" s="26">
         <v>1.9E-2</v>
       </c>
       <c r="F108" s="10">
@@ -5259,14 +6947,14 @@
       </c>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B109" s="25"/>
+      <c r="B109" s="30"/>
       <c r="C109" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D109" s="11">
         <v>124</v>
       </c>
-      <c r="E109" s="29">
+      <c r="E109" s="26">
         <v>0.04</v>
       </c>
       <c r="F109" s="10">
@@ -5283,17 +6971,17 @@
       </c>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B110" s="25"/>
+      <c r="B110" s="30"/>
       <c r="C110" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D110" s="11">
         <v>93</v>
       </c>
-      <c r="E110" s="29">
+      <c r="E110" s="26">
         <v>1.1000000000000001E-2</v>
       </c>
-      <c r="F110" s="29">
+      <c r="F110" s="26">
         <v>1.1000000000000001E-2</v>
       </c>
       <c r="G110" s="10">
@@ -5307,17 +6995,17 @@
       </c>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B111" s="25"/>
+      <c r="B111" s="30"/>
       <c r="C111" s="11" t="s">
         <v>31</v>
       </c>
       <c r="D111" s="11">
         <v>307</v>
       </c>
-      <c r="E111" s="29">
+      <c r="E111" s="26">
         <v>5.9000000000000004E-2</v>
       </c>
-      <c r="F111" s="29">
+      <c r="F111" s="26">
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="G111" s="10">
@@ -5331,17 +7019,17 @@
       </c>
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B112" s="25"/>
+      <c r="B112" s="30"/>
       <c r="C112" s="11" t="s">
         <v>237</v>
       </c>
       <c r="D112" s="11">
         <v>577</v>
       </c>
-      <c r="E112" s="29">
+      <c r="E112" s="26">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="F112" s="29">
+      <c r="F112" s="26">
         <v>1.9E-2</v>
       </c>
       <c r="G112" s="10">
@@ -5356,13 +7044,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B107:B112"/>
-    <mergeCell ref="B71:B76"/>
-    <mergeCell ref="B77:B82"/>
-    <mergeCell ref="B83:B88"/>
-    <mergeCell ref="B89:B94"/>
-    <mergeCell ref="B95:B100"/>
-    <mergeCell ref="B101:B106"/>
     <mergeCell ref="B65:B70"/>
     <mergeCell ref="B5:B10"/>
     <mergeCell ref="B11:B16"/>
@@ -5375,6 +7056,13 @@
     <mergeCell ref="B47:B52"/>
     <mergeCell ref="B53:B58"/>
     <mergeCell ref="B59:B64"/>
+    <mergeCell ref="B107:B112"/>
+    <mergeCell ref="B71:B76"/>
+    <mergeCell ref="B77:B82"/>
+    <mergeCell ref="B83:B88"/>
+    <mergeCell ref="B89:B94"/>
+    <mergeCell ref="B95:B100"/>
+    <mergeCell ref="B101:B106"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5398,11 +7086,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="32" t="s">
         <v>246</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
     </row>
     <row r="3" spans="2:4" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B3" s="21" t="s">
@@ -5635,4 +7323,3029 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB37F5ED-9F41-AA4C-85D6-C28D1DCEB3A4}">
+  <dimension ref="A1:F77"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="40" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="34"/>
+      <c r="B1" s="35" t="s">
+        <v>282</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>283</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>285</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
+        <v>239</v>
+      </c>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+    </row>
+    <row r="3" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>287</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>288</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>289</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>290</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>292</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>293</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>294</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>295</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>296</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>297</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>298</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>299</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+    </row>
+    <row r="7" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>301</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>302</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>303</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>304</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>306</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>307</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>308</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>309</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>311</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>312</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>313</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>314</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+    </row>
+    <row r="11" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>316</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>317</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>318</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>319</v>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>321</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>322</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>323</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>324</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>326</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>327</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>328</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>329</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+    </row>
+    <row r="15" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>331</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>332</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>333</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>334</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>336</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>337</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>338</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>339</v>
+      </c>
+      <c r="F16" s="38" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>341</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>342</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>343</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>344</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+    </row>
+    <row r="19" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>346</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>347</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>348</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>349</v>
+      </c>
+      <c r="F19" s="38" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="38" t="s">
+        <v>351</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>352</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>353</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>354</v>
+      </c>
+      <c r="F20" s="38" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="38" t="s">
+        <v>356</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>357</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>358</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>359</v>
+      </c>
+      <c r="F21" s="38" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+    </row>
+    <row r="23" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="38" t="s">
+        <v>361</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>362</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>363</v>
+      </c>
+      <c r="E23" s="38" t="s">
+        <v>364</v>
+      </c>
+      <c r="F23" s="38" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="38" t="s">
+        <v>366</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>367</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>368</v>
+      </c>
+      <c r="E24" s="38" t="s">
+        <v>369</v>
+      </c>
+      <c r="F24" s="38" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="38" t="s">
+        <v>371</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>372</v>
+      </c>
+      <c r="D25" s="38" t="s">
+        <v>373</v>
+      </c>
+      <c r="E25" s="38" t="s">
+        <v>374</v>
+      </c>
+      <c r="F25" s="38" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+    </row>
+    <row r="27" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="38" t="s">
+        <v>376</v>
+      </c>
+      <c r="C27" s="38" t="s">
+        <v>377</v>
+      </c>
+      <c r="D27" s="38" t="s">
+        <v>378</v>
+      </c>
+      <c r="E27" s="38" t="s">
+        <v>379</v>
+      </c>
+      <c r="F27" s="38" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="38" t="s">
+        <v>381</v>
+      </c>
+      <c r="C28" s="38" t="s">
+        <v>382</v>
+      </c>
+      <c r="D28" s="38" t="s">
+        <v>383</v>
+      </c>
+      <c r="E28" s="38" t="s">
+        <v>384</v>
+      </c>
+      <c r="F28" s="38" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="38" t="s">
+        <v>386</v>
+      </c>
+      <c r="C29" s="38" t="s">
+        <v>387</v>
+      </c>
+      <c r="D29" s="38" t="s">
+        <v>388</v>
+      </c>
+      <c r="E29" s="38" t="s">
+        <v>389</v>
+      </c>
+      <c r="F29" s="38" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+    </row>
+    <row r="31" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="38" t="s">
+        <v>391</v>
+      </c>
+      <c r="C31" s="38" t="s">
+        <v>392</v>
+      </c>
+      <c r="D31" s="38" t="s">
+        <v>393</v>
+      </c>
+      <c r="E31" s="38" t="s">
+        <v>394</v>
+      </c>
+      <c r="F31" s="38" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="38" t="s">
+        <v>396</v>
+      </c>
+      <c r="C32" s="38" t="s">
+        <v>397</v>
+      </c>
+      <c r="D32" s="38" t="s">
+        <v>398</v>
+      </c>
+      <c r="E32" s="38" t="s">
+        <v>399</v>
+      </c>
+      <c r="F32" s="38" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="38" t="s">
+        <v>401</v>
+      </c>
+      <c r="C33" s="38" t="s">
+        <v>402</v>
+      </c>
+      <c r="D33" s="38" t="s">
+        <v>403</v>
+      </c>
+      <c r="E33" s="38" t="s">
+        <v>404</v>
+      </c>
+      <c r="F33" s="38" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+    </row>
+    <row r="35" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="38" t="s">
+        <v>406</v>
+      </c>
+      <c r="C35" s="38" t="s">
+        <v>407</v>
+      </c>
+      <c r="D35" s="38" t="s">
+        <v>408</v>
+      </c>
+      <c r="E35" s="38" t="s">
+        <v>409</v>
+      </c>
+      <c r="F35" s="38" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="38" t="s">
+        <v>411</v>
+      </c>
+      <c r="C36" s="38" t="s">
+        <v>412</v>
+      </c>
+      <c r="D36" s="38" t="s">
+        <v>413</v>
+      </c>
+      <c r="E36" s="38" t="s">
+        <v>414</v>
+      </c>
+      <c r="F36" s="38" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="38" t="s">
+        <v>416</v>
+      </c>
+      <c r="C37" s="38" t="s">
+        <v>417</v>
+      </c>
+      <c r="D37" s="38" t="s">
+        <v>418</v>
+      </c>
+      <c r="E37" s="38" t="s">
+        <v>419</v>
+      </c>
+      <c r="F37" s="38" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="B38" s="39"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+    </row>
+    <row r="39" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="38" t="s">
+        <v>421</v>
+      </c>
+      <c r="C39" s="38" t="s">
+        <v>422</v>
+      </c>
+      <c r="D39" s="38" t="s">
+        <v>423</v>
+      </c>
+      <c r="E39" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="F39" s="38" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="38" t="s">
+        <v>426</v>
+      </c>
+      <c r="C40" s="38" t="s">
+        <v>427</v>
+      </c>
+      <c r="D40" s="38" t="s">
+        <v>428</v>
+      </c>
+      <c r="E40" s="38" t="s">
+        <v>429</v>
+      </c>
+      <c r="F40" s="38" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" s="38" t="s">
+        <v>431</v>
+      </c>
+      <c r="C41" s="38" t="s">
+        <v>432</v>
+      </c>
+      <c r="D41" s="38" t="s">
+        <v>433</v>
+      </c>
+      <c r="E41" s="38" t="s">
+        <v>434</v>
+      </c>
+      <c r="F41" s="38" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+    </row>
+    <row r="43" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" s="38" t="s">
+        <v>436</v>
+      </c>
+      <c r="C43" s="38" t="s">
+        <v>437</v>
+      </c>
+      <c r="D43" s="38" t="s">
+        <v>438</v>
+      </c>
+      <c r="E43" s="38" t="s">
+        <v>439</v>
+      </c>
+      <c r="F43" s="38" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="38" t="s">
+        <v>441</v>
+      </c>
+      <c r="C44" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="D44" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="E44" s="38" t="s">
+        <v>444</v>
+      </c>
+      <c r="F44" s="38" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" s="38" t="s">
+        <v>446</v>
+      </c>
+      <c r="C45" s="38" t="s">
+        <v>447</v>
+      </c>
+      <c r="D45" s="38" t="s">
+        <v>448</v>
+      </c>
+      <c r="E45" s="38" t="s">
+        <v>449</v>
+      </c>
+      <c r="F45" s="38" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="36" t="s">
+        <v>241</v>
+      </c>
+      <c r="B46" s="39"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
+    </row>
+    <row r="47" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" s="38" t="s">
+        <v>451</v>
+      </c>
+      <c r="C47" s="38" t="s">
+        <v>452</v>
+      </c>
+      <c r="D47" s="38" t="s">
+        <v>453</v>
+      </c>
+      <c r="E47" s="38" t="s">
+        <v>454</v>
+      </c>
+      <c r="F47" s="38" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" s="38" t="s">
+        <v>456</v>
+      </c>
+      <c r="C48" s="38" t="s">
+        <v>457</v>
+      </c>
+      <c r="D48" s="38" t="s">
+        <v>458</v>
+      </c>
+      <c r="E48" s="38" t="s">
+        <v>459</v>
+      </c>
+      <c r="F48" s="38" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" s="38" t="s">
+        <v>461</v>
+      </c>
+      <c r="C49" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="D49" s="38" t="s">
+        <v>463</v>
+      </c>
+      <c r="E49" s="38" t="s">
+        <v>464</v>
+      </c>
+      <c r="F49" s="38" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="B50" s="39"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="39"/>
+    </row>
+    <row r="51" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" s="38" t="s">
+        <v>466</v>
+      </c>
+      <c r="C51" s="38" t="s">
+        <v>467</v>
+      </c>
+      <c r="D51" s="38" t="s">
+        <v>468</v>
+      </c>
+      <c r="E51" s="38" t="s">
+        <v>469</v>
+      </c>
+      <c r="F51" s="38" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" s="38" t="s">
+        <v>471</v>
+      </c>
+      <c r="C52" s="38" t="s">
+        <v>472</v>
+      </c>
+      <c r="D52" s="38" t="s">
+        <v>473</v>
+      </c>
+      <c r="E52" s="38" t="s">
+        <v>474</v>
+      </c>
+      <c r="F52" s="38" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" s="38" t="s">
+        <v>476</v>
+      </c>
+      <c r="C53" s="38" t="s">
+        <v>477</v>
+      </c>
+      <c r="D53" s="38" t="s">
+        <v>478</v>
+      </c>
+      <c r="E53" s="38" t="s">
+        <v>479</v>
+      </c>
+      <c r="F53" s="38" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="B54" s="39"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="39"/>
+    </row>
+    <row r="55" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" s="38" t="s">
+        <v>481</v>
+      </c>
+      <c r="C55" s="38" t="s">
+        <v>482</v>
+      </c>
+      <c r="D55" s="38" t="s">
+        <v>483</v>
+      </c>
+      <c r="E55" s="38" t="s">
+        <v>484</v>
+      </c>
+      <c r="F55" s="38" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B56" s="38" t="s">
+        <v>486</v>
+      </c>
+      <c r="C56" s="38" t="s">
+        <v>487</v>
+      </c>
+      <c r="D56" s="38" t="s">
+        <v>488</v>
+      </c>
+      <c r="E56" s="38" t="s">
+        <v>489</v>
+      </c>
+      <c r="F56" s="38" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B57" s="38" t="s">
+        <v>491</v>
+      </c>
+      <c r="C57" s="38" t="s">
+        <v>492</v>
+      </c>
+      <c r="D57" s="38" t="s">
+        <v>493</v>
+      </c>
+      <c r="E57" s="38" t="s">
+        <v>494</v>
+      </c>
+      <c r="F57" s="38" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="36" t="s">
+        <v>242</v>
+      </c>
+      <c r="B58" s="39"/>
+      <c r="C58" s="39"/>
+      <c r="D58" s="39"/>
+      <c r="E58" s="39"/>
+      <c r="F58" s="39"/>
+    </row>
+    <row r="59" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59" s="38" t="s">
+        <v>496</v>
+      </c>
+      <c r="C59" s="38" t="s">
+        <v>497</v>
+      </c>
+      <c r="D59" s="38" t="s">
+        <v>498</v>
+      </c>
+      <c r="E59" s="38" t="s">
+        <v>499</v>
+      </c>
+      <c r="F59" s="38" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B60" s="38" t="s">
+        <v>501</v>
+      </c>
+      <c r="C60" s="38" t="s">
+        <v>502</v>
+      </c>
+      <c r="D60" s="38" t="s">
+        <v>503</v>
+      </c>
+      <c r="E60" s="38" t="s">
+        <v>504</v>
+      </c>
+      <c r="F60" s="38" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B61" s="38" t="s">
+        <v>506</v>
+      </c>
+      <c r="C61" s="38" t="s">
+        <v>507</v>
+      </c>
+      <c r="D61" s="38" t="s">
+        <v>508</v>
+      </c>
+      <c r="E61" s="38" t="s">
+        <v>509</v>
+      </c>
+      <c r="F61" s="38" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="B62" s="39"/>
+      <c r="C62" s="39"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="39"/>
+    </row>
+    <row r="63" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" s="38" t="s">
+        <v>511</v>
+      </c>
+      <c r="C63" s="38" t="s">
+        <v>512</v>
+      </c>
+      <c r="D63" s="38" t="s">
+        <v>513</v>
+      </c>
+      <c r="E63" s="38" t="s">
+        <v>514</v>
+      </c>
+      <c r="F63" s="38" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B64" s="38" t="s">
+        <v>516</v>
+      </c>
+      <c r="C64" s="38" t="s">
+        <v>517</v>
+      </c>
+      <c r="D64" s="38" t="s">
+        <v>518</v>
+      </c>
+      <c r="E64" s="38" t="s">
+        <v>519</v>
+      </c>
+      <c r="F64" s="38" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B65" s="38" t="s">
+        <v>520</v>
+      </c>
+      <c r="C65" s="38" t="s">
+        <v>521</v>
+      </c>
+      <c r="D65" s="38" t="s">
+        <v>522</v>
+      </c>
+      <c r="E65" s="38" t="s">
+        <v>523</v>
+      </c>
+      <c r="F65" s="38" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="B66" s="39"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="39"/>
+      <c r="F66" s="39"/>
+    </row>
+    <row r="67" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B67" s="38" t="s">
+        <v>525</v>
+      </c>
+      <c r="C67" s="38" t="s">
+        <v>526</v>
+      </c>
+      <c r="D67" s="38" t="s">
+        <v>527</v>
+      </c>
+      <c r="E67" s="38" t="s">
+        <v>528</v>
+      </c>
+      <c r="F67" s="38" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B68" s="38" t="s">
+        <v>530</v>
+      </c>
+      <c r="C68" s="38" t="s">
+        <v>531</v>
+      </c>
+      <c r="D68" s="38" t="s">
+        <v>532</v>
+      </c>
+      <c r="E68" s="38" t="s">
+        <v>533</v>
+      </c>
+      <c r="F68" s="38" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B69" s="38" t="s">
+        <v>535</v>
+      </c>
+      <c r="C69" s="38" t="s">
+        <v>536</v>
+      </c>
+      <c r="D69" s="38" t="s">
+        <v>537</v>
+      </c>
+      <c r="E69" s="38" t="s">
+        <v>538</v>
+      </c>
+      <c r="F69" s="38" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="B70" s="39"/>
+      <c r="C70" s="39"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="39"/>
+      <c r="F70" s="39"/>
+    </row>
+    <row r="71" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B71" s="38" t="s">
+        <v>540</v>
+      </c>
+      <c r="C71" s="38" t="s">
+        <v>541</v>
+      </c>
+      <c r="D71" s="38" t="s">
+        <v>542</v>
+      </c>
+      <c r="E71" s="38" t="s">
+        <v>543</v>
+      </c>
+      <c r="F71" s="38" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B72" s="38" t="s">
+        <v>545</v>
+      </c>
+      <c r="C72" s="38" t="s">
+        <v>546</v>
+      </c>
+      <c r="D72" s="38" t="s">
+        <v>547</v>
+      </c>
+      <c r="E72" s="38" t="s">
+        <v>548</v>
+      </c>
+      <c r="F72" s="38" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B73" s="38" t="s">
+        <v>550</v>
+      </c>
+      <c r="C73" s="38" t="s">
+        <v>551</v>
+      </c>
+      <c r="D73" s="38" t="s">
+        <v>552</v>
+      </c>
+      <c r="E73" s="38" t="s">
+        <v>553</v>
+      </c>
+      <c r="F73" s="38" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="B74" s="39"/>
+      <c r="C74" s="39"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="39"/>
+      <c r="F74" s="39"/>
+    </row>
+    <row r="75" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B75" s="38" t="s">
+        <v>555</v>
+      </c>
+      <c r="C75" s="38" t="s">
+        <v>556</v>
+      </c>
+      <c r="D75" s="38" t="s">
+        <v>557</v>
+      </c>
+      <c r="E75" s="38" t="s">
+        <v>558</v>
+      </c>
+      <c r="F75" s="38" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B76" s="38" t="s">
+        <v>560</v>
+      </c>
+      <c r="C76" s="38" t="s">
+        <v>561</v>
+      </c>
+      <c r="D76" s="38" t="s">
+        <v>562</v>
+      </c>
+      <c r="E76" s="38" t="s">
+        <v>563</v>
+      </c>
+      <c r="F76" s="38" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B77" s="38" t="s">
+        <v>565</v>
+      </c>
+      <c r="C77" s="38" t="s">
+        <v>566</v>
+      </c>
+      <c r="D77" s="38" t="s">
+        <v>567</v>
+      </c>
+      <c r="E77" s="38" t="s">
+        <v>568</v>
+      </c>
+      <c r="F77" s="38" t="s">
+        <v>569</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10207674-7DBA-2844-B5A0-7258E9467545}">
+  <dimension ref="A1:F77"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="33"/>
+      <c r="B1" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>570</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>571</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>285</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>572</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>573</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>574</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>575</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>577</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>578</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>579</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>580</v>
+      </c>
+      <c r="F4" s="42" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>581</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>582</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>583</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>584</v>
+      </c>
+      <c r="F5" s="42" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>586</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>587</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>589</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>590</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>592</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>593</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="42" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>595</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>596</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="42" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>598</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>599</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="42" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>601</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>602</v>
+      </c>
+      <c r="E13" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="42" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>604</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>605</v>
+      </c>
+      <c r="E15" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" s="42" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>607</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="42" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>609</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>610</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" s="42" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>612</v>
+      </c>
+      <c r="D19" s="42" t="s">
+        <v>613</v>
+      </c>
+      <c r="E19" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" s="42" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>615</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>616</v>
+      </c>
+      <c r="E20" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" s="42" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" s="42" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>619</v>
+      </c>
+      <c r="D23" s="42" t="s">
+        <v>620</v>
+      </c>
+      <c r="E23" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="F23" s="42" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>622</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>623</v>
+      </c>
+      <c r="E24" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="F24" s="42" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>625</v>
+      </c>
+      <c r="D25" s="42" t="s">
+        <v>626</v>
+      </c>
+      <c r="E25" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="F25" s="42" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="41" t="s">
+        <v>240</v>
+      </c>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="42" t="s">
+        <v>628</v>
+      </c>
+      <c r="C27" s="42" t="s">
+        <v>629</v>
+      </c>
+      <c r="D27" s="42" t="s">
+        <v>630</v>
+      </c>
+      <c r="E27" s="42" t="s">
+        <v>631</v>
+      </c>
+      <c r="F27" s="42" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="42" t="s">
+        <v>633</v>
+      </c>
+      <c r="C28" s="42" t="s">
+        <v>634</v>
+      </c>
+      <c r="D28" s="42" t="s">
+        <v>635</v>
+      </c>
+      <c r="E28" s="42" t="s">
+        <v>636</v>
+      </c>
+      <c r="F28" s="42" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="42" t="s">
+        <v>638</v>
+      </c>
+      <c r="C29" s="42" t="s">
+        <v>639</v>
+      </c>
+      <c r="D29" s="42" t="s">
+        <v>640</v>
+      </c>
+      <c r="E29" s="42" t="s">
+        <v>641</v>
+      </c>
+      <c r="F29" s="42" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" s="42" t="s">
+        <v>643</v>
+      </c>
+      <c r="D31" s="42" t="s">
+        <v>644</v>
+      </c>
+      <c r="E31" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="F31" s="42" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32" s="42" t="s">
+        <v>646</v>
+      </c>
+      <c r="D32" s="42" t="s">
+        <v>647</v>
+      </c>
+      <c r="E32" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="F32" s="42" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" s="42" t="s">
+        <v>649</v>
+      </c>
+      <c r="D33" s="42" t="s">
+        <v>650</v>
+      </c>
+      <c r="E33" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="F33" s="42" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="C35" s="42" t="s">
+        <v>652</v>
+      </c>
+      <c r="D35" s="42" t="s">
+        <v>653</v>
+      </c>
+      <c r="E35" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="F35" s="42" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="C36" s="42" t="s">
+        <v>655</v>
+      </c>
+      <c r="D36" s="42" t="s">
+        <v>656</v>
+      </c>
+      <c r="E36" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="F36" s="42" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="C37" s="42" t="s">
+        <v>658</v>
+      </c>
+      <c r="D37" s="42" t="s">
+        <v>659</v>
+      </c>
+      <c r="E37" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="F37" s="42" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="C39" s="42" t="s">
+        <v>661</v>
+      </c>
+      <c r="D39" s="42" t="s">
+        <v>662</v>
+      </c>
+      <c r="E39" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="F39" s="42" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="C40" s="42" t="s">
+        <v>664</v>
+      </c>
+      <c r="D40" s="42" t="s">
+        <v>665</v>
+      </c>
+      <c r="E40" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="F40" s="42" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="C41" s="42" t="s">
+        <v>667</v>
+      </c>
+      <c r="D41" s="42" t="s">
+        <v>668</v>
+      </c>
+      <c r="E41" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="F41" s="42" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="B42" s="33"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="C43" s="42" t="s">
+        <v>670</v>
+      </c>
+      <c r="D43" s="42" t="s">
+        <v>671</v>
+      </c>
+      <c r="E43" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="F43" s="42" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="C44" s="42" t="s">
+        <v>673</v>
+      </c>
+      <c r="D44" s="42" t="s">
+        <v>674</v>
+      </c>
+      <c r="E44" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="F44" s="42" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="C45" s="42" t="s">
+        <v>676</v>
+      </c>
+      <c r="D45" s="42" t="s">
+        <v>677</v>
+      </c>
+      <c r="E45" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="F45" s="42" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="B46" s="33"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" s="42" t="s">
+        <v>679</v>
+      </c>
+      <c r="C47" s="42" t="s">
+        <v>680</v>
+      </c>
+      <c r="D47" s="42" t="s">
+        <v>681</v>
+      </c>
+      <c r="E47" s="42" t="s">
+        <v>682</v>
+      </c>
+      <c r="F47" s="42" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" s="42" t="s">
+        <v>684</v>
+      </c>
+      <c r="C48" s="42" t="s">
+        <v>685</v>
+      </c>
+      <c r="D48" s="42" t="s">
+        <v>686</v>
+      </c>
+      <c r="E48" s="42" t="s">
+        <v>687</v>
+      </c>
+      <c r="F48" s="42" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" s="42" t="s">
+        <v>689</v>
+      </c>
+      <c r="C49" s="42" t="s">
+        <v>690</v>
+      </c>
+      <c r="D49" s="42" t="s">
+        <v>691</v>
+      </c>
+      <c r="E49" s="42" t="s">
+        <v>692</v>
+      </c>
+      <c r="F49" s="42" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="B50" s="33"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="33"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="C51" s="42" t="s">
+        <v>694</v>
+      </c>
+      <c r="D51" s="42" t="s">
+        <v>695</v>
+      </c>
+      <c r="E51" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="F51" s="42" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="C52" s="42" t="s">
+        <v>697</v>
+      </c>
+      <c r="D52" s="42" t="s">
+        <v>698</v>
+      </c>
+      <c r="E52" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="F52" s="42" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" s="42" t="s">
+        <v>178</v>
+      </c>
+      <c r="C53" s="42" t="s">
+        <v>700</v>
+      </c>
+      <c r="D53" s="42" t="s">
+        <v>701</v>
+      </c>
+      <c r="E53" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="F53" s="42" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="B54" s="33"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" s="42" t="s">
+        <v>183</v>
+      </c>
+      <c r="C55" s="42" t="s">
+        <v>703</v>
+      </c>
+      <c r="D55" s="42" t="s">
+        <v>704</v>
+      </c>
+      <c r="E55" s="42" t="s">
+        <v>186</v>
+      </c>
+      <c r="F55" s="42" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="B56" s="42" t="s">
+        <v>187</v>
+      </c>
+      <c r="C56" s="42" t="s">
+        <v>706</v>
+      </c>
+      <c r="D56" s="42" t="s">
+        <v>707</v>
+      </c>
+      <c r="E56" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="F56" s="42" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B57" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="C57" s="42" t="s">
+        <v>709</v>
+      </c>
+      <c r="D57" s="42" t="s">
+        <v>710</v>
+      </c>
+      <c r="E57" s="42" t="s">
+        <v>194</v>
+      </c>
+      <c r="F57" s="42" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="B58" s="33"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="33"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59" s="42" t="s">
+        <v>712</v>
+      </c>
+      <c r="C59" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="42" t="s">
+        <v>713</v>
+      </c>
+      <c r="E59" s="42" t="s">
+        <v>714</v>
+      </c>
+      <c r="F59" s="42" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="B60" s="42" t="s">
+        <v>716</v>
+      </c>
+      <c r="C60" s="42" t="s">
+        <v>717</v>
+      </c>
+      <c r="D60" s="42" t="s">
+        <v>718</v>
+      </c>
+      <c r="E60" s="42" t="s">
+        <v>719</v>
+      </c>
+      <c r="F60" s="42" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B61" s="42" t="s">
+        <v>721</v>
+      </c>
+      <c r="C61" s="42" t="s">
+        <v>722</v>
+      </c>
+      <c r="D61" s="42" t="s">
+        <v>723</v>
+      </c>
+      <c r="E61" s="42" t="s">
+        <v>724</v>
+      </c>
+      <c r="F61" s="42" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="B62" s="33"/>
+      <c r="C62" s="33"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="33"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="C63" s="42" t="s">
+        <v>726</v>
+      </c>
+      <c r="D63" s="42" t="s">
+        <v>727</v>
+      </c>
+      <c r="E63" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="F63" s="42" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="B64" s="42" t="s">
+        <v>200</v>
+      </c>
+      <c r="C64" s="42" t="s">
+        <v>729</v>
+      </c>
+      <c r="D64" s="42" t="s">
+        <v>730</v>
+      </c>
+      <c r="E64" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="F64" s="42" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B65" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="C65" s="42" t="s">
+        <v>731</v>
+      </c>
+      <c r="D65" s="42" t="s">
+        <v>732</v>
+      </c>
+      <c r="E65" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="F65" s="42" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="B66" s="33"/>
+      <c r="C66" s="33"/>
+      <c r="D66" s="33"/>
+      <c r="E66" s="33"/>
+      <c r="F66" s="33"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B67" s="42" t="s">
+        <v>734</v>
+      </c>
+      <c r="C67" s="42" t="s">
+        <v>735</v>
+      </c>
+      <c r="D67" s="42" t="s">
+        <v>736</v>
+      </c>
+      <c r="E67" s="42" t="s">
+        <v>737</v>
+      </c>
+      <c r="F67" s="42" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="B68" s="42" t="s">
+        <v>739</v>
+      </c>
+      <c r="C68" s="42" t="s">
+        <v>740</v>
+      </c>
+      <c r="D68" s="42" t="s">
+        <v>741</v>
+      </c>
+      <c r="E68" s="42" t="s">
+        <v>742</v>
+      </c>
+      <c r="F68" s="42" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B69" s="42" t="s">
+        <v>744</v>
+      </c>
+      <c r="C69" s="42" t="s">
+        <v>745</v>
+      </c>
+      <c r="D69" s="42" t="s">
+        <v>746</v>
+      </c>
+      <c r="E69" s="42" t="s">
+        <v>747</v>
+      </c>
+      <c r="F69" s="42" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="B70" s="33"/>
+      <c r="C70" s="33"/>
+      <c r="D70" s="33"/>
+      <c r="E70" s="33"/>
+      <c r="F70" s="33"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B71" s="42" t="s">
+        <v>749</v>
+      </c>
+      <c r="C71" s="42" t="s">
+        <v>750</v>
+      </c>
+      <c r="D71" s="42" t="s">
+        <v>751</v>
+      </c>
+      <c r="E71" s="42" t="s">
+        <v>752</v>
+      </c>
+      <c r="F71" s="42" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="B72" s="42" t="s">
+        <v>754</v>
+      </c>
+      <c r="C72" s="42" t="s">
+        <v>755</v>
+      </c>
+      <c r="D72" s="42" t="s">
+        <v>756</v>
+      </c>
+      <c r="E72" s="42" t="s">
+        <v>757</v>
+      </c>
+      <c r="F72" s="42" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B73" s="42" t="s">
+        <v>759</v>
+      </c>
+      <c r="C73" s="42" t="s">
+        <v>760</v>
+      </c>
+      <c r="D73" s="42" t="s">
+        <v>761</v>
+      </c>
+      <c r="E73" s="42" t="s">
+        <v>762</v>
+      </c>
+      <c r="F73" s="42" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="B74" s="33"/>
+      <c r="C74" s="33"/>
+      <c r="D74" s="33"/>
+      <c r="E74" s="33"/>
+      <c r="F74" s="33"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B75" s="42" t="s">
+        <v>209</v>
+      </c>
+      <c r="C75" s="42" t="s">
+        <v>764</v>
+      </c>
+      <c r="D75" s="42" t="s">
+        <v>765</v>
+      </c>
+      <c r="E75" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="F75" s="42" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="B76" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="C76" s="42" t="s">
+        <v>767</v>
+      </c>
+      <c r="D76" s="42" t="s">
+        <v>768</v>
+      </c>
+      <c r="E76" s="42" t="s">
+        <v>216</v>
+      </c>
+      <c r="F76" s="42" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B77" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="C77" s="42" t="s">
+        <v>770</v>
+      </c>
+      <c r="D77" s="42" t="s">
+        <v>771</v>
+      </c>
+      <c r="E77" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="F77" s="42" t="s">
+        <v>772</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF355B99-EF8B-074C-BE55-78BB73FEF133}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="42" t="s">
+        <v>773</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>774</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>775</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="42" t="s">
+        <v>777</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>778</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>779</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="42" t="s">
+        <v>781</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>782</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>783</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="42" t="s">
+        <v>785</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>786</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>787</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="42" t="s">
+        <v>789</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>790</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="42" t="s">
+        <v>792</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>793</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>794</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="41" t="s">
+        <v>796</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>797</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>798</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="41" t="s">
+        <v>800</v>
+      </c>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="42" t="s">
+        <v>801</v>
+      </c>
+      <c r="B19" s="42" t="s">
+        <v>802</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="42" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="42" t="s">
+        <v>803</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>804</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>805</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="42" t="s">
+        <v>807</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>808</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>809</v>
+      </c>
+      <c r="D21" s="42" t="s">
+        <v>810</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Figures/summaries_csvs/summary_stats.xlsx
+++ b/Figures/summaries_csvs/summary_stats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gift/Documents/Rprojects/project-harvest/Figures/summaries_csvs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kunalpalawat/Documents/GitHub/project-harvest-fork/Figures/summaries_csvs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A168D2-E3DE-1B4C-A06B-F3AA4E00DAAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38762FF1-CD74-E247-AC7D-3D14EAFC7C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16200" activeTab="7" xr2:uid="{72327930-6813-6348-93C5-5B78A6BEE9FB}"/>
+    <workbookView xWindow="3660" yWindow="500" windowWidth="25140" windowHeight="16200" activeTab="8" xr2:uid="{72327930-6813-6348-93C5-5B78A6BEE9FB}"/>
   </bookViews>
   <sheets>
     <sheet name="pli" sheetId="1" r:id="rId1"/>
@@ -21,9 +21,12 @@
     <sheet name="Individual Analytes" sheetId="6" r:id="rId6"/>
     <sheet name="Contamination Factor" sheetId="7" r:id="rId7"/>
     <sheet name="Pollution Load Index" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">detections!$B$3:$D$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Individual Analytes'!$A$1:$F$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Sheet1!$A$1:$C$39</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="811">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="814">
   <si>
     <t>Community</t>
   </si>
@@ -2479,6 +2482,15 @@
   </si>
   <si>
     <t>1.86 (2.33)</t>
+  </si>
+  <si>
+    <t>Gmean</t>
+  </si>
+  <si>
+    <t>gmean</t>
+  </si>
+  <si>
+    <t>concentrations</t>
   </si>
 </sst>
 </file>
@@ -2777,15 +2789,6 @@
     <xf numFmtId="10" fontId="5" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2813,6 +2816,15 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3157,9 +3169,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3197,7 +3209,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3303,7 +3315,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3445,7 +3457,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3804,7 +3816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEEA46E9-69F0-3B4F-B208-B43EA7B90D7A}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D6" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -4599,16 +4611,16 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="42" t="s">
         <v>228</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
     </row>
     <row r="4" spans="1:19" ht="120" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B4" s="20" t="s">
@@ -4643,7 +4655,7 @@
       <c r="O4" s="12"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="41" t="s">
         <v>239</v>
       </c>
       <c r="C5" s="13"/>
@@ -4655,7 +4667,7 @@
       <c r="S5" s="14"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B6" s="30"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="11" t="s">
         <v>236</v>
       </c>
@@ -4681,7 +4693,7 @@
       <c r="S6" s="16"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B7" s="30"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="11" t="s">
         <v>13</v>
       </c>
@@ -4710,7 +4722,7 @@
       <c r="S7" s="16"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B8" s="30"/>
+      <c r="B8" s="40"/>
       <c r="C8" s="11" t="s">
         <v>22</v>
       </c>
@@ -4739,7 +4751,7 @@
       <c r="S8" s="16"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B9" s="30"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="11" t="s">
         <v>31</v>
       </c>
@@ -4768,7 +4780,7 @@
       <c r="S9" s="16"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B10" s="30"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="11" t="s">
         <v>237</v>
       </c>
@@ -4797,7 +4809,7 @@
       <c r="S10" s="16"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="40" t="s">
         <v>50</v>
       </c>
       <c r="C11" s="13"/>
@@ -4814,7 +4826,7 @@
       <c r="S11" s="14"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B12" s="30"/>
+      <c r="B12" s="40"/>
       <c r="C12" s="11" t="s">
         <v>236</v>
       </c>
@@ -4843,7 +4855,7 @@
       <c r="S12" s="16"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B13" s="30"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="11" t="s">
         <v>13</v>
       </c>
@@ -4872,7 +4884,7 @@
       <c r="S13" s="16"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B14" s="30"/>
+      <c r="B14" s="40"/>
       <c r="C14" s="11" t="s">
         <v>22</v>
       </c>
@@ -4901,7 +4913,7 @@
       <c r="S14" s="16"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B15" s="30"/>
+      <c r="B15" s="40"/>
       <c r="C15" s="11" t="s">
         <v>31</v>
       </c>
@@ -4930,7 +4942,7 @@
       <c r="S15" s="16"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B16" s="30"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="11" t="s">
         <v>237</v>
       </c>
@@ -4959,7 +4971,7 @@
       <c r="S16" s="16"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="40" t="s">
         <v>65</v>
       </c>
       <c r="C17" s="13"/>
@@ -4971,7 +4983,7 @@
       <c r="I17" s="10"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="30"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="11" t="s">
         <v>236</v>
       </c>
@@ -4995,7 +5007,7 @@
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B19" s="30"/>
+      <c r="B19" s="40"/>
       <c r="C19" s="11" t="s">
         <v>13</v>
       </c>
@@ -5019,7 +5031,7 @@
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B20" s="30"/>
+      <c r="B20" s="40"/>
       <c r="C20" s="11" t="s">
         <v>22</v>
       </c>
@@ -5043,7 +5055,7 @@
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B21" s="30"/>
+      <c r="B21" s="40"/>
       <c r="C21" s="11" t="s">
         <v>31</v>
       </c>
@@ -5067,7 +5079,7 @@
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B22" s="30"/>
+      <c r="B22" s="40"/>
       <c r="C22" s="11" t="s">
         <v>237</v>
       </c>
@@ -5091,7 +5103,7 @@
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="40" t="s">
         <v>78</v>
       </c>
       <c r="E23" s="10"/>
@@ -5101,7 +5113,7 @@
       <c r="I23" s="10"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B24" s="30"/>
+      <c r="B24" s="40"/>
       <c r="C24" s="11" t="s">
         <v>236</v>
       </c>
@@ -5125,7 +5137,7 @@
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B25" s="30"/>
+      <c r="B25" s="40"/>
       <c r="C25" s="11" t="s">
         <v>13</v>
       </c>
@@ -5149,7 +5161,7 @@
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B26" s="30"/>
+      <c r="B26" s="40"/>
       <c r="C26" s="11" t="s">
         <v>22</v>
       </c>
@@ -5173,7 +5185,7 @@
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B27" s="30"/>
+      <c r="B27" s="40"/>
       <c r="C27" s="11" t="s">
         <v>31</v>
       </c>
@@ -5197,7 +5209,7 @@
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B28" s="30"/>
+      <c r="B28" s="40"/>
       <c r="C28" s="11" t="s">
         <v>237</v>
       </c>
@@ -5221,7 +5233,7 @@
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="40" t="s">
         <v>91</v>
       </c>
       <c r="E29" s="10"/>
@@ -5231,7 +5243,7 @@
       <c r="I29" s="10"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B30" s="30"/>
+      <c r="B30" s="40"/>
       <c r="C30" s="11" t="s">
         <v>236</v>
       </c>
@@ -5255,7 +5267,7 @@
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B31" s="30"/>
+      <c r="B31" s="40"/>
       <c r="C31" s="11" t="s">
         <v>13</v>
       </c>
@@ -5279,7 +5291,7 @@
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B32" s="30"/>
+      <c r="B32" s="40"/>
       <c r="C32" s="11" t="s">
         <v>22</v>
       </c>
@@ -5303,7 +5315,7 @@
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B33" s="30"/>
+      <c r="B33" s="40"/>
       <c r="C33" s="11" t="s">
         <v>31</v>
       </c>
@@ -5327,7 +5339,7 @@
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B34" s="30"/>
+      <c r="B34" s="40"/>
       <c r="C34" s="11" t="s">
         <v>237</v>
       </c>
@@ -5351,7 +5363,7 @@
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="40" t="s">
         <v>104</v>
       </c>
       <c r="E35" s="10"/>
@@ -5361,7 +5373,7 @@
       <c r="I35" s="10"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B36" s="30"/>
+      <c r="B36" s="40"/>
       <c r="C36" s="11" t="s">
         <v>236</v>
       </c>
@@ -5385,7 +5397,7 @@
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B37" s="30"/>
+      <c r="B37" s="40"/>
       <c r="C37" s="11" t="s">
         <v>13</v>
       </c>
@@ -5409,7 +5421,7 @@
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B38" s="30"/>
+      <c r="B38" s="40"/>
       <c r="C38" s="11" t="s">
         <v>22</v>
       </c>
@@ -5433,7 +5445,7 @@
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B39" s="30"/>
+      <c r="B39" s="40"/>
       <c r="C39" s="11" t="s">
         <v>31</v>
       </c>
@@ -5457,7 +5469,7 @@
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B40" s="30"/>
+      <c r="B40" s="40"/>
       <c r="C40" s="11" t="s">
         <v>237</v>
       </c>
@@ -5481,7 +5493,7 @@
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B41" s="30" t="s">
+      <c r="B41" s="40" t="s">
         <v>240</v>
       </c>
       <c r="E41" s="10"/>
@@ -5491,7 +5503,7 @@
       <c r="I41" s="10"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B42" s="30"/>
+      <c r="B42" s="40"/>
       <c r="C42" s="11" t="s">
         <v>236</v>
       </c>
@@ -5515,7 +5527,7 @@
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B43" s="30"/>
+      <c r="B43" s="40"/>
       <c r="C43" s="11" t="s">
         <v>13</v>
       </c>
@@ -5539,7 +5551,7 @@
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B44" s="30"/>
+      <c r="B44" s="40"/>
       <c r="C44" s="11" t="s">
         <v>22</v>
       </c>
@@ -5563,7 +5575,7 @@
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B45" s="30"/>
+      <c r="B45" s="40"/>
       <c r="C45" s="11" t="s">
         <v>31</v>
       </c>
@@ -5587,7 +5599,7 @@
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B46" s="30"/>
+      <c r="B46" s="40"/>
       <c r="C46" s="11" t="s">
         <v>237</v>
       </c>
@@ -5611,7 +5623,7 @@
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B47" s="30" t="s">
+      <c r="B47" s="40" t="s">
         <v>121</v>
       </c>
       <c r="E47" s="10"/>
@@ -5621,7 +5633,7 @@
       <c r="I47" s="10"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B48" s="30"/>
+      <c r="B48" s="40"/>
       <c r="C48" s="11" t="s">
         <v>236</v>
       </c>
@@ -5645,7 +5657,7 @@
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B49" s="30"/>
+      <c r="B49" s="40"/>
       <c r="C49" s="11" t="s">
         <v>13</v>
       </c>
@@ -5669,7 +5681,7 @@
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B50" s="30"/>
+      <c r="B50" s="40"/>
       <c r="C50" s="11" t="s">
         <v>22</v>
       </c>
@@ -5693,7 +5705,7 @@
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B51" s="30"/>
+      <c r="B51" s="40"/>
       <c r="C51" s="11" t="s">
         <v>31</v>
       </c>
@@ -5717,7 +5729,7 @@
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B52" s="30"/>
+      <c r="B52" s="40"/>
       <c r="C52" s="11" t="s">
         <v>237</v>
       </c>
@@ -5741,7 +5753,7 @@
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B53" s="30" t="s">
+      <c r="B53" s="40" t="s">
         <v>130</v>
       </c>
       <c r="E53" s="10"/>
@@ -5751,7 +5763,7 @@
       <c r="I53" s="10"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B54" s="30"/>
+      <c r="B54" s="40"/>
       <c r="C54" s="11" t="s">
         <v>236</v>
       </c>
@@ -5775,7 +5787,7 @@
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B55" s="30"/>
+      <c r="B55" s="40"/>
       <c r="C55" s="11" t="s">
         <v>13</v>
       </c>
@@ -5799,7 +5811,7 @@
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B56" s="30"/>
+      <c r="B56" s="40"/>
       <c r="C56" s="11" t="s">
         <v>22</v>
       </c>
@@ -5823,7 +5835,7 @@
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B57" s="30"/>
+      <c r="B57" s="40"/>
       <c r="C57" s="11" t="s">
         <v>31</v>
       </c>
@@ -5847,7 +5859,7 @@
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B58" s="30"/>
+      <c r="B58" s="40"/>
       <c r="C58" s="11" t="s">
         <v>237</v>
       </c>
@@ -5871,7 +5883,7 @@
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B59" s="30" t="s">
+      <c r="B59" s="40" t="s">
         <v>143</v>
       </c>
       <c r="E59" s="10"/>
@@ -5881,7 +5893,7 @@
       <c r="I59" s="10"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B60" s="30"/>
+      <c r="B60" s="40"/>
       <c r="C60" s="11" t="s">
         <v>236</v>
       </c>
@@ -5905,7 +5917,7 @@
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B61" s="30"/>
+      <c r="B61" s="40"/>
       <c r="C61" s="11" t="s">
         <v>13</v>
       </c>
@@ -5929,7 +5941,7 @@
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B62" s="30"/>
+      <c r="B62" s="40"/>
       <c r="C62" s="11" t="s">
         <v>22</v>
       </c>
@@ -5953,7 +5965,7 @@
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B63" s="30"/>
+      <c r="B63" s="40"/>
       <c r="C63" s="11" t="s">
         <v>31</v>
       </c>
@@ -5977,7 +5989,7 @@
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B64" s="30"/>
+      <c r="B64" s="40"/>
       <c r="C64" s="11" t="s">
         <v>237</v>
       </c>
@@ -6001,7 +6013,7 @@
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B65" s="30" t="s">
+      <c r="B65" s="40" t="s">
         <v>156</v>
       </c>
       <c r="E65" s="10"/>
@@ -6011,7 +6023,7 @@
       <c r="I65" s="10"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B66" s="30"/>
+      <c r="B66" s="40"/>
       <c r="C66" s="11" t="s">
         <v>236</v>
       </c>
@@ -6035,7 +6047,7 @@
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B67" s="30"/>
+      <c r="B67" s="40"/>
       <c r="C67" s="11" t="s">
         <v>13</v>
       </c>
@@ -6059,7 +6071,7 @@
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B68" s="30"/>
+      <c r="B68" s="40"/>
       <c r="C68" s="11" t="s">
         <v>22</v>
       </c>
@@ -6083,7 +6095,7 @@
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B69" s="30"/>
+      <c r="B69" s="40"/>
       <c r="C69" s="11" t="s">
         <v>31</v>
       </c>
@@ -6107,7 +6119,7 @@
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B70" s="30"/>
+      <c r="B70" s="40"/>
       <c r="C70" s="11" t="s">
         <v>237</v>
       </c>
@@ -6131,7 +6143,7 @@
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B71" s="30" t="s">
+      <c r="B71" s="40" t="s">
         <v>241</v>
       </c>
       <c r="E71" s="10"/>
@@ -6141,7 +6153,7 @@
       <c r="I71" s="10"/>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B72" s="30"/>
+      <c r="B72" s="40"/>
       <c r="C72" s="11" t="s">
         <v>236</v>
       </c>
@@ -6165,7 +6177,7 @@
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B73" s="30"/>
+      <c r="B73" s="40"/>
       <c r="C73" s="11" t="s">
         <v>13</v>
       </c>
@@ -6189,7 +6201,7 @@
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B74" s="30"/>
+      <c r="B74" s="40"/>
       <c r="C74" s="11" t="s">
         <v>22</v>
       </c>
@@ -6213,7 +6225,7 @@
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B75" s="30"/>
+      <c r="B75" s="40"/>
       <c r="C75" s="11" t="s">
         <v>31</v>
       </c>
@@ -6237,7 +6249,7 @@
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B76" s="30"/>
+      <c r="B76" s="40"/>
       <c r="C76" s="11" t="s">
         <v>237</v>
       </c>
@@ -6261,7 +6273,7 @@
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B77" s="30" t="s">
+      <c r="B77" s="40" t="s">
         <v>169</v>
       </c>
       <c r="E77" s="10"/>
@@ -6271,7 +6283,7 @@
       <c r="I77" s="10"/>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B78" s="30"/>
+      <c r="B78" s="40"/>
       <c r="C78" s="11" t="s">
         <v>236</v>
       </c>
@@ -6295,7 +6307,7 @@
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B79" s="30"/>
+      <c r="B79" s="40"/>
       <c r="C79" s="11" t="s">
         <v>13</v>
       </c>
@@ -6319,7 +6331,7 @@
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B80" s="30"/>
+      <c r="B80" s="40"/>
       <c r="C80" s="11" t="s">
         <v>22</v>
       </c>
@@ -6343,7 +6355,7 @@
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B81" s="30"/>
+      <c r="B81" s="40"/>
       <c r="C81" s="11" t="s">
         <v>31</v>
       </c>
@@ -6367,7 +6379,7 @@
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B82" s="30"/>
+      <c r="B82" s="40"/>
       <c r="C82" s="11" t="s">
         <v>237</v>
       </c>
@@ -6391,7 +6403,7 @@
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B83" s="30" t="s">
+      <c r="B83" s="40" t="s">
         <v>182</v>
       </c>
       <c r="C83" s="13"/>
@@ -6403,7 +6415,7 @@
       <c r="I83" s="10"/>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B84" s="30"/>
+      <c r="B84" s="40"/>
       <c r="C84" s="11" t="s">
         <v>236</v>
       </c>
@@ -6427,7 +6439,7 @@
       </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B85" s="30"/>
+      <c r="B85" s="40"/>
       <c r="C85" s="11" t="s">
         <v>13</v>
       </c>
@@ -6451,7 +6463,7 @@
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B86" s="30"/>
+      <c r="B86" s="40"/>
       <c r="C86" s="11" t="s">
         <v>22</v>
       </c>
@@ -6475,7 +6487,7 @@
       </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B87" s="30"/>
+      <c r="B87" s="40"/>
       <c r="C87" s="11" t="s">
         <v>31</v>
       </c>
@@ -6499,7 +6511,7 @@
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B88" s="30"/>
+      <c r="B88" s="40"/>
       <c r="C88" s="11" t="s">
         <v>237</v>
       </c>
@@ -6523,7 +6535,7 @@
       </c>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B89" s="30" t="s">
+      <c r="B89" s="40" t="s">
         <v>242</v>
       </c>
       <c r="E89" s="10"/>
@@ -6533,7 +6545,7 @@
       <c r="I89" s="10"/>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B90" s="30"/>
+      <c r="B90" s="40"/>
       <c r="C90" s="11" t="s">
         <v>236</v>
       </c>
@@ -6557,7 +6569,7 @@
       </c>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B91" s="30"/>
+      <c r="B91" s="40"/>
       <c r="C91" s="11" t="s">
         <v>13</v>
       </c>
@@ -6581,7 +6593,7 @@
       </c>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B92" s="30"/>
+      <c r="B92" s="40"/>
       <c r="C92" s="11" t="s">
         <v>22</v>
       </c>
@@ -6605,7 +6617,7 @@
       </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B93" s="30"/>
+      <c r="B93" s="40"/>
       <c r="C93" s="11" t="s">
         <v>31</v>
       </c>
@@ -6629,7 +6641,7 @@
       </c>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B94" s="30"/>
+      <c r="B94" s="40"/>
       <c r="C94" s="11" t="s">
         <v>237</v>
       </c>
@@ -6653,7 +6665,7 @@
       </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B95" s="30" t="s">
+      <c r="B95" s="40" t="s">
         <v>195</v>
       </c>
       <c r="E95" s="10"/>
@@ -6663,7 +6675,7 @@
       <c r="I95" s="10"/>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B96" s="30"/>
+      <c r="B96" s="40"/>
       <c r="C96" s="11" t="s">
         <v>236</v>
       </c>
@@ -6687,7 +6699,7 @@
       </c>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B97" s="30"/>
+      <c r="B97" s="40"/>
       <c r="C97" s="11" t="s">
         <v>13</v>
       </c>
@@ -6711,7 +6723,7 @@
       </c>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B98" s="30"/>
+      <c r="B98" s="40"/>
       <c r="C98" s="11" t="s">
         <v>22</v>
       </c>
@@ -6735,7 +6747,7 @@
       </c>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B99" s="30"/>
+      <c r="B99" s="40"/>
       <c r="C99" s="11" t="s">
         <v>31</v>
       </c>
@@ -6759,7 +6771,7 @@
       </c>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B100" s="30"/>
+      <c r="B100" s="40"/>
       <c r="C100" s="11" t="s">
         <v>237</v>
       </c>
@@ -6783,7 +6795,7 @@
       </c>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B101" s="30" t="s">
+      <c r="B101" s="40" t="s">
         <v>243</v>
       </c>
       <c r="E101" s="10"/>
@@ -6793,7 +6805,7 @@
       <c r="I101" s="10"/>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B102" s="30"/>
+      <c r="B102" s="40"/>
       <c r="C102" s="11" t="s">
         <v>236</v>
       </c>
@@ -6817,7 +6829,7 @@
       </c>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B103" s="30"/>
+      <c r="B103" s="40"/>
       <c r="C103" s="11" t="s">
         <v>13</v>
       </c>
@@ -6841,7 +6853,7 @@
       </c>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B104" s="30"/>
+      <c r="B104" s="40"/>
       <c r="C104" s="11" t="s">
         <v>22</v>
       </c>
@@ -6865,7 +6877,7 @@
       </c>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B105" s="30"/>
+      <c r="B105" s="40"/>
       <c r="C105" s="11" t="s">
         <v>31</v>
       </c>
@@ -6889,7 +6901,7 @@
       </c>
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B106" s="30"/>
+      <c r="B106" s="40"/>
       <c r="C106" s="11" t="s">
         <v>237</v>
       </c>
@@ -6913,7 +6925,7 @@
       </c>
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B107" s="30" t="s">
+      <c r="B107" s="40" t="s">
         <v>208</v>
       </c>
       <c r="E107" s="10"/>
@@ -6923,7 +6935,7 @@
       <c r="I107" s="10"/>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B108" s="30"/>
+      <c r="B108" s="40"/>
       <c r="C108" s="11" t="s">
         <v>236</v>
       </c>
@@ -6947,7 +6959,7 @@
       </c>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B109" s="30"/>
+      <c r="B109" s="40"/>
       <c r="C109" s="11" t="s">
         <v>13</v>
       </c>
@@ -6971,7 +6983,7 @@
       </c>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B110" s="30"/>
+      <c r="B110" s="40"/>
       <c r="C110" s="11" t="s">
         <v>22</v>
       </c>
@@ -6995,7 +7007,7 @@
       </c>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B111" s="30"/>
+      <c r="B111" s="40"/>
       <c r="C111" s="11" t="s">
         <v>31</v>
       </c>
@@ -7019,7 +7031,7 @@
       </c>
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B112" s="30"/>
+      <c r="B112" s="40"/>
       <c r="C112" s="11" t="s">
         <v>237</v>
       </c>
@@ -7044,6 +7056,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B107:B112"/>
+    <mergeCell ref="B71:B76"/>
+    <mergeCell ref="B77:B82"/>
+    <mergeCell ref="B83:B88"/>
+    <mergeCell ref="B89:B94"/>
+    <mergeCell ref="B95:B100"/>
+    <mergeCell ref="B101:B106"/>
     <mergeCell ref="B65:B70"/>
     <mergeCell ref="B5:B10"/>
     <mergeCell ref="B11:B16"/>
@@ -7056,13 +7075,6 @@
     <mergeCell ref="B47:B52"/>
     <mergeCell ref="B53:B58"/>
     <mergeCell ref="B59:B64"/>
-    <mergeCell ref="B107:B112"/>
-    <mergeCell ref="B71:B76"/>
-    <mergeCell ref="B77:B82"/>
-    <mergeCell ref="B83:B88"/>
-    <mergeCell ref="B89:B94"/>
-    <mergeCell ref="B95:B100"/>
-    <mergeCell ref="B101:B106"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7086,11 +7098,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="42" t="s">
         <v>246</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
     </row>
     <row r="3" spans="2:4" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B3" s="21" t="s">
@@ -7327,10 +7339,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB37F5ED-9F41-AA4C-85D6-C28D1DCEB3A4}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="A2" sqref="A2:A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7341,1355 +7354,1381 @@
     <col min="6" max="6" width="16.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="40" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34"/>
-      <c r="B1" s="35" t="s">
+    <row r="1" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="31"/>
+      <c r="B1" s="32" t="s">
         <v>282</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="32" t="s">
         <v>283</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="32" t="s">
         <v>284</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="32" t="s">
         <v>285</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="32" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="33" t="s">
         <v>239</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-    </row>
-    <row r="3" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+    </row>
+    <row r="3" spans="1:6" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="35" t="s">
         <v>287</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="35" t="s">
         <v>288</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="35" t="s">
         <v>289</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="35" t="s">
         <v>290</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="35" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+    <row r="4" spans="1:6" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="35" t="s">
         <v>292</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="35" t="s">
         <v>293</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="35" t="s">
         <v>294</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="35" t="s">
         <v>295</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="35" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="35" t="s">
         <v>296</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="35" t="s">
         <v>297</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="35" t="s">
         <v>298</v>
       </c>
-      <c r="E5" s="38" t="s">
+      <c r="E5" s="35" t="s">
         <v>299</v>
       </c>
-      <c r="F5" s="38" t="s">
+      <c r="F5" s="35" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-    </row>
-    <row r="7" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+    </row>
+    <row r="7" spans="1:6" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="35" t="s">
         <v>301</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="35" t="s">
         <v>302</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="35" t="s">
         <v>303</v>
       </c>
-      <c r="E7" s="38" t="s">
+      <c r="E7" s="35" t="s">
         <v>304</v>
       </c>
-      <c r="F7" s="38" t="s">
+      <c r="F7" s="35" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
+    <row r="8" spans="1:6" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="35" t="s">
         <v>306</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="35" t="s">
         <v>307</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="35" t="s">
         <v>308</v>
       </c>
-      <c r="E8" s="38" t="s">
+      <c r="E8" s="35" t="s">
         <v>309</v>
       </c>
-      <c r="F8" s="38" t="s">
+      <c r="F8" s="35" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="35" t="s">
         <v>311</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="35" t="s">
         <v>312</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="35" t="s">
         <v>313</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="35" t="s">
         <v>314</v>
       </c>
-      <c r="F9" s="38" t="s">
+      <c r="F9" s="35" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-    </row>
-    <row r="11" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+    </row>
+    <row r="11" spans="1:6" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="35" t="s">
         <v>316</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="35" t="s">
         <v>317</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="35" t="s">
         <v>318</v>
       </c>
-      <c r="E11" s="38" t="s">
+      <c r="E11" s="35" t="s">
         <v>319</v>
       </c>
-      <c r="F11" s="38" t="s">
+      <c r="F11" s="35" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
+    <row r="12" spans="1:6" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="35" t="s">
         <v>321</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="D12" s="38" t="s">
+      <c r="D12" s="35" t="s">
         <v>323</v>
       </c>
-      <c r="E12" s="38" t="s">
+      <c r="E12" s="35" t="s">
         <v>324</v>
       </c>
-      <c r="F12" s="38" t="s">
+      <c r="F12" s="35" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="35" t="s">
         <v>326</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="35" t="s">
         <v>327</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="35" t="s">
         <v>328</v>
       </c>
-      <c r="E13" s="38" t="s">
+      <c r="E13" s="35" t="s">
         <v>329</v>
       </c>
-      <c r="F13" s="38" t="s">
+      <c r="F13" s="35" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-    </row>
-    <row r="15" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+    </row>
+    <row r="15" spans="1:6" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="35" t="s">
         <v>331</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="35" t="s">
         <v>332</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="35" t="s">
         <v>333</v>
       </c>
-      <c r="E15" s="38" t="s">
+      <c r="E15" s="35" t="s">
         <v>334</v>
       </c>
-      <c r="F15" s="38" t="s">
+      <c r="F15" s="35" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="s">
+    <row r="16" spans="1:6" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="35" t="s">
         <v>336</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="35" t="s">
         <v>337</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="35" t="s">
         <v>338</v>
       </c>
-      <c r="E16" s="38" t="s">
+      <c r="E16" s="35" t="s">
         <v>339</v>
       </c>
-      <c r="F16" s="38" t="s">
+      <c r="F16" s="35" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="35" t="s">
         <v>341</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="35" t="s">
         <v>342</v>
       </c>
-      <c r="D17" s="38" t="s">
+      <c r="D17" s="35" t="s">
         <v>343</v>
       </c>
-      <c r="E17" s="38" t="s">
+      <c r="E17" s="35" t="s">
         <v>344</v>
       </c>
-      <c r="F17" s="38" t="s">
+      <c r="F17" s="35" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-    </row>
-    <row r="19" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="36" t="s">
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+    </row>
+    <row r="19" spans="1:6" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="35" t="s">
         <v>346</v>
       </c>
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="35" t="s">
         <v>347</v>
       </c>
-      <c r="D19" s="38" t="s">
+      <c r="D19" s="35" t="s">
         <v>348</v>
       </c>
-      <c r="E19" s="38" t="s">
+      <c r="E19" s="35" t="s">
         <v>349</v>
       </c>
-      <c r="F19" s="38" t="s">
+      <c r="F19" s="35" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="36" t="s">
+    <row r="20" spans="1:6" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="35" t="s">
         <v>351</v>
       </c>
-      <c r="C20" s="38" t="s">
+      <c r="C20" s="35" t="s">
         <v>352</v>
       </c>
-      <c r="D20" s="38" t="s">
+      <c r="D20" s="35" t="s">
         <v>353</v>
       </c>
-      <c r="E20" s="38" t="s">
+      <c r="E20" s="35" t="s">
         <v>354</v>
       </c>
-      <c r="F20" s="38" t="s">
+      <c r="F20" s="35" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="36" t="s">
+      <c r="A21" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="35" t="s">
         <v>356</v>
       </c>
-      <c r="C21" s="38" t="s">
+      <c r="C21" s="35" t="s">
         <v>357</v>
       </c>
-      <c r="D21" s="38" t="s">
+      <c r="D21" s="35" t="s">
         <v>358</v>
       </c>
-      <c r="E21" s="38" t="s">
+      <c r="E21" s="35" t="s">
         <v>359</v>
       </c>
-      <c r="F21" s="38" t="s">
+      <c r="F21" s="35" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-    </row>
-    <row r="23" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="36" t="s">
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+    </row>
+    <row r="23" spans="1:6" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="35" t="s">
         <v>361</v>
       </c>
-      <c r="C23" s="38" t="s">
+      <c r="C23" s="35" t="s">
         <v>362</v>
       </c>
-      <c r="D23" s="38" t="s">
+      <c r="D23" s="35" t="s">
         <v>363</v>
       </c>
-      <c r="E23" s="38" t="s">
+      <c r="E23" s="35" t="s">
         <v>364</v>
       </c>
-      <c r="F23" s="38" t="s">
+      <c r="F23" s="35" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="36" t="s">
+    <row r="24" spans="1:6" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="35" t="s">
         <v>366</v>
       </c>
-      <c r="C24" s="38" t="s">
+      <c r="C24" s="35" t="s">
         <v>367</v>
       </c>
-      <c r="D24" s="38" t="s">
+      <c r="D24" s="35" t="s">
         <v>368</v>
       </c>
-      <c r="E24" s="38" t="s">
+      <c r="E24" s="35" t="s">
         <v>369</v>
       </c>
-      <c r="F24" s="38" t="s">
+      <c r="F24" s="35" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="35" t="s">
         <v>371</v>
       </c>
-      <c r="C25" s="38" t="s">
+      <c r="C25" s="35" t="s">
         <v>372</v>
       </c>
-      <c r="D25" s="38" t="s">
+      <c r="D25" s="35" t="s">
         <v>373</v>
       </c>
-      <c r="E25" s="38" t="s">
+      <c r="E25" s="35" t="s">
         <v>374</v>
       </c>
-      <c r="F25" s="38" t="s">
+      <c r="F25" s="35" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="37" t="s">
         <v>240</v>
       </c>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-    </row>
-    <row r="27" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="36" t="s">
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+    </row>
+    <row r="27" spans="1:6" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="38" t="s">
+      <c r="B27" s="35" t="s">
         <v>376</v>
       </c>
-      <c r="C27" s="38" t="s">
+      <c r="C27" s="35" t="s">
         <v>377</v>
       </c>
-      <c r="D27" s="38" t="s">
+      <c r="D27" s="35" t="s">
         <v>378</v>
       </c>
-      <c r="E27" s="38" t="s">
+      <c r="E27" s="35" t="s">
         <v>379</v>
       </c>
-      <c r="F27" s="38" t="s">
+      <c r="F27" s="35" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="36" t="s">
+    <row r="28" spans="1:6" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="38" t="s">
+      <c r="B28" s="35" t="s">
         <v>381</v>
       </c>
-      <c r="C28" s="38" t="s">
+      <c r="C28" s="35" t="s">
         <v>382</v>
       </c>
-      <c r="D28" s="38" t="s">
+      <c r="D28" s="35" t="s">
         <v>383</v>
       </c>
-      <c r="E28" s="38" t="s">
+      <c r="E28" s="35" t="s">
         <v>384</v>
       </c>
-      <c r="F28" s="38" t="s">
+      <c r="F28" s="35" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B29" s="38" t="s">
+      <c r="B29" s="35" t="s">
         <v>386</v>
       </c>
-      <c r="C29" s="38" t="s">
+      <c r="C29" s="35" t="s">
         <v>387</v>
       </c>
-      <c r="D29" s="38" t="s">
+      <c r="D29" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="E29" s="38" t="s">
+      <c r="E29" s="35" t="s">
         <v>389</v>
       </c>
-      <c r="F29" s="38" t="s">
+      <c r="F29" s="35" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="36" t="s">
+      <c r="A30" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-    </row>
-    <row r="31" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="36" t="s">
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+    </row>
+    <row r="31" spans="1:6" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="38" t="s">
+      <c r="B31" s="35" t="s">
         <v>391</v>
       </c>
-      <c r="C31" s="38" t="s">
+      <c r="C31" s="35" t="s">
         <v>392</v>
       </c>
-      <c r="D31" s="38" t="s">
+      <c r="D31" s="35" t="s">
         <v>393</v>
       </c>
-      <c r="E31" s="38" t="s">
+      <c r="E31" s="35" t="s">
         <v>394</v>
       </c>
-      <c r="F31" s="38" t="s">
+      <c r="F31" s="35" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="36" t="s">
+    <row r="32" spans="1:6" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="38" t="s">
+      <c r="B32" s="35" t="s">
         <v>396</v>
       </c>
-      <c r="C32" s="38" t="s">
+      <c r="C32" s="35" t="s">
         <v>397</v>
       </c>
-      <c r="D32" s="38" t="s">
+      <c r="D32" s="35" t="s">
         <v>398</v>
       </c>
-      <c r="E32" s="38" t="s">
+      <c r="E32" s="35" t="s">
         <v>399</v>
       </c>
-      <c r="F32" s="38" t="s">
+      <c r="F32" s="35" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="36" t="s">
+      <c r="A33" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B33" s="38" t="s">
+      <c r="B33" s="35" t="s">
         <v>401</v>
       </c>
-      <c r="C33" s="38" t="s">
+      <c r="C33" s="35" t="s">
         <v>402</v>
       </c>
-      <c r="D33" s="38" t="s">
+      <c r="D33" s="35" t="s">
         <v>403</v>
       </c>
-      <c r="E33" s="38" t="s">
+      <c r="E33" s="35" t="s">
         <v>404</v>
       </c>
-      <c r="F33" s="38" t="s">
+      <c r="F33" s="35" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="36" t="s">
+      <c r="A34" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="B34" s="39"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-    </row>
-    <row r="35" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="36" t="s">
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+    </row>
+    <row r="35" spans="1:6" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="38" t="s">
+      <c r="B35" s="35" t="s">
         <v>406</v>
       </c>
-      <c r="C35" s="38" t="s">
+      <c r="C35" s="35" t="s">
         <v>407</v>
       </c>
-      <c r="D35" s="38" t="s">
+      <c r="D35" s="35" t="s">
         <v>408</v>
       </c>
-      <c r="E35" s="38" t="s">
+      <c r="E35" s="35" t="s">
         <v>409</v>
       </c>
-      <c r="F35" s="38" t="s">
+      <c r="F35" s="35" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="36" t="s">
+    <row r="36" spans="1:6" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="38" t="s">
+      <c r="B36" s="35" t="s">
         <v>411</v>
       </c>
-      <c r="C36" s="38" t="s">
+      <c r="C36" s="35" t="s">
         <v>412</v>
       </c>
-      <c r="D36" s="38" t="s">
+      <c r="D36" s="35" t="s">
         <v>413</v>
       </c>
-      <c r="E36" s="38" t="s">
+      <c r="E36" s="35" t="s">
         <v>414</v>
       </c>
-      <c r="F36" s="38" t="s">
+      <c r="F36" s="35" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="36" t="s">
+      <c r="A37" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B37" s="38" t="s">
+      <c r="B37" s="35" t="s">
         <v>416</v>
       </c>
-      <c r="C37" s="38" t="s">
+      <c r="C37" s="35" t="s">
         <v>417</v>
       </c>
-      <c r="D37" s="38" t="s">
+      <c r="D37" s="35" t="s">
         <v>418</v>
       </c>
-      <c r="E37" s="38" t="s">
+      <c r="E37" s="35" t="s">
         <v>419</v>
       </c>
-      <c r="F37" s="38" t="s">
+      <c r="F37" s="35" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="36" t="s">
+      <c r="A38" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="B38" s="39"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39"/>
-    </row>
-    <row r="39" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="36" t="s">
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+    </row>
+    <row r="39" spans="1:6" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B39" s="38" t="s">
+      <c r="B39" s="35" t="s">
         <v>421</v>
       </c>
-      <c r="C39" s="38" t="s">
+      <c r="C39" s="35" t="s">
         <v>422</v>
       </c>
-      <c r="D39" s="38" t="s">
+      <c r="D39" s="35" t="s">
         <v>423</v>
       </c>
-      <c r="E39" s="38" t="s">
+      <c r="E39" s="35" t="s">
         <v>424</v>
       </c>
-      <c r="F39" s="38" t="s">
+      <c r="F39" s="35" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="36" t="s">
+    <row r="40" spans="1:6" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B40" s="38" t="s">
+      <c r="B40" s="35" t="s">
         <v>426</v>
       </c>
-      <c r="C40" s="38" t="s">
+      <c r="C40" s="35" t="s">
         <v>427</v>
       </c>
-      <c r="D40" s="38" t="s">
+      <c r="D40" s="35" t="s">
         <v>428</v>
       </c>
-      <c r="E40" s="38" t="s">
+      <c r="E40" s="35" t="s">
         <v>429</v>
       </c>
-      <c r="F40" s="38" t="s">
+      <c r="F40" s="35" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="36" t="s">
+      <c r="A41" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B41" s="38" t="s">
+      <c r="B41" s="35" t="s">
         <v>431</v>
       </c>
-      <c r="C41" s="38" t="s">
+      <c r="C41" s="35" t="s">
         <v>432</v>
       </c>
-      <c r="D41" s="38" t="s">
+      <c r="D41" s="35" t="s">
         <v>433</v>
       </c>
-      <c r="E41" s="38" t="s">
+      <c r="E41" s="35" t="s">
         <v>434</v>
       </c>
-      <c r="F41" s="38" t="s">
+      <c r="F41" s="35" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="36" t="s">
+      <c r="A42" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="B42" s="39"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="39"/>
-    </row>
-    <row r="43" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="36" t="s">
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+    </row>
+    <row r="43" spans="1:6" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B43" s="38" t="s">
+      <c r="B43" s="35" t="s">
         <v>436</v>
       </c>
-      <c r="C43" s="38" t="s">
+      <c r="C43" s="35" t="s">
         <v>437</v>
       </c>
-      <c r="D43" s="38" t="s">
+      <c r="D43" s="35" t="s">
         <v>438</v>
       </c>
-      <c r="E43" s="38" t="s">
+      <c r="E43" s="35" t="s">
         <v>439</v>
       </c>
-      <c r="F43" s="38" t="s">
+      <c r="F43" s="35" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="36" t="s">
+    <row r="44" spans="1:6" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B44" s="38" t="s">
+      <c r="B44" s="35" t="s">
         <v>441</v>
       </c>
-      <c r="C44" s="38" t="s">
+      <c r="C44" s="35" t="s">
         <v>442</v>
       </c>
-      <c r="D44" s="38" t="s">
+      <c r="D44" s="35" t="s">
         <v>443</v>
       </c>
-      <c r="E44" s="38" t="s">
+      <c r="E44" s="35" t="s">
         <v>444</v>
       </c>
-      <c r="F44" s="38" t="s">
+      <c r="F44" s="35" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="36" t="s">
+      <c r="A45" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="38" t="s">
+      <c r="B45" s="35" t="s">
         <v>446</v>
       </c>
-      <c r="C45" s="38" t="s">
+      <c r="C45" s="35" t="s">
         <v>447</v>
       </c>
-      <c r="D45" s="38" t="s">
+      <c r="D45" s="35" t="s">
         <v>448</v>
       </c>
-      <c r="E45" s="38" t="s">
+      <c r="E45" s="35" t="s">
         <v>449</v>
       </c>
-      <c r="F45" s="38" t="s">
+      <c r="F45" s="35" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="36" t="s">
+      <c r="A46" s="33" t="s">
         <v>241</v>
       </c>
-      <c r="B46" s="39"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="39"/>
-    </row>
-    <row r="47" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="36" t="s">
+      <c r="B46" s="36"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
+    </row>
+    <row r="47" spans="1:6" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B47" s="38" t="s">
+      <c r="B47" s="35" t="s">
         <v>451</v>
       </c>
-      <c r="C47" s="38" t="s">
+      <c r="C47" s="35" t="s">
         <v>452</v>
       </c>
-      <c r="D47" s="38" t="s">
+      <c r="D47" s="35" t="s">
         <v>453</v>
       </c>
-      <c r="E47" s="38" t="s">
+      <c r="E47" s="35" t="s">
         <v>454</v>
       </c>
-      <c r="F47" s="38" t="s">
+      <c r="F47" s="35" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="36" t="s">
+    <row r="48" spans="1:6" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B48" s="38" t="s">
+      <c r="B48" s="35" t="s">
         <v>456</v>
       </c>
-      <c r="C48" s="38" t="s">
+      <c r="C48" s="35" t="s">
         <v>457</v>
       </c>
-      <c r="D48" s="38" t="s">
+      <c r="D48" s="35" t="s">
         <v>458</v>
       </c>
-      <c r="E48" s="38" t="s">
+      <c r="E48" s="35" t="s">
         <v>459</v>
       </c>
-      <c r="F48" s="38" t="s">
+      <c r="F48" s="35" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="36" t="s">
+      <c r="A49" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B49" s="38" t="s">
+      <c r="B49" s="35" t="s">
         <v>461</v>
       </c>
-      <c r="C49" s="38" t="s">
+      <c r="C49" s="35" t="s">
         <v>462</v>
       </c>
-      <c r="D49" s="38" t="s">
+      <c r="D49" s="35" t="s">
         <v>463</v>
       </c>
-      <c r="E49" s="38" t="s">
+      <c r="E49" s="35" t="s">
         <v>464</v>
       </c>
-      <c r="F49" s="38" t="s">
+      <c r="F49" s="35" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="36" t="s">
+      <c r="A50" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="B50" s="39"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="39"/>
-      <c r="F50" s="39"/>
-    </row>
-    <row r="51" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="36" t="s">
+      <c r="B50" s="36"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="36"/>
+    </row>
+    <row r="51" spans="1:6" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B51" s="38" t="s">
+      <c r="B51" s="35" t="s">
         <v>466</v>
       </c>
-      <c r="C51" s="38" t="s">
+      <c r="C51" s="35" t="s">
         <v>467</v>
       </c>
-      <c r="D51" s="38" t="s">
+      <c r="D51" s="35" t="s">
         <v>468</v>
       </c>
-      <c r="E51" s="38" t="s">
+      <c r="E51" s="35" t="s">
         <v>469</v>
       </c>
-      <c r="F51" s="38" t="s">
+      <c r="F51" s="35" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="36" t="s">
+    <row r="52" spans="1:6" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="38" t="s">
+      <c r="B52" s="35" t="s">
         <v>471</v>
       </c>
-      <c r="C52" s="38" t="s">
+      <c r="C52" s="35" t="s">
         <v>472</v>
       </c>
-      <c r="D52" s="38" t="s">
+      <c r="D52" s="35" t="s">
         <v>473</v>
       </c>
-      <c r="E52" s="38" t="s">
+      <c r="E52" s="35" t="s">
         <v>474</v>
       </c>
-      <c r="F52" s="38" t="s">
+      <c r="F52" s="35" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="36" t="s">
+      <c r="A53" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B53" s="38" t="s">
+      <c r="B53" s="35" t="s">
         <v>476</v>
       </c>
-      <c r="C53" s="38" t="s">
+      <c r="C53" s="35" t="s">
         <v>477</v>
       </c>
-      <c r="D53" s="38" t="s">
+      <c r="D53" s="35" t="s">
         <v>478</v>
       </c>
-      <c r="E53" s="38" t="s">
+      <c r="E53" s="35" t="s">
         <v>479</v>
       </c>
-      <c r="F53" s="38" t="s">
+      <c r="F53" s="35" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="36" t="s">
+      <c r="A54" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="B54" s="39"/>
-      <c r="C54" s="39"/>
-      <c r="D54" s="39"/>
-      <c r="E54" s="39"/>
-      <c r="F54" s="39"/>
-    </row>
-    <row r="55" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="36" t="s">
+      <c r="B54" s="36"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+    </row>
+    <row r="55" spans="1:6" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B55" s="38" t="s">
+      <c r="B55" s="35" t="s">
         <v>481</v>
       </c>
-      <c r="C55" s="38" t="s">
+      <c r="C55" s="35" t="s">
         <v>482</v>
       </c>
-      <c r="D55" s="38" t="s">
+      <c r="D55" s="35" t="s">
         <v>483</v>
       </c>
-      <c r="E55" s="38" t="s">
+      <c r="E55" s="35" t="s">
         <v>484</v>
       </c>
-      <c r="F55" s="38" t="s">
+      <c r="F55" s="35" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="36" t="s">
+    <row r="56" spans="1:6" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B56" s="38" t="s">
+      <c r="B56" s="35" t="s">
         <v>486</v>
       </c>
-      <c r="C56" s="38" t="s">
+      <c r="C56" s="35" t="s">
         <v>487</v>
       </c>
-      <c r="D56" s="38" t="s">
+      <c r="D56" s="35" t="s">
         <v>488</v>
       </c>
-      <c r="E56" s="38" t="s">
+      <c r="E56" s="35" t="s">
         <v>489</v>
       </c>
-      <c r="F56" s="38" t="s">
+      <c r="F56" s="35" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="36" t="s">
+      <c r="A57" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B57" s="38" t="s">
+      <c r="B57" s="35" t="s">
         <v>491</v>
       </c>
-      <c r="C57" s="38" t="s">
+      <c r="C57" s="35" t="s">
         <v>492</v>
       </c>
-      <c r="D57" s="38" t="s">
+      <c r="D57" s="35" t="s">
         <v>493</v>
       </c>
-      <c r="E57" s="38" t="s">
+      <c r="E57" s="35" t="s">
         <v>494</v>
       </c>
-      <c r="F57" s="38" t="s">
+      <c r="F57" s="35" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="36" t="s">
+      <c r="A58" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="B58" s="39"/>
-      <c r="C58" s="39"/>
-      <c r="D58" s="39"/>
-      <c r="E58" s="39"/>
-      <c r="F58" s="39"/>
-    </row>
-    <row r="59" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="36" t="s">
+      <c r="B58" s="36"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="36"/>
+    </row>
+    <row r="59" spans="1:6" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B59" s="38" t="s">
+      <c r="B59" s="35" t="s">
         <v>496</v>
       </c>
-      <c r="C59" s="38" t="s">
+      <c r="C59" s="35" t="s">
         <v>497</v>
       </c>
-      <c r="D59" s="38" t="s">
+      <c r="D59" s="35" t="s">
         <v>498</v>
       </c>
-      <c r="E59" s="38" t="s">
+      <c r="E59" s="35" t="s">
         <v>499</v>
       </c>
-      <c r="F59" s="38" t="s">
+      <c r="F59" s="35" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="36" t="s">
+    <row r="60" spans="1:6" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B60" s="38" t="s">
+      <c r="B60" s="35" t="s">
         <v>501</v>
       </c>
-      <c r="C60" s="38" t="s">
+      <c r="C60" s="35" t="s">
         <v>502</v>
       </c>
-      <c r="D60" s="38" t="s">
+      <c r="D60" s="35" t="s">
         <v>503</v>
       </c>
-      <c r="E60" s="38" t="s">
+      <c r="E60" s="35" t="s">
         <v>504</v>
       </c>
-      <c r="F60" s="38" t="s">
+      <c r="F60" s="35" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="36" t="s">
+      <c r="A61" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B61" s="38" t="s">
+      <c r="B61" s="35" t="s">
         <v>506</v>
       </c>
-      <c r="C61" s="38" t="s">
+      <c r="C61" s="35" t="s">
         <v>507</v>
       </c>
-      <c r="D61" s="38" t="s">
+      <c r="D61" s="35" t="s">
         <v>508</v>
       </c>
-      <c r="E61" s="38" t="s">
+      <c r="E61" s="35" t="s">
         <v>509</v>
       </c>
-      <c r="F61" s="38" t="s">
+      <c r="F61" s="35" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="36" t="s">
+      <c r="A62" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="B62" s="39"/>
-      <c r="C62" s="39"/>
-      <c r="D62" s="39"/>
-      <c r="E62" s="39"/>
-      <c r="F62" s="39"/>
-    </row>
-    <row r="63" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="36" t="s">
+      <c r="B62" s="36"/>
+      <c r="C62" s="36"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="36"/>
+    </row>
+    <row r="63" spans="1:6" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B63" s="38" t="s">
+      <c r="B63" s="35" t="s">
         <v>511</v>
       </c>
-      <c r="C63" s="38" t="s">
+      <c r="C63" s="35" t="s">
         <v>512</v>
       </c>
-      <c r="D63" s="38" t="s">
+      <c r="D63" s="35" t="s">
         <v>513</v>
       </c>
-      <c r="E63" s="38" t="s">
+      <c r="E63" s="35" t="s">
         <v>514</v>
       </c>
-      <c r="F63" s="38" t="s">
+      <c r="F63" s="35" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="36" t="s">
+    <row r="64" spans="1:6" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B64" s="38" t="s">
+      <c r="B64" s="35" t="s">
         <v>516</v>
       </c>
-      <c r="C64" s="38" t="s">
+      <c r="C64" s="35" t="s">
         <v>517</v>
       </c>
-      <c r="D64" s="38" t="s">
+      <c r="D64" s="35" t="s">
         <v>518</v>
       </c>
-      <c r="E64" s="38" t="s">
+      <c r="E64" s="35" t="s">
         <v>519</v>
       </c>
-      <c r="F64" s="38" t="s">
+      <c r="F64" s="35" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="36" t="s">
+      <c r="A65" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B65" s="38" t="s">
+      <c r="B65" s="35" t="s">
         <v>520</v>
       </c>
-      <c r="C65" s="38" t="s">
+      <c r="C65" s="35" t="s">
         <v>521</v>
       </c>
-      <c r="D65" s="38" t="s">
+      <c r="D65" s="35" t="s">
         <v>522</v>
       </c>
-      <c r="E65" s="38" t="s">
+      <c r="E65" s="35" t="s">
         <v>523</v>
       </c>
-      <c r="F65" s="38" t="s">
+      <c r="F65" s="35" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="36" t="s">
+      <c r="A66" s="33" t="s">
         <v>245</v>
       </c>
-      <c r="B66" s="39"/>
-      <c r="C66" s="39"/>
-      <c r="D66" s="39"/>
-      <c r="E66" s="39"/>
-      <c r="F66" s="39"/>
-    </row>
-    <row r="67" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="36" t="s">
+      <c r="B66" s="36"/>
+      <c r="C66" s="36"/>
+      <c r="D66" s="36"/>
+      <c r="E66" s="36"/>
+      <c r="F66" s="36"/>
+    </row>
+    <row r="67" spans="1:6" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B67" s="38" t="s">
+      <c r="B67" s="35" t="s">
         <v>525</v>
       </c>
-      <c r="C67" s="38" t="s">
+      <c r="C67" s="35" t="s">
         <v>526</v>
       </c>
-      <c r="D67" s="38" t="s">
+      <c r="D67" s="35" t="s">
         <v>527</v>
       </c>
-      <c r="E67" s="38" t="s">
+      <c r="E67" s="35" t="s">
         <v>528</v>
       </c>
-      <c r="F67" s="38" t="s">
+      <c r="F67" s="35" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="36" t="s">
+    <row r="68" spans="1:6" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B68" s="38" t="s">
+      <c r="B68" s="35" t="s">
         <v>530</v>
       </c>
-      <c r="C68" s="38" t="s">
+      <c r="C68" s="35" t="s">
         <v>531</v>
       </c>
-      <c r="D68" s="38" t="s">
+      <c r="D68" s="35" t="s">
         <v>532</v>
       </c>
-      <c r="E68" s="38" t="s">
+      <c r="E68" s="35" t="s">
         <v>533</v>
       </c>
-      <c r="F68" s="38" t="s">
+      <c r="F68" s="35" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="36" t="s">
+      <c r="A69" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B69" s="38" t="s">
+      <c r="B69" s="35" t="s">
         <v>535</v>
       </c>
-      <c r="C69" s="38" t="s">
+      <c r="C69" s="35" t="s">
         <v>536</v>
       </c>
-      <c r="D69" s="38" t="s">
+      <c r="D69" s="35" t="s">
         <v>537</v>
       </c>
-      <c r="E69" s="38" t="s">
+      <c r="E69" s="35" t="s">
         <v>538</v>
       </c>
-      <c r="F69" s="38" t="s">
+      <c r="F69" s="35" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="36" t="s">
+      <c r="A70" s="33" t="s">
         <v>243</v>
       </c>
-      <c r="B70" s="39"/>
-      <c r="C70" s="39"/>
-      <c r="D70" s="39"/>
-      <c r="E70" s="39"/>
-      <c r="F70" s="39"/>
-    </row>
-    <row r="71" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="36" t="s">
+      <c r="B70" s="36"/>
+      <c r="C70" s="36"/>
+      <c r="D70" s="36"/>
+      <c r="E70" s="36"/>
+      <c r="F70" s="36"/>
+    </row>
+    <row r="71" spans="1:6" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B71" s="38" t="s">
+      <c r="B71" s="35" t="s">
         <v>540</v>
       </c>
-      <c r="C71" s="38" t="s">
+      <c r="C71" s="35" t="s">
         <v>541</v>
       </c>
-      <c r="D71" s="38" t="s">
+      <c r="D71" s="35" t="s">
         <v>542</v>
       </c>
-      <c r="E71" s="38" t="s">
+      <c r="E71" s="35" t="s">
         <v>543</v>
       </c>
-      <c r="F71" s="38" t="s">
+      <c r="F71" s="35" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="36" t="s">
+    <row r="72" spans="1:6" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B72" s="38" t="s">
+      <c r="B72" s="35" t="s">
         <v>545</v>
       </c>
-      <c r="C72" s="38" t="s">
+      <c r="C72" s="35" t="s">
         <v>546</v>
       </c>
-      <c r="D72" s="38" t="s">
+      <c r="D72" s="35" t="s">
         <v>547</v>
       </c>
-      <c r="E72" s="38" t="s">
+      <c r="E72" s="35" t="s">
         <v>548</v>
       </c>
-      <c r="F72" s="38" t="s">
+      <c r="F72" s="35" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="36" t="s">
+      <c r="A73" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B73" s="38" t="s">
+      <c r="B73" s="35" t="s">
         <v>550</v>
       </c>
-      <c r="C73" s="38" t="s">
+      <c r="C73" s="35" t="s">
         <v>551</v>
       </c>
-      <c r="D73" s="38" t="s">
+      <c r="D73" s="35" t="s">
         <v>552</v>
       </c>
-      <c r="E73" s="38" t="s">
+      <c r="E73" s="35" t="s">
         <v>553</v>
       </c>
-      <c r="F73" s="38" t="s">
+      <c r="F73" s="35" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="36" t="s">
+      <c r="A74" s="33" t="s">
         <v>208</v>
       </c>
-      <c r="B74" s="39"/>
-      <c r="C74" s="39"/>
-      <c r="D74" s="39"/>
-      <c r="E74" s="39"/>
-      <c r="F74" s="39"/>
-    </row>
-    <row r="75" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="36" t="s">
+      <c r="B74" s="36"/>
+      <c r="C74" s="36"/>
+      <c r="D74" s="36"/>
+      <c r="E74" s="36"/>
+      <c r="F74" s="36"/>
+    </row>
+    <row r="75" spans="1:6" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B75" s="38" t="s">
+      <c r="B75" s="35" t="s">
         <v>555</v>
       </c>
-      <c r="C75" s="38" t="s">
+      <c r="C75" s="35" t="s">
         <v>556</v>
       </c>
-      <c r="D75" s="38" t="s">
+      <c r="D75" s="35" t="s">
         <v>557</v>
       </c>
-      <c r="E75" s="38" t="s">
+      <c r="E75" s="35" t="s">
         <v>558</v>
       </c>
-      <c r="F75" s="38" t="s">
+      <c r="F75" s="35" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="36" t="s">
+    <row r="76" spans="1:6" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B76" s="38" t="s">
+      <c r="B76" s="35" t="s">
         <v>560</v>
       </c>
-      <c r="C76" s="38" t="s">
+      <c r="C76" s="35" t="s">
         <v>561</v>
       </c>
-      <c r="D76" s="38" t="s">
+      <c r="D76" s="35" t="s">
         <v>562</v>
       </c>
-      <c r="E76" s="38" t="s">
+      <c r="E76" s="35" t="s">
         <v>563</v>
       </c>
-      <c r="F76" s="38" t="s">
+      <c r="F76" s="35" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="36" t="s">
+      <c r="A77" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B77" s="38" t="s">
+      <c r="B77" s="35" t="s">
         <v>565</v>
       </c>
-      <c r="C77" s="38" t="s">
+      <c r="C77" s="35" t="s">
         <v>566</v>
       </c>
-      <c r="D77" s="38" t="s">
+      <c r="D77" s="35" t="s">
         <v>567</v>
       </c>
-      <c r="E77" s="38" t="s">
+      <c r="E77" s="35" t="s">
         <v>568</v>
       </c>
-      <c r="F77" s="38" t="s">
+      <c r="F77" s="35" t="s">
         <v>569</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F77" xr:uid="{DB37F5ED-9F41-AA4C-85D6-C28D1DCEB3A4}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Ag"/>
+        <filter val="Al"/>
+        <filter val="As"/>
+        <filter val="Ba"/>
+        <filter val="Be"/>
+        <filter val="Cd"/>
+        <filter val="Co"/>
+        <filter val="Cr"/>
+        <filter val="Cu"/>
+        <filter val="Fe"/>
+        <filter val="Gmean (gsd)"/>
+        <filter val="Mn"/>
+        <filter val="Mo"/>
+        <filter val="Ni"/>
+        <filter val="Pb"/>
+        <filter val="Sb"/>
+        <filter val="Se"/>
+        <filter val="Sn"/>
+        <filter val="V"/>
+        <filter val="Zn"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8698,7 +8737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10207674-7DBA-2844-B5A0-7258E9467545}">
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A47" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
@@ -8713,1350 +8752,1350 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="33"/>
-      <c r="B1" s="41" t="s">
+      <c r="A1" s="30"/>
+      <c r="B1" s="38" t="s">
         <v>282</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="38" t="s">
         <v>570</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="38" t="s">
         <v>571</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="38" t="s">
         <v>285</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="38" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="38" t="s">
         <v>239</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="39" t="s">
         <v>572</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="39" t="s">
         <v>573</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="39" t="s">
         <v>574</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="39" t="s">
         <v>575</v>
       </c>
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="39" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="39" t="s">
         <v>577</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="39" t="s">
         <v>578</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="39" t="s">
         <v>579</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="39" t="s">
         <v>580</v>
       </c>
-      <c r="F4" s="42" t="s">
+      <c r="F4" s="39" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="39" t="s">
         <v>581</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="39" t="s">
         <v>582</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="39" t="s">
         <v>583</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="39" t="s">
         <v>584</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="F5" s="39" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="39" t="s">
         <v>586</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="39" t="s">
         <v>587</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="E7" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="42" t="s">
+      <c r="F7" s="39" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="39" t="s">
         <v>589</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="39" t="s">
         <v>590</v>
       </c>
-      <c r="E8" s="42" t="s">
+      <c r="E8" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="42" t="s">
+      <c r="F8" s="39" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="39" t="s">
         <v>592</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="39" t="s">
         <v>593</v>
       </c>
-      <c r="E9" s="42" t="s">
+      <c r="E9" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="F9" s="42" t="s">
+      <c r="F9" s="39" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="39" t="s">
         <v>595</v>
       </c>
-      <c r="D11" s="42" t="s">
+      <c r="D11" s="39" t="s">
         <v>596</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="E11" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="42" t="s">
+      <c r="F11" s="39" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="C12" s="39" t="s">
         <v>598</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="39" t="s">
         <v>599</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="E12" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="42" t="s">
+      <c r="F12" s="39" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="39" t="s">
         <v>601</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="D13" s="39" t="s">
         <v>602</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="E13" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="F13" s="42" t="s">
+      <c r="F13" s="39" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="39" t="s">
         <v>604</v>
       </c>
-      <c r="D15" s="42" t="s">
+      <c r="D15" s="39" t="s">
         <v>605</v>
       </c>
-      <c r="E15" s="42" t="s">
+      <c r="E15" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="F15" s="42" t="s">
+      <c r="F15" s="39" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="42" t="s">
+      <c r="C16" s="39" t="s">
         <v>607</v>
       </c>
-      <c r="D16" s="42" t="s">
+      <c r="D16" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="E16" s="42" t="s">
+      <c r="E16" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="42" t="s">
+      <c r="F16" s="39" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="C17" s="42" t="s">
+      <c r="C17" s="39" t="s">
         <v>609</v>
       </c>
-      <c r="D17" s="42" t="s">
+      <c r="D17" s="39" t="s">
         <v>610</v>
       </c>
-      <c r="E17" s="42" t="s">
+      <c r="E17" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="F17" s="42" t="s">
+      <c r="F17" s="39" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="39" t="s">
         <v>612</v>
       </c>
-      <c r="D19" s="42" t="s">
+      <c r="D19" s="39" t="s">
         <v>613</v>
       </c>
-      <c r="E19" s="42" t="s">
+      <c r="E19" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="F19" s="42" t="s">
+      <c r="F19" s="39" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="39" t="s">
         <v>615</v>
       </c>
-      <c r="D20" s="42" t="s">
+      <c r="D20" s="39" t="s">
         <v>616</v>
       </c>
-      <c r="E20" s="42" t="s">
+      <c r="E20" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="F20" s="42" t="s">
+      <c r="F20" s="39" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="C21" s="42" t="s">
+      <c r="C21" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="D21" s="42" t="s">
+      <c r="D21" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="E21" s="42" t="s">
+      <c r="E21" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="F21" s="42" t="s">
+      <c r="F21" s="39" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="42" t="s">
+      <c r="B23" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="C23" s="42" t="s">
+      <c r="C23" s="39" t="s">
         <v>619</v>
       </c>
-      <c r="D23" s="42" t="s">
+      <c r="D23" s="39" t="s">
         <v>620</v>
       </c>
-      <c r="E23" s="42" t="s">
+      <c r="E23" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="F23" s="42" t="s">
+      <c r="F23" s="39" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="C24" s="42" t="s">
+      <c r="C24" s="39" t="s">
         <v>622</v>
       </c>
-      <c r="D24" s="42" t="s">
+      <c r="D24" s="39" t="s">
         <v>623</v>
       </c>
-      <c r="E24" s="42" t="s">
+      <c r="E24" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="F24" s="42" t="s">
+      <c r="F24" s="39" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="41" t="s">
+      <c r="A25" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="42" t="s">
+      <c r="B25" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="C25" s="42" t="s">
+      <c r="C25" s="39" t="s">
         <v>625</v>
       </c>
-      <c r="D25" s="42" t="s">
+      <c r="D25" s="39" t="s">
         <v>626</v>
       </c>
-      <c r="E25" s="42" t="s">
+      <c r="E25" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="F25" s="42" t="s">
+      <c r="F25" s="39" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="38" t="s">
         <v>240</v>
       </c>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="41" t="s">
+      <c r="A27" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="42" t="s">
+      <c r="B27" s="39" t="s">
         <v>628</v>
       </c>
-      <c r="C27" s="42" t="s">
+      <c r="C27" s="39" t="s">
         <v>629</v>
       </c>
-      <c r="D27" s="42" t="s">
+      <c r="D27" s="39" t="s">
         <v>630</v>
       </c>
-      <c r="E27" s="42" t="s">
+      <c r="E27" s="39" t="s">
         <v>631</v>
       </c>
-      <c r="F27" s="42" t="s">
+      <c r="F27" s="39" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="41" t="s">
+      <c r="A28" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="42" t="s">
+      <c r="B28" s="39" t="s">
         <v>633</v>
       </c>
-      <c r="C28" s="42" t="s">
+      <c r="C28" s="39" t="s">
         <v>634</v>
       </c>
-      <c r="D28" s="42" t="s">
+      <c r="D28" s="39" t="s">
         <v>635</v>
       </c>
-      <c r="E28" s="42" t="s">
+      <c r="E28" s="39" t="s">
         <v>636</v>
       </c>
-      <c r="F28" s="42" t="s">
+      <c r="F28" s="39" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="41" t="s">
+      <c r="A29" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="39" t="s">
         <v>638</v>
       </c>
-      <c r="C29" s="42" t="s">
+      <c r="C29" s="39" t="s">
         <v>639</v>
       </c>
-      <c r="D29" s="42" t="s">
+      <c r="D29" s="39" t="s">
         <v>640</v>
       </c>
-      <c r="E29" s="42" t="s">
+      <c r="E29" s="39" t="s">
         <v>641</v>
       </c>
-      <c r="F29" s="42" t="s">
+      <c r="F29" s="39" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="41" t="s">
+      <c r="A30" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="41" t="s">
+      <c r="A31" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="42" t="s">
+      <c r="B31" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="C31" s="42" t="s">
+      <c r="C31" s="39" t="s">
         <v>643</v>
       </c>
-      <c r="D31" s="42" t="s">
+      <c r="D31" s="39" t="s">
         <v>644</v>
       </c>
-      <c r="E31" s="42" t="s">
+      <c r="E31" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="F31" s="42" t="s">
+      <c r="F31" s="39" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="41" t="s">
+      <c r="A32" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="42" t="s">
+      <c r="B32" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="C32" s="42" t="s">
+      <c r="C32" s="39" t="s">
         <v>646</v>
       </c>
-      <c r="D32" s="42" t="s">
+      <c r="D32" s="39" t="s">
         <v>647</v>
       </c>
-      <c r="E32" s="42" t="s">
+      <c r="E32" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="F32" s="42" t="s">
+      <c r="F32" s="39" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="41" t="s">
+      <c r="A33" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="B33" s="42" t="s">
+      <c r="B33" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="C33" s="42" t="s">
+      <c r="C33" s="39" t="s">
         <v>649</v>
       </c>
-      <c r="D33" s="42" t="s">
+      <c r="D33" s="39" t="s">
         <v>650</v>
       </c>
-      <c r="E33" s="42" t="s">
+      <c r="E33" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="F33" s="42" t="s">
+      <c r="F33" s="39" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="41" t="s">
+      <c r="A34" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="41" t="s">
+      <c r="A35" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="42" t="s">
+      <c r="B35" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="C35" s="42" t="s">
+      <c r="C35" s="39" t="s">
         <v>652</v>
       </c>
-      <c r="D35" s="42" t="s">
+      <c r="D35" s="39" t="s">
         <v>653</v>
       </c>
-      <c r="E35" s="42" t="s">
+      <c r="E35" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="F35" s="42" t="s">
+      <c r="F35" s="39" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="41" t="s">
+      <c r="A36" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="42" t="s">
+      <c r="B36" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="C36" s="42" t="s">
+      <c r="C36" s="39" t="s">
         <v>655</v>
       </c>
-      <c r="D36" s="42" t="s">
+      <c r="D36" s="39" t="s">
         <v>656</v>
       </c>
-      <c r="E36" s="42" t="s">
+      <c r="E36" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="F36" s="42" t="s">
+      <c r="F36" s="39" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="41" t="s">
+      <c r="A37" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="B37" s="42" t="s">
+      <c r="B37" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="C37" s="42" t="s">
+      <c r="C37" s="39" t="s">
         <v>658</v>
       </c>
-      <c r="D37" s="42" t="s">
+      <c r="D37" s="39" t="s">
         <v>659</v>
       </c>
-      <c r="E37" s="42" t="s">
+      <c r="E37" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="F37" s="42" t="s">
+      <c r="F37" s="39" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="41" t="s">
+      <c r="A38" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="41" t="s">
+      <c r="A39" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B39" s="42" t="s">
+      <c r="B39" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="C39" s="42" t="s">
+      <c r="C39" s="39" t="s">
         <v>661</v>
       </c>
-      <c r="D39" s="42" t="s">
+      <c r="D39" s="39" t="s">
         <v>662</v>
       </c>
-      <c r="E39" s="42" t="s">
+      <c r="E39" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="F39" s="42" t="s">
+      <c r="F39" s="39" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="41" t="s">
+      <c r="A40" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="B40" s="42" t="s">
+      <c r="B40" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="C40" s="42" t="s">
+      <c r="C40" s="39" t="s">
         <v>664</v>
       </c>
-      <c r="D40" s="42" t="s">
+      <c r="D40" s="39" t="s">
         <v>665</v>
       </c>
-      <c r="E40" s="42" t="s">
+      <c r="E40" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="F40" s="42" t="s">
+      <c r="F40" s="39" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="41" t="s">
+      <c r="A41" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="B41" s="42" t="s">
+      <c r="B41" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="C41" s="42" t="s">
+      <c r="C41" s="39" t="s">
         <v>667</v>
       </c>
-      <c r="D41" s="42" t="s">
+      <c r="D41" s="39" t="s">
         <v>668</v>
       </c>
-      <c r="E41" s="42" t="s">
+      <c r="E41" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="F41" s="42" t="s">
+      <c r="F41" s="39" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="41" t="s">
+      <c r="A42" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="B42" s="33"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="41" t="s">
+      <c r="A43" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B43" s="42" t="s">
+      <c r="B43" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="C43" s="42" t="s">
+      <c r="C43" s="39" t="s">
         <v>670</v>
       </c>
-      <c r="D43" s="42" t="s">
+      <c r="D43" s="39" t="s">
         <v>671</v>
       </c>
-      <c r="E43" s="42" t="s">
+      <c r="E43" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="F43" s="42" t="s">
+      <c r="F43" s="39" t="s">
         <v>672</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="41" t="s">
+      <c r="A44" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="B44" s="42" t="s">
+      <c r="B44" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="C44" s="42" t="s">
+      <c r="C44" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="D44" s="42" t="s">
+      <c r="D44" s="39" t="s">
         <v>674</v>
       </c>
-      <c r="E44" s="42" t="s">
+      <c r="E44" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="F44" s="42" t="s">
+      <c r="F44" s="39" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="41" t="s">
+      <c r="A45" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="42" t="s">
+      <c r="B45" s="39" t="s">
         <v>165</v>
       </c>
-      <c r="C45" s="42" t="s">
+      <c r="C45" s="39" t="s">
         <v>676</v>
       </c>
-      <c r="D45" s="42" t="s">
+      <c r="D45" s="39" t="s">
         <v>677</v>
       </c>
-      <c r="E45" s="42" t="s">
+      <c r="E45" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="F45" s="42" t="s">
+      <c r="F45" s="39" t="s">
         <v>678</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="41" t="s">
+      <c r="A46" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="B46" s="33"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="41" t="s">
+      <c r="A47" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B47" s="42" t="s">
+      <c r="B47" s="39" t="s">
         <v>679</v>
       </c>
-      <c r="C47" s="42" t="s">
+      <c r="C47" s="39" t="s">
         <v>680</v>
       </c>
-      <c r="D47" s="42" t="s">
+      <c r="D47" s="39" t="s">
         <v>681</v>
       </c>
-      <c r="E47" s="42" t="s">
+      <c r="E47" s="39" t="s">
         <v>682</v>
       </c>
-      <c r="F47" s="42" t="s">
+      <c r="F47" s="39" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="41" t="s">
+      <c r="A48" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="B48" s="42" t="s">
+      <c r="B48" s="39" t="s">
         <v>684</v>
       </c>
-      <c r="C48" s="42" t="s">
+      <c r="C48" s="39" t="s">
         <v>685</v>
       </c>
-      <c r="D48" s="42" t="s">
+      <c r="D48" s="39" t="s">
         <v>686</v>
       </c>
-      <c r="E48" s="42" t="s">
+      <c r="E48" s="39" t="s">
         <v>687</v>
       </c>
-      <c r="F48" s="42" t="s">
+      <c r="F48" s="39" t="s">
         <v>688</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="41" t="s">
+      <c r="A49" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="B49" s="42" t="s">
+      <c r="B49" s="39" t="s">
         <v>689</v>
       </c>
-      <c r="C49" s="42" t="s">
+      <c r="C49" s="39" t="s">
         <v>690</v>
       </c>
-      <c r="D49" s="42" t="s">
+      <c r="D49" s="39" t="s">
         <v>691</v>
       </c>
-      <c r="E49" s="42" t="s">
+      <c r="E49" s="39" t="s">
         <v>692</v>
       </c>
-      <c r="F49" s="42" t="s">
+      <c r="F49" s="39" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="41" t="s">
+      <c r="A50" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="B50" s="33"/>
-      <c r="C50" s="33"/>
-      <c r="D50" s="33"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="33"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="41" t="s">
+      <c r="A51" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B51" s="42" t="s">
+      <c r="B51" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="C51" s="42" t="s">
+      <c r="C51" s="39" t="s">
         <v>694</v>
       </c>
-      <c r="D51" s="42" t="s">
+      <c r="D51" s="39" t="s">
         <v>695</v>
       </c>
-      <c r="E51" s="42" t="s">
+      <c r="E51" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="F51" s="42" t="s">
+      <c r="F51" s="39" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="41" t="s">
+      <c r="A52" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="42" t="s">
+      <c r="B52" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="C52" s="42" t="s">
+      <c r="C52" s="39" t="s">
         <v>697</v>
       </c>
-      <c r="D52" s="42" t="s">
+      <c r="D52" s="39" t="s">
         <v>698</v>
       </c>
-      <c r="E52" s="42" t="s">
+      <c r="E52" s="39" t="s">
         <v>177</v>
       </c>
-      <c r="F52" s="42" t="s">
+      <c r="F52" s="39" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="41" t="s">
+      <c r="A53" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="B53" s="42" t="s">
+      <c r="B53" s="39" t="s">
         <v>178</v>
       </c>
-      <c r="C53" s="42" t="s">
+      <c r="C53" s="39" t="s">
         <v>700</v>
       </c>
-      <c r="D53" s="42" t="s">
+      <c r="D53" s="39" t="s">
         <v>701</v>
       </c>
-      <c r="E53" s="42" t="s">
+      <c r="E53" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="F53" s="42" t="s">
+      <c r="F53" s="39" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="41" t="s">
+      <c r="A54" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="B54" s="33"/>
-      <c r="C54" s="33"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="33"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="30"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="41" t="s">
+      <c r="A55" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B55" s="42" t="s">
+      <c r="B55" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="C55" s="42" t="s">
+      <c r="C55" s="39" t="s">
         <v>703</v>
       </c>
-      <c r="D55" s="42" t="s">
+      <c r="D55" s="39" t="s">
         <v>704</v>
       </c>
-      <c r="E55" s="42" t="s">
+      <c r="E55" s="39" t="s">
         <v>186</v>
       </c>
-      <c r="F55" s="42" t="s">
+      <c r="F55" s="39" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="41" t="s">
+      <c r="A56" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="B56" s="42" t="s">
+      <c r="B56" s="39" t="s">
         <v>187</v>
       </c>
-      <c r="C56" s="42" t="s">
+      <c r="C56" s="39" t="s">
         <v>706</v>
       </c>
-      <c r="D56" s="42" t="s">
+      <c r="D56" s="39" t="s">
         <v>707</v>
       </c>
-      <c r="E56" s="42" t="s">
+      <c r="E56" s="39" t="s">
         <v>190</v>
       </c>
-      <c r="F56" s="42" t="s">
+      <c r="F56" s="39" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="41" t="s">
+      <c r="A57" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="B57" s="42" t="s">
+      <c r="B57" s="39" t="s">
         <v>191</v>
       </c>
-      <c r="C57" s="42" t="s">
+      <c r="C57" s="39" t="s">
         <v>709</v>
       </c>
-      <c r="D57" s="42" t="s">
+      <c r="D57" s="39" t="s">
         <v>710</v>
       </c>
-      <c r="E57" s="42" t="s">
+      <c r="E57" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="F57" s="42" t="s">
+      <c r="F57" s="39" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="41" t="s">
+      <c r="A58" s="38" t="s">
         <v>242</v>
       </c>
-      <c r="B58" s="33"/>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="33"/>
-      <c r="F58" s="33"/>
+      <c r="B58" s="30"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="30"/>
+      <c r="F58" s="30"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="41" t="s">
+      <c r="A59" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B59" s="42" t="s">
+      <c r="B59" s="39" t="s">
         <v>712</v>
       </c>
-      <c r="C59" s="42" t="s">
+      <c r="C59" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D59" s="42" t="s">
+      <c r="D59" s="39" t="s">
         <v>713</v>
       </c>
-      <c r="E59" s="42" t="s">
+      <c r="E59" s="39" t="s">
         <v>714</v>
       </c>
-      <c r="F59" s="42" t="s">
+      <c r="F59" s="39" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="41" t="s">
+      <c r="A60" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="B60" s="42" t="s">
+      <c r="B60" s="39" t="s">
         <v>716</v>
       </c>
-      <c r="C60" s="42" t="s">
+      <c r="C60" s="39" t="s">
         <v>717</v>
       </c>
-      <c r="D60" s="42" t="s">
+      <c r="D60" s="39" t="s">
         <v>718</v>
       </c>
-      <c r="E60" s="42" t="s">
+      <c r="E60" s="39" t="s">
         <v>719</v>
       </c>
-      <c r="F60" s="42" t="s">
+      <c r="F60" s="39" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="41" t="s">
+      <c r="A61" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="B61" s="42" t="s">
+      <c r="B61" s="39" t="s">
         <v>721</v>
       </c>
-      <c r="C61" s="42" t="s">
+      <c r="C61" s="39" t="s">
         <v>722</v>
       </c>
-      <c r="D61" s="42" t="s">
+      <c r="D61" s="39" t="s">
         <v>723</v>
       </c>
-      <c r="E61" s="42" t="s">
+      <c r="E61" s="39" t="s">
         <v>724</v>
       </c>
-      <c r="F61" s="42" t="s">
+      <c r="F61" s="39" t="s">
         <v>725</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="41" t="s">
+      <c r="A62" s="38" t="s">
         <v>195</v>
       </c>
-      <c r="B62" s="33"/>
-      <c r="C62" s="33"/>
-      <c r="D62" s="33"/>
-      <c r="E62" s="33"/>
-      <c r="F62" s="33"/>
+      <c r="B62" s="30"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="30"/>
+      <c r="F62" s="30"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="41" t="s">
+      <c r="A63" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B63" s="42" t="s">
+      <c r="B63" s="39" t="s">
         <v>196</v>
       </c>
-      <c r="C63" s="42" t="s">
+      <c r="C63" s="39" t="s">
         <v>726</v>
       </c>
-      <c r="D63" s="42" t="s">
+      <c r="D63" s="39" t="s">
         <v>727</v>
       </c>
-      <c r="E63" s="42" t="s">
+      <c r="E63" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="F63" s="42" t="s">
+      <c r="F63" s="39" t="s">
         <v>728</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="41" t="s">
+      <c r="A64" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="B64" s="42" t="s">
+      <c r="B64" s="39" t="s">
         <v>200</v>
       </c>
-      <c r="C64" s="42" t="s">
+      <c r="C64" s="39" t="s">
         <v>729</v>
       </c>
-      <c r="D64" s="42" t="s">
+      <c r="D64" s="39" t="s">
         <v>730</v>
       </c>
-      <c r="E64" s="42" t="s">
+      <c r="E64" s="39" t="s">
         <v>203</v>
       </c>
-      <c r="F64" s="42" t="s">
+      <c r="F64" s="39" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="41" t="s">
+      <c r="A65" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="B65" s="42" t="s">
+      <c r="B65" s="39" t="s">
         <v>204</v>
       </c>
-      <c r="C65" s="42" t="s">
+      <c r="C65" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="D65" s="42" t="s">
+      <c r="D65" s="39" t="s">
         <v>732</v>
       </c>
-      <c r="E65" s="42" t="s">
+      <c r="E65" s="39" t="s">
         <v>207</v>
       </c>
-      <c r="F65" s="42" t="s">
+      <c r="F65" s="39" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="41" t="s">
+      <c r="A66" s="38" t="s">
         <v>245</v>
       </c>
-      <c r="B66" s="33"/>
-      <c r="C66" s="33"/>
-      <c r="D66" s="33"/>
-      <c r="E66" s="33"/>
-      <c r="F66" s="33"/>
+      <c r="B66" s="30"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="30"/>
+      <c r="E66" s="30"/>
+      <c r="F66" s="30"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="41" t="s">
+      <c r="A67" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B67" s="42" t="s">
+      <c r="B67" s="39" t="s">
         <v>734</v>
       </c>
-      <c r="C67" s="42" t="s">
+      <c r="C67" s="39" t="s">
         <v>735</v>
       </c>
-      <c r="D67" s="42" t="s">
+      <c r="D67" s="39" t="s">
         <v>736</v>
       </c>
-      <c r="E67" s="42" t="s">
+      <c r="E67" s="39" t="s">
         <v>737</v>
       </c>
-      <c r="F67" s="42" t="s">
+      <c r="F67" s="39" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="41" t="s">
+      <c r="A68" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="B68" s="42" t="s">
+      <c r="B68" s="39" t="s">
         <v>739</v>
       </c>
-      <c r="C68" s="42" t="s">
+      <c r="C68" s="39" t="s">
         <v>740</v>
       </c>
-      <c r="D68" s="42" t="s">
+      <c r="D68" s="39" t="s">
         <v>741</v>
       </c>
-      <c r="E68" s="42" t="s">
+      <c r="E68" s="39" t="s">
         <v>742</v>
       </c>
-      <c r="F68" s="42" t="s">
+      <c r="F68" s="39" t="s">
         <v>743</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="41" t="s">
+      <c r="A69" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="B69" s="42" t="s">
+      <c r="B69" s="39" t="s">
         <v>744</v>
       </c>
-      <c r="C69" s="42" t="s">
+      <c r="C69" s="39" t="s">
         <v>745</v>
       </c>
-      <c r="D69" s="42" t="s">
+      <c r="D69" s="39" t="s">
         <v>746</v>
       </c>
-      <c r="E69" s="42" t="s">
+      <c r="E69" s="39" t="s">
         <v>747</v>
       </c>
-      <c r="F69" s="42" t="s">
+      <c r="F69" s="39" t="s">
         <v>748</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="41" t="s">
+      <c r="A70" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="B70" s="33"/>
-      <c r="C70" s="33"/>
-      <c r="D70" s="33"/>
-      <c r="E70" s="33"/>
-      <c r="F70" s="33"/>
+      <c r="B70" s="30"/>
+      <c r="C70" s="30"/>
+      <c r="D70" s="30"/>
+      <c r="E70" s="30"/>
+      <c r="F70" s="30"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="41" t="s">
+      <c r="A71" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B71" s="42" t="s">
+      <c r="B71" s="39" t="s">
         <v>749</v>
       </c>
-      <c r="C71" s="42" t="s">
+      <c r="C71" s="39" t="s">
         <v>750</v>
       </c>
-      <c r="D71" s="42" t="s">
+      <c r="D71" s="39" t="s">
         <v>751</v>
       </c>
-      <c r="E71" s="42" t="s">
+      <c r="E71" s="39" t="s">
         <v>752</v>
       </c>
-      <c r="F71" s="42" t="s">
+      <c r="F71" s="39" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="41" t="s">
+      <c r="A72" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="B72" s="42" t="s">
+      <c r="B72" s="39" t="s">
         <v>754</v>
       </c>
-      <c r="C72" s="42" t="s">
+      <c r="C72" s="39" t="s">
         <v>755</v>
       </c>
-      <c r="D72" s="42" t="s">
+      <c r="D72" s="39" t="s">
         <v>756</v>
       </c>
-      <c r="E72" s="42" t="s">
+      <c r="E72" s="39" t="s">
         <v>757</v>
       </c>
-      <c r="F72" s="42" t="s">
+      <c r="F72" s="39" t="s">
         <v>758</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="41" t="s">
+      <c r="A73" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="B73" s="42" t="s">
+      <c r="B73" s="39" t="s">
         <v>759</v>
       </c>
-      <c r="C73" s="42" t="s">
+      <c r="C73" s="39" t="s">
         <v>760</v>
       </c>
-      <c r="D73" s="42" t="s">
+      <c r="D73" s="39" t="s">
         <v>761</v>
       </c>
-      <c r="E73" s="42" t="s">
+      <c r="E73" s="39" t="s">
         <v>762</v>
       </c>
-      <c r="F73" s="42" t="s">
+      <c r="F73" s="39" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="41" t="s">
+      <c r="A74" s="38" t="s">
         <v>208</v>
       </c>
-      <c r="B74" s="33"/>
-      <c r="C74" s="33"/>
-      <c r="D74" s="33"/>
-      <c r="E74" s="33"/>
-      <c r="F74" s="33"/>
+      <c r="B74" s="30"/>
+      <c r="C74" s="30"/>
+      <c r="D74" s="30"/>
+      <c r="E74" s="30"/>
+      <c r="F74" s="30"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="41" t="s">
+      <c r="A75" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B75" s="42" t="s">
+      <c r="B75" s="39" t="s">
         <v>209</v>
       </c>
-      <c r="C75" s="42" t="s">
+      <c r="C75" s="39" t="s">
         <v>764</v>
       </c>
-      <c r="D75" s="42" t="s">
+      <c r="D75" s="39" t="s">
         <v>765</v>
       </c>
-      <c r="E75" s="42" t="s">
+      <c r="E75" s="39" t="s">
         <v>212</v>
       </c>
-      <c r="F75" s="42" t="s">
+      <c r="F75" s="39" t="s">
         <v>766</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="41" t="s">
+      <c r="A76" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="B76" s="42" t="s">
+      <c r="B76" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="C76" s="42" t="s">
+      <c r="C76" s="39" t="s">
         <v>767</v>
       </c>
-      <c r="D76" s="42" t="s">
+      <c r="D76" s="39" t="s">
         <v>768</v>
       </c>
-      <c r="E76" s="42" t="s">
+      <c r="E76" s="39" t="s">
         <v>216</v>
       </c>
-      <c r="F76" s="42" t="s">
+      <c r="F76" s="39" t="s">
         <v>769</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="41" t="s">
+      <c r="A77" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="B77" s="42" t="s">
+      <c r="B77" s="39" t="s">
         <v>217</v>
       </c>
-      <c r="C77" s="42" t="s">
+      <c r="C77" s="39" t="s">
         <v>770</v>
       </c>
-      <c r="D77" s="42" t="s">
+      <c r="D77" s="39" t="s">
         <v>771</v>
       </c>
-      <c r="E77" s="42" t="s">
+      <c r="E77" s="39" t="s">
         <v>220</v>
       </c>
-      <c r="F77" s="42" t="s">
+      <c r="F77" s="39" t="s">
         <v>772</v>
       </c>
     </row>
@@ -10069,7 +10108,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF355B99-EF8B-074C-BE55-78BB73FEF133}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
@@ -10082,270 +10121,651 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="41" t="s">
+      <c r="A1" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="38" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="39" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="39" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="39" t="s">
         <v>773</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="39" t="s">
         <v>774</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="39" t="s">
         <v>775</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="39" t="s">
         <v>776</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="39" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="39" t="s">
         <v>777</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="39" t="s">
         <v>778</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="39" t="s">
         <v>779</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="39" t="s">
         <v>780</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="39" t="s">
         <v>781</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="39" t="s">
         <v>782</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="39" t="s">
         <v>783</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="39" t="s">
         <v>784</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="39" t="s">
         <v>785</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="39" t="s">
         <v>786</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="39" t="s">
         <v>787</v>
       </c>
-      <c r="D11" s="42" t="s">
+      <c r="D11" s="39" t="s">
         <v>788</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="39" t="s">
         <v>789</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="39" t="s">
         <v>790</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="C12" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="39" t="s">
         <v>791</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="39" t="s">
         <v>792</v>
       </c>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="39" t="s">
         <v>793</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="39" t="s">
         <v>794</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="D13" s="39" t="s">
         <v>795</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="42" t="s">
+      <c r="D15" s="39" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="42" t="s">
+      <c r="C16" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="42" t="s">
+      <c r="D16" s="39" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="38" t="s">
         <v>796</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="39" t="s">
         <v>797</v>
       </c>
-      <c r="C17" s="42" t="s">
+      <c r="C17" s="39" t="s">
         <v>798</v>
       </c>
-      <c r="D17" s="42" t="s">
+      <c r="D17" s="39" t="s">
         <v>799</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="38" t="s">
         <v>800</v>
       </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="39" t="s">
         <v>801</v>
       </c>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="39" t="s">
         <v>802</v>
       </c>
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="42" t="s">
+      <c r="D19" s="39" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="39" t="s">
         <v>803</v>
       </c>
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="39" t="s">
         <v>804</v>
       </c>
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="39" t="s">
         <v>805</v>
       </c>
-      <c r="D20" s="42" t="s">
+      <c r="D20" s="39" t="s">
         <v>806</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="42" t="s">
+      <c r="A21" s="39" t="s">
         <v>807</v>
       </c>
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="39" t="s">
         <v>808</v>
       </c>
-      <c r="C21" s="42" t="s">
+      <c r="C21" s="39" t="s">
         <v>809</v>
       </c>
-      <c r="D21" s="42" t="s">
+      <c r="D21" s="39" t="s">
         <v>810</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D222D272-39EA-8A44-8931-1FEA5E275097}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:D39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B1" t="s">
+        <v>811</v>
+      </c>
+      <c r="C1" t="s">
+        <v>812</v>
+      </c>
+      <c r="D1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" t="s">
+        <v>569</v>
+      </c>
+      <c r="C2" t="str">
+        <f>LEFT(B2,5)</f>
+        <v xml:space="preserve">99.5 </v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" t="s">
+        <v>450</v>
+      </c>
+      <c r="C4" t="str">
+        <f>LEFT(B4,5)</f>
+        <v xml:space="preserve">6.03 </v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C6" t="str">
+        <f>LEFT(B6,5)</f>
+        <v xml:space="preserve">43.9 </v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" t="s">
+        <v>435</v>
+      </c>
+      <c r="C8" t="str">
+        <f>LEFT(B8,5)</f>
+        <v xml:space="preserve">40.8 </v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" t="s">
+        <v>420</v>
+      </c>
+      <c r="C10" t="str">
+        <f>LEFT(B10,5)</f>
+        <v xml:space="preserve">22.5 </v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" t="s">
+        <v>345</v>
+      </c>
+      <c r="C12" t="str">
+        <f>LEFT(B12,5)</f>
+        <v xml:space="preserve">10.3 </v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>243</v>
+      </c>
+      <c r="B14" t="s">
+        <v>554</v>
+      </c>
+      <c r="C14" t="str">
+        <f>LEFT(B14,5)</f>
+        <v xml:space="preserve">1.76 </v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>195</v>
+      </c>
+      <c r="B16" t="s">
+        <v>524</v>
+      </c>
+      <c r="C16" t="str">
+        <f>LEFT(B16,5)</f>
+        <v xml:space="preserve">1.38 </v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>241</v>
+      </c>
+      <c r="B18" t="s">
+        <v>465</v>
+      </c>
+      <c r="C18" t="str">
+        <f>LEFT(B18,5)</f>
+        <v xml:space="preserve">1.26 </v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" t="s">
+        <v>330</v>
+      </c>
+      <c r="C20" t="str">
+        <f>LEFT(B20,5)</f>
+        <v xml:space="preserve">1.11 </v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>169</v>
+      </c>
+      <c r="B22" t="s">
+        <v>480</v>
+      </c>
+      <c r="C22" t="str">
+        <f>LEFT(B22,5)</f>
+        <v>0.851</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>182</v>
+      </c>
+      <c r="B24" t="s">
+        <v>495</v>
+      </c>
+      <c r="C24" t="str">
+        <f>LEFT(B24,5)</f>
+        <v>0.701</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>242</v>
+      </c>
+      <c r="B26" t="s">
+        <v>510</v>
+      </c>
+      <c r="C26" t="str">
+        <f>LEFT(B26,5)</f>
+        <v>0.608</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>121</v>
+      </c>
+      <c r="B28" t="s">
+        <v>405</v>
+      </c>
+      <c r="C28" t="str">
+        <f>LEFT(B28,5)</f>
+        <v>0.384</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>240</v>
+      </c>
+      <c r="B30" t="s">
+        <v>390</v>
+      </c>
+      <c r="C30" t="str">
+        <f>LEFT(B30,5)</f>
+        <v>0.129</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>245</v>
+      </c>
+      <c r="B32" t="s">
+        <v>539</v>
+      </c>
+      <c r="C32" t="str">
+        <f>LEFT(B32,5)</f>
+        <v>0.095</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" t="s">
+        <v>375</v>
+      </c>
+      <c r="C34" t="str">
+        <f>LEFT(B34,5)</f>
+        <v>0.086</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>91</v>
+      </c>
+      <c r="B36" t="s">
+        <v>360</v>
+      </c>
+      <c r="C36" t="str">
+        <f>LEFT(B36,5)</f>
+        <v>0.022</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>239</v>
+      </c>
+      <c r="B38" t="s">
+        <v>300</v>
+      </c>
+      <c r="C38" t="str">
+        <f>LEFT(B38,5)</f>
+        <v>0.017</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C39" xr:uid="{D222D272-39EA-8A44-8931-1FEA5E275097}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Ag"/>
+        <filter val="Al"/>
+        <filter val="As"/>
+        <filter val="Ba"/>
+        <filter val="Be"/>
+        <filter val="Cd"/>
+        <filter val="Co"/>
+        <filter val="Cr"/>
+        <filter val="Cu"/>
+        <filter val="Fe"/>
+        <filter val="Mn"/>
+        <filter val="Mo"/>
+        <filter val="Ni"/>
+        <filter val="Pb"/>
+        <filter val="Sb"/>
+        <filter val="Se"/>
+        <filter val="Sn"/>
+        <filter val="V"/>
+        <filter val="Zn"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C38">
+      <sortCondition descending="1" ref="C1:C39"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>